--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,30 +51,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,7 +111,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,21 +119,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,47 +127,32 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,24 +164,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,13 +203,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,169 +305,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +394,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,45 +417,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,7 +439,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -484,13 +465,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,145 +502,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1057,6 +1057,23 @@
         <v>0</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -36,9 +36,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -50,6 +50,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -57,9 +79,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -67,6 +88,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -74,7 +103,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,71 +163,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,20 +179,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -186,9 +187,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,13 +203,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,163 +371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,15 +394,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -417,50 +408,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +441,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,145 +502,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="$A4:$XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1040,40 +1040,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -36,9 +36,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -50,11 +50,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -65,75 +88,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,17 +112,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,16 +148,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,13 +203,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +275,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,91 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,55 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +394,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,6 +417,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,15 +460,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -469,8 +478,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,15 +494,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,145 +502,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1040,6 +1040,40 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -36,9 +36,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -50,14 +50,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -65,9 +95,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,114 +171,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,25 +203,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,19 +329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,19 +353,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,109 +377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +401,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -421,15 +432,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -445,17 +447,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -475,22 +480,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,145 +502,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="A4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1037,42 +1037,15 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,10 +50,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -65,6 +81,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -73,115 +156,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,49 +203,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,121 +383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,26 +394,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -428,6 +408,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,15 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -476,6 +456,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +483,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,145 +502,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -976,7 +976,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A4:F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3"/>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1031,21 +1031,31 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -36,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -47,21 +47,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -81,8 +66,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,51 +84,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,6 +97,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -164,22 +180,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -203,55 +203,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,127 +371,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,65 +397,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,6 +430,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -494,6 +470,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,145 +502,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,13 +973,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
@@ -1057,6 +1057,112 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -36,8 +36,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -50,11 +50,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -66,104 +154,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -174,21 +164,31 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,187 +203,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,24 +394,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,10 +444,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -476,6 +456,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,6 +483,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,7 +502,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -511,7 +511,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -520,127 +520,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,10 +973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -1023,7 +1023,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1031,29 +1031,33 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>1</v>
       </c>
     </row>
@@ -1160,6 +1164,91 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1">
+        <v>40</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
+    <sheet name="GetItems" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Id</t>
   </si>
@@ -30,6 +31,15 @@
   <si>
     <t>Line</t>
   </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Param1</t>
+  </si>
+  <si>
+    <t>Param2</t>
+  </si>
 </sst>
 </file>
 
@@ -37,9 +47,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,9 +67,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -72,8 +127,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,25 +189,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,68 +203,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -203,25 +213,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,103 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,49 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -397,17 +407,37 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,26 +457,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,17 +504,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -502,145 +512,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -973,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1252,6 +1262,686 @@
         <v>1</v>
       </c>
     </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1001</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1003</v>
+      </c>
+      <c r="C21" s="1">
+        <v>3</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1004</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1005</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1006</v>
+      </c>
+      <c r="C24" s="1">
+        <v>6</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1007</v>
+      </c>
+      <c r="C25" s="1">
+        <v>7</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1008</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1009</v>
+      </c>
+      <c r="C27" s="1">
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1010</v>
+      </c>
+      <c r="C28" s="1">
+        <v>10</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1011</v>
+      </c>
+      <c r="C29" s="1">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1012</v>
+      </c>
+      <c r="C30" s="1">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1013</v>
+      </c>
+      <c r="C31" s="1">
+        <v>13</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1014</v>
+      </c>
+      <c r="C32" s="1">
+        <v>14</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1015</v>
+      </c>
+      <c r="C33" s="1">
+        <v>15</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>105</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>205</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>305</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>405</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>505</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>304</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1002</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>504</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1003</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>204</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1004</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>104</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1005</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>205</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1006</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>403</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1007</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>503</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1008</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>305</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1009</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>103</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1010</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1011</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>303</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1012</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>505</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1013</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>404</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1014</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>405</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1015</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>105</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -74,47 +74,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,37 +90,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,9 +112,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,15 +181,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,43 +213,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,7 +363,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,19 +381,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,103 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,13 +407,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -422,7 +426,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,17 +446,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,39 +504,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,145 +512,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1577,10 +1577,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1624,13 +1624,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1641,13 +1641,13 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>305</v>
+        <v>205</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1658,13 +1658,13 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>405</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1675,13 +1675,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>505</v>
+        <v>305</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1692,13 +1692,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1001</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1709,13 +1709,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>1002</v>
+        <v>40</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>504</v>
+        <v>405</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1726,13 +1726,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>1003</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>204</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1743,13 +1743,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>1004</v>
+        <v>50</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>104</v>
+        <v>505</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1760,13 +1760,13 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>1005</v>
+        <v>50</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1777,13 +1777,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1794,13 +1794,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1811,13 +1811,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1828,13 +1828,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1845,13 +1845,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1862,13 +1862,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1879,13 +1879,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1896,13 +1896,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1913,13 +1913,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>405</v>
+        <v>103</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1930,15 +1930,100 @@
         <v>1</v>
       </c>
       <c r="B21">
+        <v>1010</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>203</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1011</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>303</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1012</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>505</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1013</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>404</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1014</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>405</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
         <v>1015</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
         <v>105</v>
       </c>
-      <c r="E21">
+      <c r="E26">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,17 +67,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,17 +90,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,13 +136,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -127,32 +143,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,14 +167,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -190,7 +183,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +198,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,25 +213,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,157 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +404,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,8 +440,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -449,8 +464,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -466,26 +481,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,145 +512,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,8 +985,8 @@
   <sheetPr/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1082,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -1137,7 +1137,7 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -1188,7 +1188,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1222,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -1239,7 +1239,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -1287,13 +1287,13 @@
         <v>50</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1307,7 +1307,7 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1579,7 +1579,7 @@
   <sheetPr/>
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -47,9 +47,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +60,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -67,19 +97,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -99,67 +128,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,6 +143,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -181,7 +158,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -189,8 +165,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,6 +213,96 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -225,13 +315,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,157 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,17 +407,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,15 +438,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,19 +460,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,145 +512,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1253,7 +1253,7 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -1565,6 +1565,74 @@
         <v>1</v>
       </c>
       <c r="E33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
+        <v>100</v>
+      </c>
+      <c r="C34" s="1">
+        <v>13</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>13</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37">
+        <v>101</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -46,9 +46,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -60,8 +60,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -69,7 +92,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -77,6 +107,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,70 +137,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,16 +150,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,9 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +191,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,43 +213,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +369,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,121 +393,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,6 +466,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -477,15 +486,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,145 +512,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1633,6 +1633,57 @@
         <v>1</v>
       </c>
       <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1">
+        <v>200</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8</v>
+      </c>
+      <c r="D38" s="1">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>200</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>200</v>
+      </c>
+      <c r="C40" s="1">
+        <v>102</v>
+      </c>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -48,8 +48,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -68,18 +68,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,21 +84,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,9 +98,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,46 +173,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,13 +203,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -213,13 +213,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,169 +315,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,11 +418,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,24 +481,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,7 +512,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,7 +521,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -530,127 +530,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I40"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1681,9 +1681,111 @@
         <v>102</v>
       </c>
       <c r="D40" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1">
+        <v>300</v>
+      </c>
+      <c r="C41" s="1">
+        <v>7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>300</v>
+      </c>
+      <c r="C42">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
+        <v>300</v>
+      </c>
+      <c r="C43" s="1">
+        <v>103</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1">
+        <v>400</v>
+      </c>
+      <c r="C44" s="1">
+        <v>9</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>400</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
+        <v>400</v>
+      </c>
+      <c r="C46" s="1">
+        <v>104</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -46,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,8 +60,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,11 +76,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,16 +136,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,61 +182,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,17 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,187 +213,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,39 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,17 +422,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +466,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -504,6 +495,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,145 +512,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,10 +983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1786,6 +1786,74 @@
         <v>1</v>
       </c>
       <c r="E46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1">
+        <v>500</v>
+      </c>
+      <c r="C47" s="1">
+        <v>5</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1">
+        <v>500</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
+        <v>500</v>
+      </c>
+      <c r="C49" s="1">
+        <v>5</v>
+      </c>
+      <c r="D49" s="1">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50" s="1">
+        <v>500</v>
+      </c>
+      <c r="C50">
+        <v>105</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -46,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,6 +57,120 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -76,122 +190,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,19 +213,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,25 +357,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,133 +381,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,6 +404,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -426,7 +450,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,15 +466,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,26 +496,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,145 +512,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -1866,10 +1866,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -1902,7 +1902,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1936,7 +1936,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2066,13 +2066,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>1001</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2083,13 +2083,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>1002</v>
+        <v>200</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>504</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2100,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>1003</v>
+        <v>300</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>204</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2117,13 +2117,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>1004</v>
+        <v>400</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2134,13 +2134,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>1005</v>
+        <v>500</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>205</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2151,13 +2151,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>403</v>
+        <v>304</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2168,13 +2168,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2185,13 +2185,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>305</v>
+        <v>204</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2202,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2219,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2236,13 +2236,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>303</v>
+        <v>403</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2253,13 +2253,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2270,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2287,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>405</v>
+        <v>103</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2304,15 +2304,100 @@
         <v>1</v>
       </c>
       <c r="B26">
+        <v>1010</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>203</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1011</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>303</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1012</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>505</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1013</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>404</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1014</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>405</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
         <v>1015</v>
       </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
         <v>105</v>
       </c>
-      <c r="E26">
+      <c r="E31">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -46,10 +46,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -57,6 +57,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -75,23 +82,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,37 +99,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,9 +113,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,8 +150,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,7 +160,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,8 +174,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,187 +213,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,30 +404,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,25 +422,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -504,6 +471,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,145 +512,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,8 +985,8 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1341,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1409,7 +1409,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1426,7 +1426,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1443,7 +1443,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1460,7 +1460,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1494,7 +1494,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1511,7 +1511,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1545,7 +1545,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1562,7 +1562,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1866,10 +1866,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
@@ -2072,7 +2072,7 @@
         <v>2</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2086,10 +2086,10 @@
         <v>200</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>221</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2100,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>2</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2117,13 +2117,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2134,13 +2134,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2151,13 +2151,13 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>1001</v>
+        <v>500</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2168,13 +2168,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>504</v>
+        <v>304</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2185,13 +2185,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2202,13 +2202,13 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>104</v>
+        <v>504</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2219,13 +2219,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2236,13 +2236,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>403</v>
+        <v>204</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2253,13 +2253,13 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2270,13 +2270,13 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>305</v>
+        <v>104</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2287,13 +2287,13 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2304,13 +2304,13 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2321,13 +2321,13 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>303</v>
+        <v>5</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2338,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>505</v>
+        <v>404</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2355,13 +2355,13 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>404</v>
+        <v>5</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2372,13 +2372,13 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>405</v>
+        <v>503</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -2389,15 +2389,287 @@
         <v>1</v>
       </c>
       <c r="B31">
+        <v>1007</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>1008</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>305</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>1008</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>1009</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>103</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>1009</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>1010</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>203</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>1010</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>1011</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>303</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <v>1011</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
+        <v>1012</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>505</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <v>1012</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1013</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>403</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1013</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1014</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>405</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>1014</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
         <v>1015</v>
       </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
         <v>105</v>
       </c>
-      <c r="E31">
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1015</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
     <sheet name="GetItems" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -61,14 +64,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,9 +84,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,14 +101,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,14 +123,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,6 +141,13 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,21 +185,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,13 +216,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,25 +318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,19 +330,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,25 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,67 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +425,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -433,32 +451,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,6 +496,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -512,7 +515,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,136 +524,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -723,6 +726,772 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Skills"/>
+      <sheetName val="Features"/>
+      <sheetName val="Triggers"/>
+      <sheetName val="TextData"/>
+      <sheetName val="Define"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Text</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>0</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>何もしない</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>攻撃</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>11</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>神化</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>21</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>神化解除</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>31</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>拘束制御</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>32</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>拘束ダメージ解除</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>101</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>ファイアボール</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>102</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>バーンストーム</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>103</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>ヒートスタンプ</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>104</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>ソードアダプト</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>111</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>インフェルノ</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>112</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>スベテモヤシツクス</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>121</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>メルトバースト</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>131</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>ウルフソウル</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>132</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>プリディカメント</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>133</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>アサルトシフト</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>134</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>スタートダッシュ</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>141</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>ファイアエンチャント</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>201</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>ライトニングウェブ</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>202</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>シャープコード</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>203</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>ショックインパルス</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>204</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>トラストチェイン</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>211</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>ステップリーダー</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>212</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>ユビサキデカラメトル</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>221</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>アクセラレイト</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>231</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>エクステンション</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>232</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>スパークフォグ</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>233</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>スウィートボイス</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>234</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>ファストキャスター</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>235</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>ヘブンリーラック</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>241</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>サンダーエンチャント</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>301</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>カウンターオーラ</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>302</v>
+          </cell>
+          <cell r="B34" t="str">
+            <v>シールドスペル</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>303</v>
+          </cell>
+          <cell r="B35" t="str">
+            <v>エスコートソール</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>304</v>
+          </cell>
+          <cell r="B36" t="str">
+            <v>スペルバニッシュ</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>311</v>
+          </cell>
+          <cell r="B37" t="str">
+            <v>フリジットシェル</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>312</v>
+          </cell>
+          <cell r="B38" t="str">
+            <v>ノロマナカメニナレ</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>321</v>
+          </cell>
+          <cell r="B39" t="str">
+            <v>バブルブロウ</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>331</v>
+          </cell>
+          <cell r="B40" t="str">
+            <v>ガーディアンソウル</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>332</v>
+          </cell>
+          <cell r="B41" t="str">
+            <v>アーマーコード</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>333</v>
+          </cell>
+          <cell r="B42" t="str">
+            <v>ガードシフト</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>334</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>ノーリミット</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>341</v>
+          </cell>
+          <cell r="B44" t="str">
+            <v>アイスエンチャント</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>401</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>ペネトレイト</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>402</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>ヒーリング</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>403</v>
+          </cell>
+          <cell r="B47" t="str">
+            <v>リフレッシュ</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>404</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>べネディクション</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>411</v>
+          </cell>
+          <cell r="B49" t="str">
+            <v>エリクシール</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>412</v>
+          </cell>
+          <cell r="B50" t="str">
+            <v>エンジェルフェザー</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>421</v>
+          </cell>
+          <cell r="B51" t="str">
+            <v>ホーリーグレイス</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>431</v>
+          </cell>
+          <cell r="B52" t="str">
+            <v>ディバインシールド</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>432</v>
+          </cell>
+          <cell r="B53" t="str">
+            <v>メディケーション</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>433</v>
+          </cell>
+          <cell r="B54" t="str">
+            <v>アフェクション</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>434</v>
+          </cell>
+          <cell r="B55" t="str">
+            <v>リジェネレーション</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>441</v>
+          </cell>
+          <cell r="B56" t="str">
+            <v>ホーリーエンチャント</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>501</v>
+          </cell>
+          <cell r="B57" t="str">
+            <v>ユーサネイジア</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>502</v>
+          </cell>
+          <cell r="B58" t="str">
+            <v>ドレインヒール</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>503</v>
+          </cell>
+          <cell r="B59" t="str">
+            <v>デリートマジック</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>504</v>
+          </cell>
+          <cell r="B60" t="str">
+            <v>ディプラヴィティ</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>511</v>
+          </cell>
+          <cell r="B61" t="str">
+            <v>ディストラクション</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>512</v>
+          </cell>
+          <cell r="B62" t="str">
+            <v>カオスペイン</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>521</v>
+          </cell>
+          <cell r="B63" t="str">
+            <v>ダークネス</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>531</v>
+          </cell>
+          <cell r="B64" t="str">
+            <v>イーグルアイ</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>532</v>
+          </cell>
+          <cell r="B65" t="str">
+            <v>ネヴァーエンド</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>533</v>
+          </cell>
+          <cell r="B66" t="str">
+            <v>ネガティブドレイン</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>534</v>
+          </cell>
+          <cell r="B67" t="str">
+            <v>スカルグラッジ</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>541</v>
+          </cell>
+          <cell r="B68" t="str">
+            <v>ダークエンチャント</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>1000</v>
+          </cell>
+          <cell r="B69" t="str">
+            <v>愚者</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>1001</v>
+          </cell>
+          <cell r="B70" t="str">
+            <v>魔術師</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>1002</v>
+          </cell>
+          <cell r="B71" t="str">
+            <v>女帝</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>1003</v>
+          </cell>
+          <cell r="B72" t="str">
+            <v>女教皇</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>1004</v>
+          </cell>
+          <cell r="B73" t="str">
+            <v>皇帝</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>1005</v>
+          </cell>
+          <cell r="B74" t="str">
+            <v>法王</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>1006</v>
+          </cell>
+          <cell r="B75" t="str">
+            <v>恋愛</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>1007</v>
+          </cell>
+          <cell r="B76" t="str">
+            <v>戦車</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>1008</v>
+          </cell>
+          <cell r="B77" t="str">
+            <v>正義</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>1009</v>
+          </cell>
+          <cell r="B78" t="str">
+            <v>隠者</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>1010</v>
+          </cell>
+          <cell r="B79" t="str">
+            <v>運命</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>1011</v>
+          </cell>
+          <cell r="B80" t="str">
+            <v>剛毅</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>1012</v>
+          </cell>
+          <cell r="B81" t="str">
+            <v>刑死者</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>1013</v>
+          </cell>
+          <cell r="B82" t="str">
+            <v>死神</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>1014</v>
+          </cell>
+          <cell r="B83" t="str">
+            <v>節制</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>1015</v>
+          </cell>
+          <cell r="B84" t="str">
+            <v>悪魔</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>1016</v>
+          </cell>
+          <cell r="B85" t="str">
+            <v>塔</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>1017</v>
+          </cell>
+          <cell r="B86" t="str">
+            <v>星</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>1018</v>
+          </cell>
+          <cell r="B87" t="str">
+            <v>月</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>1019</v>
+          </cell>
+          <cell r="B88" t="str">
+            <v>太陽</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>1020</v>
+          </cell>
+          <cell r="B89" t="str">
+            <v>審判</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>1022</v>
+          </cell>
+          <cell r="B90" t="str">
+            <v>杖</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>1023</v>
+          </cell>
+          <cell r="B91" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>1024</v>
+          </cell>
+          <cell r="B92" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>1025</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>貨幣</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -985,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1324,7 +2093,7 @@
         <v>1</v>
       </c>
       <c r="D19" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1">
         <v>1</v>
@@ -1341,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="D20" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
@@ -1358,7 +2127,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
@@ -1375,7 +2144,7 @@
         <v>4</v>
       </c>
       <c r="D22" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1">
         <v>1</v>
@@ -1392,7 +2161,7 @@
         <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
@@ -1409,7 +2178,7 @@
         <v>6</v>
       </c>
       <c r="D24" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1">
         <v>1</v>
@@ -1426,7 +2195,7 @@
         <v>7</v>
       </c>
       <c r="D25" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <v>1</v>
@@ -1443,7 +2212,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -1460,7 +2229,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
@@ -1477,7 +2246,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1">
         <v>1</v>
@@ -1494,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="D29" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1511,7 +2280,7 @@
         <v>12</v>
       </c>
       <c r="D30" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
@@ -1528,7 +2297,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1">
         <v>1</v>
@@ -1545,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="D32" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
@@ -1562,7 +2331,7 @@
         <v>15</v>
       </c>
       <c r="D33" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>1</v>
@@ -1746,7 +2515,7 @@
         <v>400</v>
       </c>
       <c r="C44" s="1">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="1">
         <v>3</v>
@@ -1763,7 +2532,7 @@
         <v>400</v>
       </c>
       <c r="C45">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>3</v>
@@ -1866,13 +2635,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
@@ -1891,7 +2660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1905,7 +2674,11 @@
         <v>101</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F2" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D2,[1]TextData!A:A))</f>
+        <v>ファイアボール</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1922,10 +2695,10 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1939,7 +2712,11 @@
         <v>202</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F4" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D4,[1]TextData!A:A))</f>
+        <v>シャープコード</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1956,10 +2733,10 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1973,7 +2750,11 @@
         <v>302</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F6" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D6,[1]TextData!A:A))</f>
+        <v>シールドスペル</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1990,10 +2771,10 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2007,7 +2788,11 @@
         <v>401</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F8" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D8,[1]TextData!A:A))</f>
+        <v>ペネトレイト</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2024,10 +2809,10 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2041,7 +2826,11 @@
         <v>502</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F10" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D10,[1]TextData!A:A))</f>
+        <v>ドレインヒール</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2058,10 +2847,10 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2069,13 +2858,17 @@
         <v>100</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>334</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F12" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D12,[1]TextData!A:A))</f>
+        <v>ノーリミット</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2083,19 +2876,19 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2103,13 +2896,17 @@
         <v>200</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>221</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F14" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D14,[1]TextData!A:A))</f>
+        <v>アクセラレイト</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2117,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -2126,24 +2923,28 @@
         <v>15</v>
       </c>
       <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>121</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F16" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D16,[1]TextData!A:A))</f>
+        <v>メルトバースト</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2151,7 +2952,7 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -2160,24 +2961,28 @@
         <v>15</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1001</v>
+        <v>400</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>304</v>
+        <v>421</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F18" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D18,[1]TextData!A:A))</f>
+        <v>ホーリーグレイス</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2185,33 +2990,37 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1001</v>
+        <v>400</v>
       </c>
       <c r="C19">
         <v>2</v>
       </c>
       <c r="D19">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20">
-        <v>1002</v>
+        <v>500</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>504</v>
+        <v>533</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="F20" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D20,[1]TextData!A:A))</f>
+        <v>ネガティブドレイン</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2219,67 +3028,79 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>1002</v>
+        <v>500</v>
       </c>
       <c r="C21">
         <v>2</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22">
-        <v>204</v>
+        <v>321</v>
       </c>
       <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F22" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D22,[1]TextData!A:A))</f>
+        <v>バブルブロウ</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F23" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
+        <v>アーマーコード</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>104</v>
+        <v>333</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="F24" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D24,[1]TextData!A:A))</f>
+        <v>ガードシフト</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2287,7 +3108,7 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -2296,58 +3117,70 @@
         <v>5</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26">
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>205</v>
+        <v>504</v>
       </c>
       <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F26" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D26,[1]TextData!A:A))</f>
+        <v>ディプラヴィティ</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>521</v>
       </c>
       <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F27" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D27,[1]TextData!A:A))</f>
+        <v>ダークネス</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28">
-        <v>404</v>
+        <v>534</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="F28" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D28,[1]TextData!A:A))</f>
+        <v>スカルグラッジ</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2355,7 +3188,7 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2364,58 +3197,70 @@
         <v>5</v>
       </c>
       <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>503</v>
+        <v>204</v>
       </c>
       <c r="E30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F30" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D30,[1]TextData!A:A))</f>
+        <v>トラストチェイン</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>234</v>
       </c>
       <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F31" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D31,[1]TextData!A:A))</f>
+        <v>ファストキャスター</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>305</v>
+        <v>221</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="F32" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D32,[1]TextData!A:A))</f>
+        <v>アクセラレイト</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2423,7 +3268,7 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2432,58 +3277,70 @@
         <v>5</v>
       </c>
       <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>103</v>
+        <v>131</v>
       </c>
       <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F34" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D34,[1]TextData!A:A))</f>
+        <v>ウルフソウル</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35">
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>5</v>
+        <v>132</v>
       </c>
       <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F35" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D35,[1]TextData!A:A))</f>
+        <v>プリディカメント</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36">
-        <v>203</v>
+        <v>135</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="F36" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D36,[1]TextData!A:A))</f>
+        <v>スタートダッシュ</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2491,7 +3348,7 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="C37">
         <v>2</v>
@@ -2500,66 +3357,78 @@
         <v>5</v>
       </c>
       <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="E38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F38" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D38,[1]TextData!A:A))</f>
+        <v>スパークフォグ</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39">
         <v>1</v>
       </c>
       <c r="B39">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="E39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F39" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D39,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40">
         <v>1</v>
       </c>
       <c r="B40">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>505</v>
+        <v>235</v>
       </c>
       <c r="E40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F40" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D40,[1]TextData!A:A))</f>
+        <v>ヘブンリーラック</v>
+      </c>
+    </row>
+    <row r="41" ht="12" customHeight="1" spans="1:5">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -2568,58 +3437,70 @@
         <v>5</v>
       </c>
       <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>1</v>
       </c>
       <c r="B42">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>100</v>
+      </c>
+      <c r="F42" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D42,[1]TextData!A:A))</f>
+        <v>べネディクション</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>1</v>
       </c>
       <c r="B43">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43">
-        <v>5</v>
+        <v>432</v>
       </c>
       <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="F43" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D43,[1]TextData!A:A))</f>
+        <v>メディケーション</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="F44" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D44,[1]TextData!A:A))</f>
+        <v>ホーリーエンチャント</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2627,7 +3508,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="C45">
         <v>2</v>
@@ -2636,41 +3517,727 @@
         <v>5</v>
       </c>
       <c r="E45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>1</v>
       </c>
       <c r="B46">
+        <v>1007</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>503</v>
+      </c>
+      <c r="E46">
+        <v>100</v>
+      </c>
+      <c r="F46" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D46,[1]TextData!A:A))</f>
+        <v>デリートマジック</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>1</v>
+      </c>
+      <c r="B47">
+        <v>1007</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>531</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D47,[1]TextData!A:A))</f>
+        <v>イーグルアイ</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>1007</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>532</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D48,[1]TextData!A:A))</f>
+        <v>ネヴァーエンド</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>1</v>
+      </c>
+      <c r="B49">
+        <v>1007</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50">
+        <v>1008</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>331</v>
+      </c>
+      <c r="E50">
+        <v>100</v>
+      </c>
+      <c r="F50" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D50,[1]TextData!A:A))</f>
+        <v>ガーディアンソウル</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>1008</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>334</v>
+      </c>
+      <c r="E51">
+        <v>30</v>
+      </c>
+      <c r="F51" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D51,[1]TextData!A:A))</f>
+        <v>ノーリミット</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>1</v>
+      </c>
+      <c r="B52">
+        <v>1008</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>341</v>
+      </c>
+      <c r="E52">
+        <v>30</v>
+      </c>
+      <c r="F52" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D52,[1]TextData!A:A))</f>
+        <v>アイスエンチャント</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>1</v>
+      </c>
+      <c r="B53">
+        <v>1008</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>1009</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>103</v>
+      </c>
+      <c r="E54">
+        <v>100</v>
+      </c>
+      <c r="F54" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D54,[1]TextData!A:A))</f>
+        <v>ヒートスタンプ</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55">
+        <v>1009</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>131</v>
+      </c>
+      <c r="E55">
+        <v>30</v>
+      </c>
+      <c r="F55" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D55,[1]TextData!A:A))</f>
+        <v>ウルフソウル</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>1</v>
+      </c>
+      <c r="B56">
+        <v>1009</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>134</v>
+      </c>
+      <c r="E56">
+        <v>30</v>
+      </c>
+      <c r="F56" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D56,[1]TextData!A:A))</f>
+        <v>スタートダッシュ</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57">
+        <v>1009</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>1010</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>203</v>
+      </c>
+      <c r="E58">
+        <v>100</v>
+      </c>
+      <c r="F58" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D58,[1]TextData!A:A))</f>
+        <v>ショックインパルス</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59">
+        <v>1010</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>233</v>
+      </c>
+      <c r="E59">
+        <v>30</v>
+      </c>
+      <c r="F59" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D59,[1]TextData!A:A))</f>
+        <v>スウィートボイス</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>1</v>
+      </c>
+      <c r="B60">
+        <v>1010</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>241</v>
+      </c>
+      <c r="E60">
+        <v>30</v>
+      </c>
+      <c r="F60" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D60,[1]TextData!A:A))</f>
+        <v>サンダーエンチャント</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61">
+        <v>1010</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>1</v>
+      </c>
+      <c r="B62">
+        <v>1011</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>304</v>
+      </c>
+      <c r="E62">
+        <v>100</v>
+      </c>
+      <c r="F62" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D62,[1]TextData!A:A))</f>
+        <v>スペルバニッシュ</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>1</v>
+      </c>
+      <c r="B63">
+        <v>1011</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>332</v>
+      </c>
+      <c r="E63">
+        <v>30</v>
+      </c>
+      <c r="F63" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D63,[1]TextData!A:A))</f>
+        <v>アーマーコード</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>1</v>
+      </c>
+      <c r="B64">
+        <v>1011</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>333</v>
+      </c>
+      <c r="E64">
+        <v>30</v>
+      </c>
+      <c r="F64" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D64,[1]TextData!A:A))</f>
+        <v>ガードシフト</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>1011</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1012</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>505</v>
+      </c>
+      <c r="E66">
+        <v>100</v>
+      </c>
+      <c r="F66" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D66,[1]TextData!A:A))</f>
+        <v>ディプラヴィティ</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1012</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>534</v>
+      </c>
+      <c r="E67">
+        <v>30</v>
+      </c>
+      <c r="F67" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D67,[1]TextData!A:A))</f>
+        <v>スカルグラッジ</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>1</v>
+      </c>
+      <c r="B68">
+        <v>1012</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>541</v>
+      </c>
+      <c r="E68">
+        <v>30</v>
+      </c>
+      <c r="F68" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D68,[1]TextData!A:A))</f>
+        <v>ダークエンチャント</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>1</v>
+      </c>
+      <c r="B69">
+        <v>1012</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70">
+        <v>1013</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>403</v>
+      </c>
+      <c r="E70">
+        <v>100</v>
+      </c>
+      <c r="F70" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D70,[1]TextData!A:A))</f>
+        <v>リフレッシュ</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>1</v>
+      </c>
+      <c r="B71">
+        <v>1013</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>431</v>
+      </c>
+      <c r="E71">
+        <v>30</v>
+      </c>
+      <c r="F71" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D71,[1]TextData!A:A))</f>
+        <v>ディバインシールド</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>1</v>
+      </c>
+      <c r="B72">
+        <v>1013</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>434</v>
+      </c>
+      <c r="E72">
+        <v>30</v>
+      </c>
+      <c r="F72" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D72,[1]TextData!A:A))</f>
+        <v>リジェネレーション</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73">
+        <v>1013</v>
+      </c>
+      <c r="C73">
+        <v>2</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>1</v>
+      </c>
+      <c r="B74">
+        <v>1014</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>431</v>
+      </c>
+      <c r="E74">
+        <v>100</v>
+      </c>
+      <c r="F74" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D74,[1]TextData!A:A))</f>
+        <v>ディバインシールド</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75">
+        <v>1014</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>432</v>
+      </c>
+      <c r="E75">
+        <v>30</v>
+      </c>
+      <c r="F75" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D75,[1]TextData!A:A))</f>
+        <v>メディケーション</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>1</v>
+      </c>
+      <c r="B76">
+        <v>1014</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>433</v>
+      </c>
+      <c r="E76">
+        <v>30</v>
+      </c>
+      <c r="F76" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D76,[1]TextData!A:A))</f>
+        <v>アフェクション</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>1014</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>1</v>
+      </c>
+      <c r="B78">
         <v>1015</v>
       </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>105</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>104</v>
+      </c>
+      <c r="E78">
+        <v>100</v>
+      </c>
+      <c r="F78" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D78,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79">
         <v>1015</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <v>133</v>
+      </c>
+      <c r="E79">
+        <v>30</v>
+      </c>
+      <c r="F79" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D79,[1]TextData!A:A))</f>
+        <v>アサルトシフト</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>1015</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>141</v>
+      </c>
+      <c r="E80">
+        <v>30</v>
+      </c>
+      <c r="F80" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D80,[1]TextData!A:A))</f>
+        <v>ファイアエンチャント</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>1015</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
         <v>5</v>
       </c>
-      <c r="E47">
-        <v>1</v>
+      <c r="E81">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -49,10 +49,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,44 +63,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,28 +74,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,15 +88,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,6 +163,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,23 +201,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,121 +216,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +234,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,7 +360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,31 +372,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,21 +440,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -481,9 +466,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +507,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -515,145 +515,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -900,7 +900,7 @@
             <v>201</v>
           </cell>
           <cell r="B20" t="str">
-            <v>ライトニングウェブ</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="21">
@@ -908,7 +908,7 @@
             <v>202</v>
           </cell>
           <cell r="B21" t="str">
-            <v>シャープコード</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="22">
@@ -916,7 +916,7 @@
             <v>203</v>
           </cell>
           <cell r="B22" t="str">
-            <v>ショックインパルス</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="23">
@@ -924,566 +924,598 @@
             <v>204</v>
           </cell>
           <cell r="B23" t="str">
-            <v>トラストチェイン</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>211</v>
+            <v>205</v>
           </cell>
           <cell r="B24" t="str">
-            <v>ステップリーダー</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>212</v>
+            <v>211</v>
           </cell>
           <cell r="B25" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>221</v>
+            <v>212</v>
           </cell>
           <cell r="B26" t="str">
-            <v>アクセラレイト</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>231</v>
+            <v>221</v>
           </cell>
           <cell r="B27" t="str">
-            <v>エクステンション</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>232</v>
+            <v>231</v>
           </cell>
           <cell r="B28" t="str">
-            <v>スパークフォグ</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>233</v>
+            <v>232</v>
           </cell>
           <cell r="B29" t="str">
-            <v>スウィートボイス</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>234</v>
+            <v>233</v>
           </cell>
           <cell r="B30" t="str">
-            <v>ファストキャスター</v>
+            <v>スウィートボイス</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>235</v>
+            <v>234</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ヘブンリーラック</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>241</v>
+            <v>235</v>
           </cell>
           <cell r="B32" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>301</v>
+            <v>241</v>
           </cell>
           <cell r="B33" t="str">
-            <v>カウンターオーラ</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>302</v>
+            <v>301</v>
           </cell>
           <cell r="B34" t="str">
-            <v>シールドスペル</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>303</v>
+            <v>302</v>
           </cell>
           <cell r="B35" t="str">
-            <v>エスコートソール</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>304</v>
+            <v>303</v>
           </cell>
           <cell r="B36" t="str">
-            <v>スペルバニッシュ</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>311</v>
+            <v>304</v>
           </cell>
           <cell r="B37" t="str">
-            <v>フリジットシェル</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>312</v>
+            <v>305</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>スペルバニッシュ</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>321</v>
+            <v>311</v>
           </cell>
           <cell r="B39" t="str">
-            <v>バブルブロウ</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>331</v>
+            <v>312</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ガーディアンソウル</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>332</v>
+            <v>321</v>
           </cell>
           <cell r="B41" t="str">
-            <v>アーマーコード</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>333</v>
+            <v>331</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ガードシフト</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>334</v>
+            <v>332</v>
           </cell>
           <cell r="B43" t="str">
-            <v>ノーリミット</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>341</v>
+            <v>333</v>
           </cell>
           <cell r="B44" t="str">
-            <v>アイスエンチャント</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>401</v>
+            <v>334</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ペネトレイト</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>402</v>
+            <v>341</v>
           </cell>
           <cell r="B46" t="str">
-            <v>ヒーリング</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>403</v>
+            <v>401</v>
           </cell>
           <cell r="B47" t="str">
-            <v>リフレッシュ</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>404</v>
+            <v>402</v>
           </cell>
           <cell r="B48" t="str">
-            <v>べネディクション</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>411</v>
+            <v>403</v>
           </cell>
           <cell r="B49" t="str">
-            <v>エリクシール</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>412</v>
+            <v>404</v>
           </cell>
           <cell r="B50" t="str">
-            <v>エンジェルフェザー</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>421</v>
+            <v>405</v>
           </cell>
           <cell r="B51" t="str">
-            <v>ホーリーグレイス</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>431</v>
+            <v>411</v>
           </cell>
           <cell r="B52" t="str">
-            <v>ディバインシールド</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>432</v>
+            <v>412</v>
           </cell>
           <cell r="B53" t="str">
-            <v>メディケーション</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>433</v>
+            <v>421</v>
           </cell>
           <cell r="B54" t="str">
-            <v>アフェクション</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>434</v>
+            <v>431</v>
           </cell>
           <cell r="B55" t="str">
-            <v>リジェネレーション</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>441</v>
+            <v>432</v>
           </cell>
           <cell r="B56" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>501</v>
+            <v>433</v>
           </cell>
           <cell r="B57" t="str">
-            <v>ユーサネイジア</v>
+            <v>アフェクション</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>502</v>
+            <v>434</v>
           </cell>
           <cell r="B58" t="str">
-            <v>ドレインヒール</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>503</v>
+            <v>441</v>
           </cell>
           <cell r="B59" t="str">
-            <v>デリートマジック</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>504</v>
+            <v>501</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ディプラヴィティ</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>511</v>
+            <v>502</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ディストラクション</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>512</v>
+            <v>503</v>
           </cell>
           <cell r="B62" t="str">
-            <v>カオスペイン</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>521</v>
+            <v>504</v>
           </cell>
           <cell r="B63" t="str">
-            <v>ダークネス</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>531</v>
+            <v>505</v>
           </cell>
           <cell r="B64" t="str">
-            <v>イーグルアイ</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>532</v>
+            <v>511</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>533</v>
+            <v>512</v>
           </cell>
           <cell r="B66" t="str">
-            <v>ネガティブドレイン</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>534</v>
+            <v>521</v>
           </cell>
           <cell r="B67" t="str">
-            <v>スカルグラッジ</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>541</v>
+            <v>531</v>
           </cell>
           <cell r="B68" t="str">
-            <v>ダークエンチャント</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>1000</v>
+            <v>532</v>
           </cell>
           <cell r="B69" t="str">
-            <v>愚者</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>1001</v>
+            <v>533</v>
           </cell>
           <cell r="B70" t="str">
-            <v>魔術師</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>1002</v>
+            <v>534</v>
           </cell>
           <cell r="B71" t="str">
-            <v>女帝</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>1003</v>
+            <v>541</v>
           </cell>
           <cell r="B72" t="str">
-            <v>女教皇</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>1004</v>
+            <v>1000</v>
           </cell>
           <cell r="B73" t="str">
-            <v>皇帝</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>1005</v>
+            <v>1001</v>
           </cell>
           <cell r="B74" t="str">
-            <v>法王</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>1006</v>
+            <v>1002</v>
           </cell>
           <cell r="B75" t="str">
-            <v>恋愛</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>1007</v>
+            <v>1003</v>
           </cell>
           <cell r="B76" t="str">
-            <v>戦車</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>1008</v>
+            <v>1004</v>
           </cell>
           <cell r="B77" t="str">
-            <v>正義</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>1009</v>
+            <v>1005</v>
           </cell>
           <cell r="B78" t="str">
-            <v>隠者</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>1010</v>
+            <v>1006</v>
           </cell>
           <cell r="B79" t="str">
-            <v>運命</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>1011</v>
+            <v>1007</v>
           </cell>
           <cell r="B80" t="str">
-            <v>剛毅</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>1012</v>
+            <v>1008</v>
           </cell>
           <cell r="B81" t="str">
-            <v>刑死者</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>1013</v>
+            <v>1009</v>
           </cell>
           <cell r="B82" t="str">
-            <v>死神</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>1014</v>
+            <v>1010</v>
           </cell>
           <cell r="B83" t="str">
-            <v>節制</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>1015</v>
+            <v>1011</v>
           </cell>
           <cell r="B84" t="str">
-            <v>悪魔</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1016</v>
+            <v>1012</v>
           </cell>
           <cell r="B85" t="str">
-            <v>塔</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1017</v>
+            <v>1013</v>
           </cell>
           <cell r="B86" t="str">
-            <v>星</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1018</v>
+            <v>1014</v>
           </cell>
           <cell r="B87" t="str">
-            <v>月</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1019</v>
+            <v>1015</v>
           </cell>
           <cell r="B88" t="str">
-            <v>太陽</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1020</v>
+            <v>1016</v>
           </cell>
           <cell r="B89" t="str">
-            <v>審判</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1022</v>
+            <v>1017</v>
           </cell>
           <cell r="B90" t="str">
-            <v>杖</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1023</v>
+            <v>1018</v>
           </cell>
           <cell r="B91" t="str">
-            <v>器</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1024</v>
+            <v>1019</v>
           </cell>
           <cell r="B92" t="str">
-            <v>剣</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
+            <v>1020</v>
+          </cell>
+          <cell r="B93" t="str">
+            <v>審判</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>1022</v>
+          </cell>
+          <cell r="B94" t="str">
+            <v>杖</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>1023</v>
+          </cell>
+          <cell r="B95" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>1024</v>
+          </cell>
+          <cell r="B96" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
             <v>1025</v>
           </cell>
-          <cell r="B93" t="str">
+          <cell r="B97" t="str">
             <v>貨幣</v>
           </cell>
         </row>
@@ -1754,7 +1786,7 @@
   <sheetPr/>
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -2637,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2671,14 +2703,14 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="E2">
         <v>100</v>
       </c>
       <c r="F2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D2,[1]TextData!A:A))</f>
-        <v>ファイアボール</v>
+        <v>プリディカメント</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2709,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E4">
         <v>100</v>
@@ -2747,7 +2779,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -2785,7 +2817,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -2823,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -3131,7 +3163,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -3211,7 +3243,7 @@
         <v>1</v>
       </c>
       <c r="D30">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -3451,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -3531,7 +3563,7 @@
         <v>1</v>
       </c>
       <c r="D46">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -3771,7 +3803,7 @@
         <v>1</v>
       </c>
       <c r="D58">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -3851,7 +3883,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -4011,7 +4043,7 @@
         <v>1</v>
       </c>
       <c r="D70">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E70">
         <v>100</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -49,8 +49,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -63,9 +63,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,15 +86,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -103,21 +102,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,7 +124,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -146,6 +138,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -153,8 +161,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,34 +200,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,7 +216,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,43 +264,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +294,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,19 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,31 +378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,43 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +407,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,17 +440,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,23 +452,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,8 +472,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,11 +493,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,145 +515,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2669,8 +2669,8 @@
   <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -3365,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="D36">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E36">
         <v>30</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -49,10 +49,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,23 +63,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -88,36 +90,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,14 +104,50 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -161,6 +169,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,41 +185,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -216,13 +216,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,13 +246,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,19 +270,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,61 +294,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +336,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,17 +410,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,17 +467,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,41 +484,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,145 +515,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2669,7 +2669,7 @@
   <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Id</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>Lv</t>
+  </si>
+  <si>
+    <t>BossFlag</t>
   </si>
   <si>
     <t>Line</t>
@@ -51,8 +54,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -63,25 +66,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -89,24 +75,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -117,8 +88,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,6 +112,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -140,14 +134,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -162,24 +171,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,8 +187,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,7 +219,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -228,25 +267,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,55 +315,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,13 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,49 +363,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,7 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,45 +410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -466,20 +430,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,6 +463,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -507,6 +495,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -515,7 +518,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,7 +527,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1784,15 +1787,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1808,12 +1811,15 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1829,12 +1835,15 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1">
+        <v>0</v>
+      </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1848,14 +1857,17 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1869,10 +1881,13 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1888,12 +1903,15 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>2</v>
       </c>
@@ -1909,8 +1927,11 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1924,10 +1945,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1940,11 +1964,14 @@
       <c r="D8" s="1">
         <v>2</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1958,10 +1985,13 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1975,10 +2005,13 @@
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1991,11 +2024,14 @@
       <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2008,11 +2044,14 @@
       <c r="D12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -2025,11 +2064,14 @@
       <c r="D13" s="1">
         <v>5</v>
       </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -2042,11 +2084,14 @@
       <c r="D14" s="1">
         <v>2</v>
       </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>2</v>
       </c>
@@ -2054,607 +2099,735 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>12</v>
+      </c>
+      <c r="D16">
         <v>5</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1">
         <v>50</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>2</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>50</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
         <v>5</v>
       </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>1</v>
-      </c>
-      <c r="B19" s="1">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1">
         <v>1001</v>
       </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1">
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1">
         <v>1002</v>
       </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="1">
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1">
         <v>1003</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C22" s="1">
         <v>3</v>
       </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="1">
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1">
         <v>1004</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1">
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1">
         <v>1005</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>1</v>
-      </c>
-      <c r="B24" s="1">
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
         <v>1006</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C25" s="1">
         <v>6</v>
       </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>1</v>
-      </c>
-      <c r="B25" s="1">
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1">
         <v>1007</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C26" s="1">
         <v>7</v>
       </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>1</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1">
         <v>1008</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C27" s="1">
         <v>8</v>
       </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27" s="1">
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
         <v>1009</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C28" s="1">
         <v>9</v>
       </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1">
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>1</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1">
         <v>1010</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>1</v>
-      </c>
-      <c r="B29" s="1">
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1">
         <v>1011</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C30" s="1">
         <v>11</v>
       </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>1</v>
-      </c>
-      <c r="B30" s="1">
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1">
         <v>1012</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C31" s="1">
         <v>12</v>
       </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>1</v>
-      </c>
-      <c r="B31" s="1">
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
         <v>1013</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C32" s="1">
         <v>13</v>
       </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1">
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1">
         <v>1014</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C33" s="1">
         <v>14</v>
       </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>1</v>
-      </c>
-      <c r="B33" s="1">
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1">
         <v>1015</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C34" s="1">
         <v>15</v>
       </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>1</v>
-      </c>
-      <c r="B34" s="1">
-        <v>100</v>
-      </c>
-      <c r="C34" s="1">
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1">
+        <v>100</v>
+      </c>
+      <c r="C35" s="1">
         <v>13</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D35" s="1">
         <v>3</v>
       </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>100</v>
-      </c>
-      <c r="C35">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
         <v>13</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1">
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
         <v>3</v>
       </c>
-      <c r="B36" s="1">
-        <v>100</v>
-      </c>
-      <c r="C36" s="1">
+      <c r="B37" s="1">
+        <v>100</v>
+      </c>
+      <c r="C37" s="1">
         <v>13</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
         <v>4</v>
       </c>
-      <c r="B37">
-        <v>100</v>
-      </c>
-      <c r="C37">
+      <c r="B38">
+        <v>100</v>
+      </c>
+      <c r="C38">
         <v>101</v>
       </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>1</v>
-      </c>
-      <c r="B38" s="1">
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1">
         <v>200</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C39" s="1">
         <v>8</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D39" s="1">
         <v>3</v>
       </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
         <v>200</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>8</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1">
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
         <v>3</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B41" s="1">
         <v>200</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C41" s="1">
         <v>102</v>
       </c>
-      <c r="D40" s="1">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>1</v>
-      </c>
-      <c r="B41" s="1">
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1">
         <v>300</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C42" s="1">
         <v>7</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D42" s="1">
         <v>3</v>
       </c>
-      <c r="E41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
         <v>300</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>7</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>3</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1">
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
         <v>3</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B44" s="1">
         <v>300</v>
       </c>
-      <c r="C43" s="1">
+      <c r="C44" s="1">
         <v>103</v>
       </c>
-      <c r="D43" s="1">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>1</v>
-      </c>
-      <c r="B44" s="1">
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1">
         <v>400</v>
       </c>
-      <c r="C44" s="1">
+      <c r="C45" s="1">
         <v>14</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D45" s="1">
         <v>3</v>
       </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
         <v>400</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>14</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>3</v>
       </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1">
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
         <v>3</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B47" s="1">
         <v>400</v>
       </c>
-      <c r="C46" s="1">
+      <c r="C47" s="1">
         <v>104</v>
       </c>
-      <c r="D46" s="1">
-        <v>1</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
-      <c r="B47" s="1">
-        <v>500</v>
-      </c>
-      <c r="C47" s="1">
-        <v>5</v>
-      </c>
       <c r="D47" s="1">
-        <v>3</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>500</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="1">
         <v>5</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>3</v>
       </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>3</v>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>2</v>
       </c>
       <c r="B49" s="1">
         <v>500</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49">
         <v>5</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50">
-        <v>4</v>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>3</v>
       </c>
       <c r="B50" s="1">
         <v>500</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="1">
+        <v>5</v>
+      </c>
+      <c r="D50" s="1">
+        <v>3</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51" s="1">
+        <v>500</v>
+      </c>
+      <c r="C51">
         <v>105</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
         <v>1</v>
       </c>
     </row>
@@ -2669,7 +2842,7 @@
   <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
@@ -2683,13 +2856,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -67,7 +67,99 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,108 +174,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,7 +204,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,7 +219,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -231,7 +261,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,31 +357,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,127 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,56 +410,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,8 +430,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -491,7 +443,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,6 +501,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
             <v>305</v>
           </cell>
           <cell r="B38" t="str">
-            <v>スペルバニッシュ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="39">
@@ -1520,6 +1520,54 @@
           </cell>
           <cell r="B97" t="str">
             <v>貨幣</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>2001</v>
+          </cell>
+          <cell r="B98" t="str">
+            <v>元素術・炎</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>2002</v>
+          </cell>
+          <cell r="B99" t="str">
+            <v>元素術・雷</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>2003</v>
+          </cell>
+          <cell r="B100" t="str">
+            <v>元素術・氷</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>2004</v>
+          </cell>
+          <cell r="B101" t="str">
+            <v>光魔術</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>2005</v>
+          </cell>
+          <cell r="B102" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>2009</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>はずす</v>
           </cell>
         </row>
       </sheetData>
@@ -1789,8 +1837,8 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -2842,8 +2890,8 @@
   <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2952,14 +3000,14 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E6">
         <v>100</v>
       </c>
       <c r="F6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D6,[1]TextData!A:A))</f>
-        <v>シールドスペル</v>
+        <v>ディープフリーズ</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4056,14 +4104,14 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D62,[1]TextData!A:A))</f>
-        <v>スペルバニッシュ</v>
+        <v>シールドスペル</v>
       </c>
     </row>
     <row r="63" spans="1:6">

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7140"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -67,6 +67,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -82,7 +189,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -90,114 +197,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,31 +219,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,13 +261,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,13 +321,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,109 +387,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,28 +413,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,26 +485,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,7 +518,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -527,7 +527,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -536,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1837,7 +1837,7 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2890,7 +2890,7 @@
   <sheetPr/>
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="19200" windowHeight="7140" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,8 +66,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,11 +96,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -104,8 +133,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -120,55 +164,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -182,7 +182,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,21 +205,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,19 +219,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,79 +285,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,43 +309,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -381,25 +339,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,35 +413,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,11 +458,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,17 +502,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +518,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -892,681 +892,753 @@
         </row>
         <row r="19">
           <cell r="A19">
-            <v>141</v>
+            <v>135</v>
           </cell>
           <cell r="B19" t="str">
-            <v>ファイアエンチャント</v>
+            <v>ライズアップマインド</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20">
-            <v>201</v>
+            <v>136</v>
           </cell>
           <cell r="B20" t="str">
-            <v>ディスチャージ</v>
+            <v>イグナイテッド</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21">
-            <v>202</v>
+            <v>141</v>
           </cell>
           <cell r="B21" t="str">
-            <v>ライトニングウェブ</v>
+            <v>ファイアエンチャント</v>
           </cell>
         </row>
         <row r="22">
           <cell r="A22">
-            <v>203</v>
+            <v>201</v>
           </cell>
           <cell r="B22" t="str">
-            <v>シャープコード</v>
+            <v>ディスチャージ</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23">
-            <v>204</v>
+            <v>202</v>
           </cell>
           <cell r="B23" t="str">
-            <v>ショックインパルス</v>
+            <v>ライトニングウェブ</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24">
-            <v>205</v>
+            <v>203</v>
           </cell>
           <cell r="B24" t="str">
-            <v>トラストチェイン</v>
+            <v>シャープコード</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25">
-            <v>211</v>
+            <v>204</v>
           </cell>
           <cell r="B25" t="str">
-            <v>ステップリーダー</v>
+            <v>ショックインパルス</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26">
-            <v>212</v>
+            <v>205</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ユビサキデカラメトル</v>
+            <v>トラストチェイン</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27">
-            <v>221</v>
+            <v>211</v>
           </cell>
           <cell r="B27" t="str">
-            <v>アクセラレイト</v>
+            <v>ステップリーダー</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28">
-            <v>231</v>
+            <v>212</v>
           </cell>
           <cell r="B28" t="str">
-            <v>エクステンション</v>
+            <v>ユビサキデカラメトル</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29">
-            <v>232</v>
+            <v>221</v>
           </cell>
           <cell r="B29" t="str">
-            <v>スパークフォグ</v>
+            <v>アクセラレイト</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30">
-            <v>233</v>
+            <v>231</v>
           </cell>
           <cell r="B30" t="str">
-            <v>スウィートボイス</v>
+            <v>エクステンション</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31">
-            <v>234</v>
+            <v>232</v>
           </cell>
           <cell r="B31" t="str">
-            <v>ファストキャスター</v>
+            <v>スパークフォグ</v>
           </cell>
         </row>
         <row r="32">
           <cell r="A32">
-            <v>235</v>
+            <v>233</v>
           </cell>
           <cell r="B32" t="str">
-            <v>ヘブンリーラック</v>
+            <v>スウィートボイス</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33">
-            <v>241</v>
+            <v>234</v>
           </cell>
           <cell r="B33" t="str">
-            <v>サンダーエンチャント</v>
+            <v>ファストキャスター</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34">
-            <v>301</v>
+            <v>235</v>
           </cell>
           <cell r="B34" t="str">
-            <v>アイスブレイド</v>
+            <v>ヘブンリーラック</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35">
-            <v>302</v>
+            <v>236</v>
           </cell>
           <cell r="B35" t="str">
-            <v>カウンターオーラ</v>
+            <v>クイックアクト</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36">
-            <v>303</v>
+            <v>241</v>
           </cell>
           <cell r="B36" t="str">
-            <v>シールドスペル</v>
+            <v>サンダーエンチャント</v>
           </cell>
         </row>
         <row r="37">
           <cell r="A37">
-            <v>304</v>
+            <v>301</v>
           </cell>
           <cell r="B37" t="str">
-            <v>エスコートソール</v>
+            <v>アイスブレイド</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38">
-            <v>305</v>
+            <v>302</v>
           </cell>
           <cell r="B38" t="str">
-            <v>ディープフリーズ</v>
+            <v>カウンターオーラ</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39">
-            <v>311</v>
+            <v>303</v>
           </cell>
           <cell r="B39" t="str">
-            <v>フリジットシェル</v>
+            <v>シールドスペル</v>
           </cell>
         </row>
         <row r="40">
           <cell r="A40">
-            <v>312</v>
+            <v>304</v>
           </cell>
           <cell r="B40" t="str">
-            <v>ノロマナカメニナレ</v>
+            <v>エスコートソール</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41">
-            <v>321</v>
+            <v>305</v>
           </cell>
           <cell r="B41" t="str">
-            <v>バブルブロウ</v>
+            <v>ディープフリーズ</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42">
-            <v>331</v>
+            <v>311</v>
           </cell>
           <cell r="B42" t="str">
-            <v>ガーディアンソウル</v>
+            <v>フリジットシェル</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43">
-            <v>332</v>
+            <v>312</v>
           </cell>
           <cell r="B43" t="str">
-            <v>アーマーコード</v>
+            <v>ノロマナカメニナレ</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44">
-            <v>333</v>
+            <v>321</v>
           </cell>
           <cell r="B44" t="str">
-            <v>ガードシフト</v>
+            <v>バブルブロウ</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45">
-            <v>334</v>
+            <v>331</v>
           </cell>
           <cell r="B45" t="str">
-            <v>ノーリミット</v>
+            <v>ガーディアンソウル</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46">
-            <v>341</v>
+            <v>332</v>
           </cell>
           <cell r="B46" t="str">
-            <v>アイスエンチャント</v>
+            <v>アーマーコード</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47">
-            <v>401</v>
+            <v>333</v>
           </cell>
           <cell r="B47" t="str">
-            <v>セイントレーザー</v>
+            <v>ガードシフト</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48">
-            <v>402</v>
+            <v>334</v>
           </cell>
           <cell r="B48" t="str">
-            <v>ペネトレイト</v>
+            <v>ノーリミット</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49">
-            <v>403</v>
+            <v>335</v>
           </cell>
           <cell r="B49" t="str">
-            <v>ヒーリング</v>
+            <v>カウンターヒール</v>
           </cell>
         </row>
         <row r="50">
           <cell r="A50">
-            <v>404</v>
+            <v>336</v>
           </cell>
           <cell r="B50" t="str">
-            <v>リフレッシュ</v>
+            <v>ペイシャンス</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51">
-            <v>405</v>
+            <v>341</v>
           </cell>
           <cell r="B51" t="str">
-            <v>べネディクション</v>
+            <v>アイスエンチャント</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52">
-            <v>411</v>
+            <v>401</v>
           </cell>
           <cell r="B52" t="str">
-            <v>エリクシール</v>
+            <v>セイントレーザー</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53">
-            <v>412</v>
+            <v>402</v>
           </cell>
           <cell r="B53" t="str">
-            <v>エンジェルフェザー</v>
+            <v>ペネトレイト</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54">
-            <v>421</v>
+            <v>403</v>
           </cell>
           <cell r="B54" t="str">
-            <v>ホーリーグレイス</v>
+            <v>ヒーリング</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55">
-            <v>431</v>
+            <v>404</v>
           </cell>
           <cell r="B55" t="str">
-            <v>ディバインシールド</v>
+            <v>リフレッシュ</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56">
-            <v>432</v>
+            <v>405</v>
           </cell>
           <cell r="B56" t="str">
-            <v>メディケーション</v>
+            <v>べネディクション</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57">
-            <v>433</v>
+            <v>411</v>
           </cell>
           <cell r="B57" t="str">
-            <v>アフェクション</v>
+            <v>エリクシール</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58">
-            <v>434</v>
+            <v>412</v>
           </cell>
           <cell r="B58" t="str">
-            <v>リジェネレーション</v>
+            <v>エンジェルフェザー</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59">
-            <v>441</v>
+            <v>421</v>
           </cell>
           <cell r="B59" t="str">
-            <v>ホーリーエンチャント</v>
+            <v>ホーリーグレイス</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60">
-            <v>501</v>
+            <v>431</v>
           </cell>
           <cell r="B60" t="str">
-            <v>ダークプリズン</v>
+            <v>ディバインシールド</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61">
-            <v>502</v>
+            <v>432</v>
           </cell>
           <cell r="B61" t="str">
-            <v>ユーサネイジア</v>
+            <v>メディケーション</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62">
-            <v>503</v>
+            <v>433</v>
           </cell>
           <cell r="B62" t="str">
-            <v>ドレインヒール</v>
+            <v>アフェクション</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63">
-            <v>504</v>
+            <v>434</v>
           </cell>
           <cell r="B63" t="str">
-            <v>デリートマジック</v>
+            <v>リジェネレーション</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64">
-            <v>505</v>
+            <v>435</v>
           </cell>
           <cell r="B64" t="str">
-            <v>ディプラヴィティ</v>
+            <v>アライアンス</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65">
-            <v>511</v>
+            <v>436</v>
           </cell>
           <cell r="B65" t="str">
-            <v>ディストラクション</v>
+            <v>スペクトルマイン</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66">
-            <v>512</v>
+            <v>441</v>
           </cell>
           <cell r="B66" t="str">
-            <v>カオスペイン</v>
+            <v>ホーリーエンチャント</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67">
-            <v>521</v>
+            <v>501</v>
           </cell>
           <cell r="B67" t="str">
-            <v>ダークネス</v>
+            <v>ダークプリズン</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68">
-            <v>531</v>
+            <v>502</v>
           </cell>
           <cell r="B68" t="str">
-            <v>イーグルアイ</v>
+            <v>ユーサネイジア</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69">
-            <v>532</v>
+            <v>503</v>
           </cell>
           <cell r="B69" t="str">
-            <v>ネヴァーエンド</v>
+            <v>ドレインヒール</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70">
-            <v>533</v>
+            <v>504</v>
           </cell>
           <cell r="B70" t="str">
-            <v>ネガティブドレイン</v>
+            <v>デリートマジック</v>
           </cell>
         </row>
         <row r="71">
           <cell r="A71">
-            <v>534</v>
+            <v>505</v>
           </cell>
           <cell r="B71" t="str">
-            <v>スカルグラッジ</v>
+            <v>ディプラヴィティ</v>
           </cell>
         </row>
         <row r="72">
           <cell r="A72">
-            <v>541</v>
+            <v>511</v>
           </cell>
           <cell r="B72" t="str">
-            <v>ダークエンチャント</v>
+            <v>ディストラクション</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73">
-            <v>1000</v>
+            <v>512</v>
           </cell>
           <cell r="B73" t="str">
-            <v>愚者</v>
+            <v>カオスペイン</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74">
-            <v>1001</v>
+            <v>521</v>
           </cell>
           <cell r="B74" t="str">
-            <v>魔術師</v>
+            <v>ダークネス</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75">
-            <v>1002</v>
+            <v>531</v>
           </cell>
           <cell r="B75" t="str">
-            <v>女帝</v>
+            <v>イーグルアイ</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76">
-            <v>1003</v>
+            <v>532</v>
           </cell>
           <cell r="B76" t="str">
-            <v>女教皇</v>
+            <v>ネヴァーエンド</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77">
-            <v>1004</v>
+            <v>533</v>
           </cell>
           <cell r="B77" t="str">
-            <v>皇帝</v>
+            <v>ネガティブドレイン</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78">
-            <v>1005</v>
+            <v>534</v>
           </cell>
           <cell r="B78" t="str">
-            <v>法王</v>
+            <v>スカルグラッジ</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79">
-            <v>1006</v>
+            <v>535</v>
           </cell>
           <cell r="B79" t="str">
-            <v>恋愛</v>
+            <v>クリープアウト</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80">
-            <v>1007</v>
+            <v>536</v>
           </cell>
           <cell r="B80" t="str">
-            <v>戦車</v>
+            <v>カタストロフ</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81">
-            <v>1008</v>
+            <v>541</v>
           </cell>
           <cell r="B81" t="str">
-            <v>正義</v>
+            <v>ダークエンチャント</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82">
-            <v>1009</v>
+            <v>1000</v>
           </cell>
           <cell r="B82" t="str">
-            <v>隠者</v>
+            <v>愚者</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83">
-            <v>1010</v>
+            <v>1001</v>
           </cell>
           <cell r="B83" t="str">
-            <v>運命</v>
+            <v>魔術師</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84">
-            <v>1011</v>
+            <v>1002</v>
           </cell>
           <cell r="B84" t="str">
-            <v>剛毅</v>
+            <v>女帝</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85">
-            <v>1012</v>
+            <v>1003</v>
           </cell>
           <cell r="B85" t="str">
-            <v>刑死者</v>
+            <v>女教皇</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86">
-            <v>1013</v>
+            <v>1004</v>
           </cell>
           <cell r="B86" t="str">
-            <v>死神</v>
+            <v>皇帝</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87">
-            <v>1014</v>
+            <v>1005</v>
           </cell>
           <cell r="B87" t="str">
-            <v>節制</v>
+            <v>法王</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88">
-            <v>1015</v>
+            <v>1006</v>
           </cell>
           <cell r="B88" t="str">
-            <v>悪魔</v>
+            <v>恋愛</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89">
-            <v>1016</v>
+            <v>1007</v>
           </cell>
           <cell r="B89" t="str">
-            <v>塔</v>
+            <v>戦車</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90">
-            <v>1017</v>
+            <v>1008</v>
           </cell>
           <cell r="B90" t="str">
-            <v>星</v>
+            <v>正義</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91">
-            <v>1018</v>
+            <v>1009</v>
           </cell>
           <cell r="B91" t="str">
-            <v>月</v>
+            <v>隠者</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92">
-            <v>1019</v>
+            <v>1010</v>
           </cell>
           <cell r="B92" t="str">
-            <v>太陽</v>
+            <v>運命</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93">
-            <v>1020</v>
+            <v>1011</v>
           </cell>
           <cell r="B93" t="str">
-            <v>審判</v>
+            <v>剛毅</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94">
-            <v>1022</v>
+            <v>1012</v>
           </cell>
           <cell r="B94" t="str">
-            <v>杖</v>
+            <v>刑死者</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95">
-            <v>1023</v>
+            <v>1013</v>
           </cell>
           <cell r="B95" t="str">
-            <v>器</v>
+            <v>死神</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96">
-            <v>1024</v>
+            <v>1014</v>
           </cell>
           <cell r="B96" t="str">
-            <v>剣</v>
+            <v>節制</v>
           </cell>
         </row>
         <row r="97">
           <cell r="A97">
-            <v>1025</v>
+            <v>1015</v>
           </cell>
           <cell r="B97" t="str">
-            <v>貨幣</v>
+            <v>悪魔</v>
           </cell>
         </row>
         <row r="98">
           <cell r="A98">
-            <v>2001</v>
+            <v>1016</v>
           </cell>
           <cell r="B98" t="str">
-            <v>元素術・炎</v>
+            <v>塔</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99">
-            <v>2002</v>
+            <v>1017</v>
           </cell>
           <cell r="B99" t="str">
-            <v>元素術・雷</v>
+            <v>星</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100">
-            <v>2003</v>
+            <v>1018</v>
           </cell>
           <cell r="B100" t="str">
-            <v>元素術・氷</v>
+            <v>月</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101">
-            <v>2004</v>
+            <v>1019</v>
           </cell>
           <cell r="B101" t="str">
-            <v>光魔術</v>
+            <v>太陽</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102">
-            <v>2005</v>
+            <v>1020</v>
           </cell>
           <cell r="B102" t="str">
-            <v>超次元術</v>
+            <v>審判</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103">
+            <v>1022</v>
+          </cell>
+          <cell r="B103" t="str">
+            <v>杖</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>1023</v>
+          </cell>
+          <cell r="B104" t="str">
+            <v>器</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>1024</v>
+          </cell>
+          <cell r="B105" t="str">
+            <v>剣</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>1025</v>
+          </cell>
+          <cell r="B106" t="str">
+            <v>貨幣</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>2001</v>
+          </cell>
+          <cell r="B107" t="str">
+            <v>元素術・炎</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>2002</v>
+          </cell>
+          <cell r="B108" t="str">
+            <v>元素術・雷</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>2003</v>
+          </cell>
+          <cell r="B109" t="str">
+            <v>元素術・氷</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>2004</v>
+          </cell>
+          <cell r="B110" t="str">
+            <v>光魔術</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>2005</v>
+          </cell>
+          <cell r="B111" t="str">
+            <v>超次元術</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
             <v>2009</v>
           </cell>
-          <cell r="B103" t="str">
+          <cell r="B112" t="str">
             <v>はずす</v>
           </cell>
         </row>
@@ -1837,7 +1909,7 @@
   <sheetPr/>
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -2888,10 +2960,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -2951,28 +3023,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>100</v>
       </c>
-      <c r="F4" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D4,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2980,34 +3048,34 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
+        <v>203</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D5,[1]TextData!A:A))</f>
+        <v>シャープコード</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>305</v>
-      </c>
       <c r="E6">
         <v>100</v>
-      </c>
-      <c r="F6" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D6,[1]TextData!A:A))</f>
-        <v>ディープフリーズ</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3015,13 +3083,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -3032,20 +3100,20 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>402</v>
+        <v>305</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
       <c r="F8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D8,[1]TextData!A:A))</f>
-        <v>ペネトレイト</v>
+        <v>ディープフリーズ</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3053,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -3065,63 +3133,59 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1</v>
       </c>
       <c r="B10">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>503</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>100</v>
       </c>
-      <c r="F10" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D10,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
+        <v>402</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D11,[1]TextData!A:A))</f>
+        <v>ペネトレイト</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>40</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>334</v>
-      </c>
       <c r="E12">
         <v>100</v>
-      </c>
-      <c r="F12" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D12,[1]TextData!A:A))</f>
-        <v>ノーリミット</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3129,13 +3193,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -3146,20 +3210,20 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>221</v>
+        <v>503</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D14,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
+        <v>ドレインヒール</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3167,75 +3231,71 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>334</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="F17" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D17,[1]TextData!A:A))</f>
+        <v>ノーリミット</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
         <v>15</v>
       </c>
-      <c r="E15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>300</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>121</v>
-      </c>
-      <c r="E16">
-        <v>100</v>
-      </c>
-      <c r="F16" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D16,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>300</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>15</v>
-      </c>
-      <c r="E17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>400</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>421</v>
-      </c>
       <c r="E18">
         <v>100</v>
-      </c>
-      <c r="F18" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D18,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3243,13 +3303,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -3260,20 +3320,20 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>533</v>
+        <v>221</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D20,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+        <v>アクセラレイト</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3281,7 +3341,7 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="C21">
         <v>2</v>
@@ -3293,25 +3353,21 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>1</v>
       </c>
       <c r="B22">
-        <v>1001</v>
+        <v>200</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>321</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>100</v>
-      </c>
-      <c r="F22" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D22,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3319,41 +3375,37 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>1001</v>
+        <v>300</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>332</v>
+        <v>121</v>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>メルトバースト</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>1</v>
       </c>
       <c r="B24">
-        <v>1001</v>
+        <v>300</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D24">
-        <v>333</v>
+        <v>15</v>
       </c>
       <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D24,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3361,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>1001</v>
+        <v>300</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <v>5</v>
@@ -3378,121 +3430,109 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>1002</v>
+        <v>400</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>505</v>
+        <v>421</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
       <c r="F26" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D26,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>ホーリーグレイス</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>1</v>
       </c>
       <c r="B27">
-        <v>1002</v>
+        <v>400</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>521</v>
+        <v>15</v>
       </c>
       <c r="E27">
-        <v>30</v>
-      </c>
-      <c r="F27" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D27,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>1002</v>
+        <v>400</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>534</v>
+        <v>5</v>
       </c>
       <c r="E28">
-        <v>30</v>
-      </c>
-      <c r="F28" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D28,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>1002</v>
+        <v>500</v>
       </c>
       <c r="C29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29">
+        <v>533</v>
+      </c>
+      <c r="E29">
+        <v>100</v>
+      </c>
+      <c r="F29" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D29,[1]TextData!A:A))</f>
+        <v>ネガティブドレイン</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>500</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>15</v>
+      </c>
+      <c r="E30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>500</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
         <v>5</v>
       </c>
-      <c r="E29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30">
-        <v>1</v>
-      </c>
-      <c r="B30">
-        <v>1003</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>205</v>
-      </c>
-      <c r="E30">
-        <v>100</v>
-      </c>
-      <c r="F30" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D30,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31">
-        <v>1</v>
-      </c>
-      <c r="B31">
-        <v>1003</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>234</v>
-      </c>
       <c r="E31">
-        <v>30</v>
-      </c>
-      <c r="F31" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D31,[1]TextData!A:A))</f>
-        <v>ファストキャスター</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3500,37 +3540,41 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>221</v>
+        <v>321</v>
       </c>
       <c r="E32">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D32,[1]TextData!A:A))</f>
-        <v>アクセラレイト</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>バブルブロウ</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33">
-        <v>5</v>
+        <v>332</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="F33" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D33,[1]TextData!A:A))</f>
+        <v>アーマーコード</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3538,20 +3582,20 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34">
-        <v>131</v>
+        <v>333</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D34,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+        <v>ガードシフト</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3559,58 +3603,58 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>132</v>
+        <v>336</v>
       </c>
       <c r="E35">
         <v>30</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D35,[1]TextData!A:A))</f>
-        <v>プリディカメント</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>ペイシャンス</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>1</v>
       </c>
       <c r="B36">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="E36">
-        <v>30</v>
-      </c>
-      <c r="F36" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D36,[1]TextData!A:A))</f>
-        <v>スタートダッシュ</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37">
         <v>1</v>
       </c>
       <c r="B37">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>5</v>
+        <v>505</v>
       </c>
       <c r="E37">
         <v>100</v>
+      </c>
+      <c r="F37" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D37,[1]TextData!A:A))</f>
+        <v>ディプラヴィティ</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3618,20 +3662,20 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>232</v>
+        <v>521</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D38,[1]TextData!A:A))</f>
-        <v>スパークフォグ</v>
+        <v>ダークネス</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3639,20 +3683,20 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>231</v>
+        <v>534</v>
       </c>
       <c r="E39">
         <v>30</v>
       </c>
       <c r="F39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D39,[1]TextData!A:A))</f>
-        <v>エクステンション</v>
+        <v>スカルグラッジ</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3660,28 +3704,28 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>235</v>
+        <v>536</v>
       </c>
       <c r="E40">
         <v>30</v>
       </c>
       <c r="F40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D40,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
-      </c>
-    </row>
-    <row r="41" ht="12" customHeight="1" spans="1:5">
+        <v>カタストロフ</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41">
         <v>1</v>
       </c>
       <c r="B41">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C41">
         <v>2</v>
@@ -3698,20 +3742,20 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42">
-        <v>405</v>
+        <v>205</v>
       </c>
       <c r="E42">
         <v>100</v>
       </c>
       <c r="F42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D42,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+        <v>トラストチェイン</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3719,20 +3763,20 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>432</v>
+        <v>234</v>
       </c>
       <c r="E43">
         <v>30</v>
       </c>
       <c r="F43" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D43,[1]TextData!A:A))</f>
-        <v>メディケーション</v>
+        <v>ファストキャスター</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3740,58 +3784,58 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>441</v>
+        <v>221</v>
       </c>
       <c r="E44">
         <v>30</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D44,[1]TextData!A:A))</f>
-        <v>ホーリーエンチャント</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>アクセラレイト</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45">
+        <v>236</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D45,[1]TextData!A:A))</f>
+        <v>クイックアクト</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>1003</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
         <v>5</v>
       </c>
-      <c r="E45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46">
-        <v>1</v>
-      </c>
-      <c r="B46">
-        <v>1007</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>504</v>
-      </c>
       <c r="E46">
         <v>100</v>
-      </c>
-      <c r="F46" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D46,[1]TextData!A:A))</f>
-        <v>デリートマジック</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3799,20 +3843,20 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>531</v>
+        <v>131</v>
       </c>
       <c r="E47">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D47,[1]TextData!A:A))</f>
-        <v>イーグルアイ</v>
+        <v>ウルフソウル</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3820,37 +3864,41 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>532</v>
+        <v>132</v>
       </c>
       <c r="E48">
         <v>30</v>
       </c>
       <c r="F48" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D48,[1]TextData!A:A))</f>
-        <v>ネヴァーエンド</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>プリディカメント</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49">
         <v>1</v>
       </c>
       <c r="B49">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>5</v>
+        <v>134</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="F49" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D49,[1]TextData!A:A))</f>
+        <v>スタートダッシュ</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3858,41 +3906,37 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="E50">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D50,[1]TextData!A:A))</f>
-        <v>ガーディアンソウル</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>ライズアップマインド</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51">
         <v>1</v>
       </c>
       <c r="B51">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51">
-        <v>334</v>
+        <v>5</v>
       </c>
       <c r="E51">
-        <v>30</v>
-      </c>
-      <c r="F51" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D51,[1]TextData!A:A))</f>
-        <v>ノーリミット</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3900,37 +3944,41 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>341</v>
+        <v>232</v>
       </c>
       <c r="E52">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F52" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D52,[1]TextData!A:A))</f>
-        <v>アイスエンチャント</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>スパークフォグ</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>1</v>
       </c>
       <c r="B53">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D53">
-        <v>5</v>
+        <v>231</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="F53" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D53,[1]TextData!A:A))</f>
+        <v>エクステンション</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3938,20 +3986,20 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54">
-        <v>103</v>
+        <v>235</v>
       </c>
       <c r="E54">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D54,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+        <v>ヘブンリーラック</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3959,58 +4007,58 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>131</v>
+        <v>236</v>
       </c>
       <c r="E55">
         <v>30</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D55,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>クイックアクト</v>
+      </c>
+    </row>
+    <row r="56" ht="12" customHeight="1" spans="1:5">
       <c r="A56">
         <v>1</v>
       </c>
       <c r="B56">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="E56">
-        <v>30</v>
-      </c>
-      <c r="F56" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D56,[1]TextData!A:A))</f>
-        <v>スタートダッシュ</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57">
         <v>1</v>
       </c>
       <c r="B57">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57">
-        <v>5</v>
+        <v>405</v>
       </c>
       <c r="E57">
         <v>100</v>
+      </c>
+      <c r="F57" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D57,[1]TextData!A:A))</f>
+        <v>べネディクション</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4018,20 +4066,20 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>204</v>
+        <v>432</v>
       </c>
       <c r="E58">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D58,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+        <v>メディケーション</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4039,20 +4087,20 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>233</v>
+        <v>441</v>
       </c>
       <c r="E59">
         <v>30</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D59,[1]TextData!A:A))</f>
-        <v>スウィートボイス</v>
+        <v>ホーリーエンチャント</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4060,20 +4108,20 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60">
-        <v>241</v>
+        <v>435</v>
       </c>
       <c r="E60">
         <v>30</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D60,[1]TextData!A:A))</f>
-        <v>サンダーエンチャント</v>
+        <v>アライアンス</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4081,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -4098,20 +4146,20 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>303</v>
+        <v>504</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D62,[1]TextData!A:A))</f>
-        <v>シールドスペル</v>
+        <v>デリートマジック</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4119,20 +4167,20 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63">
-        <v>332</v>
+        <v>531</v>
       </c>
       <c r="E63">
         <v>30</v>
       </c>
       <c r="F63" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D63,[1]TextData!A:A))</f>
-        <v>アーマーコード</v>
+        <v>イーグルアイ</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4140,58 +4188,58 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>333</v>
+        <v>532</v>
       </c>
       <c r="E64">
         <v>30</v>
       </c>
       <c r="F64" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D64,[1]TextData!A:A))</f>
-        <v>ガードシフト</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>ネヴァーエンド</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65">
         <v>1</v>
       </c>
       <c r="B65">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D65">
+        <v>535</v>
+      </c>
+      <c r="E65">
+        <v>30</v>
+      </c>
+      <c r="F65" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D65,[1]TextData!A:A))</f>
+        <v>クリープアウト</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1007</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="E65">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>1012</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>505</v>
-      </c>
       <c r="E66">
         <v>100</v>
-      </c>
-      <c r="F66" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D66,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4199,20 +4247,20 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>534</v>
+        <v>331</v>
       </c>
       <c r="E67">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F67" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D67,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+        <v>ガーディアンソウル</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4220,37 +4268,41 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>541</v>
+        <v>334</v>
       </c>
       <c r="E68">
         <v>30</v>
       </c>
       <c r="F68" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D68,[1]TextData!A:A))</f>
-        <v>ダークエンチャント</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>ノーリミット</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69">
         <v>1</v>
       </c>
       <c r="B69">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>5</v>
+        <v>341</v>
       </c>
       <c r="E69">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="F69" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D69,[1]TextData!A:A))</f>
+        <v>アイスエンチャント</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4258,41 +4310,37 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70">
-        <v>404</v>
+        <v>335</v>
       </c>
       <c r="E70">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D70,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>カウンターヒール</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71">
         <v>1</v>
       </c>
       <c r="B71">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D71">
-        <v>431</v>
+        <v>5</v>
       </c>
       <c r="E71">
-        <v>30</v>
-      </c>
-      <c r="F71" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D71,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4300,37 +4348,41 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>434</v>
+        <v>103</v>
       </c>
       <c r="E72">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="F72" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D72,[1]TextData!A:A))</f>
-        <v>リジェネレーション</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>ヒートスタンプ</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73">
         <v>1</v>
       </c>
       <c r="B73">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="E73">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="F73" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D73,[1]TextData!A:A))</f>
+        <v>ライズアップマインド</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4338,20 +4390,20 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>431</v>
+        <v>134</v>
       </c>
       <c r="E74">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D74,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+        <v>スタートダッシュ</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4359,58 +4411,58 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75">
-        <v>432</v>
+        <v>136</v>
       </c>
       <c r="E75">
         <v>30</v>
       </c>
       <c r="F75" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D75,[1]TextData!A:A))</f>
-        <v>メディケーション</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>イグナイテッド</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>1</v>
       </c>
       <c r="B76">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D76">
-        <v>433</v>
+        <v>5</v>
       </c>
       <c r="E76">
-        <v>30</v>
-      </c>
-      <c r="F76" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D76,[1]TextData!A:A))</f>
-        <v>アフェクション</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="C77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D77">
-        <v>5</v>
+        <v>204</v>
       </c>
       <c r="E77">
         <v>100</v>
+      </c>
+      <c r="F77" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D77,[1]TextData!A:A))</f>
+        <v>ショックインパルス</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4418,20 +4470,20 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="E78">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="F78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D78,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+        <v>スウィートボイス</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4439,20 +4491,20 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c r="E79">
         <v>30</v>
       </c>
       <c r="F79" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D79,[1]TextData!A:A))</f>
-        <v>アサルトシフト</v>
+        <v>サンダーエンチャント</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4460,20 +4512,20 @@
         <v>1</v>
       </c>
       <c r="B80">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="E80">
         <v>30</v>
       </c>
       <c r="F80" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(D80,[1]TextData!A:A))</f>
-        <v>ファイアエンチャント</v>
+        <v>エクステンション</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4481,7 +4533,7 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4490,6 +4542,511 @@
         <v>5</v>
       </c>
       <c r="E81">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>1011</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>303</v>
+      </c>
+      <c r="E82">
+        <v>100</v>
+      </c>
+      <c r="F82" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D82,[1]TextData!A:A))</f>
+        <v>シールドスペル</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>1011</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>332</v>
+      </c>
+      <c r="E83">
+        <v>30</v>
+      </c>
+      <c r="F83" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D83,[1]TextData!A:A))</f>
+        <v>アーマーコード</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>1011</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>333</v>
+      </c>
+      <c r="E84">
+        <v>30</v>
+      </c>
+      <c r="F84" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D84,[1]TextData!A:A))</f>
+        <v>ガードシフト</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>1008</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>335</v>
+      </c>
+      <c r="E85">
+        <v>30</v>
+      </c>
+      <c r="F85" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D85,[1]TextData!A:A))</f>
+        <v>カウンターヒール</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>1011</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>1012</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>505</v>
+      </c>
+      <c r="E87">
+        <v>100</v>
+      </c>
+      <c r="F87" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D87,[1]TextData!A:A))</f>
+        <v>ディプラヴィティ</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>1012</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>534</v>
+      </c>
+      <c r="E88">
+        <v>30</v>
+      </c>
+      <c r="F88" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D88,[1]TextData!A:A))</f>
+        <v>スカルグラッジ</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>1012</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>541</v>
+      </c>
+      <c r="E89">
+        <v>30</v>
+      </c>
+      <c r="F89" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D89,[1]TextData!A:A))</f>
+        <v>ダークエンチャント</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>1012</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>536</v>
+      </c>
+      <c r="E90">
+        <v>30</v>
+      </c>
+      <c r="F90" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D90,[1]TextData!A:A))</f>
+        <v>カタストロフ</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>1012</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>1013</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>404</v>
+      </c>
+      <c r="E92">
+        <v>100</v>
+      </c>
+      <c r="F92" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D92,[1]TextData!A:A))</f>
+        <v>リフレッシュ</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>1013</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>431</v>
+      </c>
+      <c r="E93">
+        <v>30</v>
+      </c>
+      <c r="F93" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D93,[1]TextData!A:A))</f>
+        <v>ディバインシールド</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>1013</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>434</v>
+      </c>
+      <c r="E94">
+        <v>30</v>
+      </c>
+      <c r="F94" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D94,[1]TextData!A:A))</f>
+        <v>リジェネレーション</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>1013</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>436</v>
+      </c>
+      <c r="E95">
+        <v>30</v>
+      </c>
+      <c r="F95" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D95,[1]TextData!A:A))</f>
+        <v>スペクトルマイン</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>1013</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>1014</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>431</v>
+      </c>
+      <c r="E97">
+        <v>100</v>
+      </c>
+      <c r="F97" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D97,[1]TextData!A:A))</f>
+        <v>ディバインシールド</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>1014</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>432</v>
+      </c>
+      <c r="E98">
+        <v>30</v>
+      </c>
+      <c r="F98" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D98,[1]TextData!A:A))</f>
+        <v>メディケーション</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>1014</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>433</v>
+      </c>
+      <c r="E99">
+        <v>30</v>
+      </c>
+      <c r="F99" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D99,[1]TextData!A:A))</f>
+        <v>アフェクション</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>1014</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>435</v>
+      </c>
+      <c r="E100">
+        <v>30</v>
+      </c>
+      <c r="F100" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D100,[1]TextData!A:A))</f>
+        <v>アライアンス</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>1014</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>1015</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>104</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+      <c r="F102" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D102,[1]TextData!A:A))</f>
+        <v>ソードアダプト</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>1015</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>133</v>
+      </c>
+      <c r="E103">
+        <v>30</v>
+      </c>
+      <c r="F103" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D103,[1]TextData!A:A))</f>
+        <v>アサルトシフト</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>1015</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="D104">
+        <v>141</v>
+      </c>
+      <c r="E104">
+        <v>30</v>
+      </c>
+      <c r="F104" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D104,[1]TextData!A:A))</f>
+        <v>ファイアエンチャント</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>1015</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="D105">
+        <v>136</v>
+      </c>
+      <c r="E105">
+        <v>30</v>
+      </c>
+      <c r="F105" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(D105,[1]TextData!A:A))</f>
+        <v>イグナイテッド</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>1015</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
         <v>100</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -55,10 +55,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,15 +69,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,15 +109,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,9 +129,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,6 +146,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,46 +176,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -190,24 +198,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,37 +222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +246,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +276,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -300,7 +294,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,7 +318,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,19 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,55 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,6 +417,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -427,30 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,8 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,145 +521,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2197,8 +2197,8 @@
   <sheetPr/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3870,7 +3870,7 @@
         <v>600</v>
       </c>
       <c r="C73">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -3893,7 +3893,7 @@
         <v>600</v>
       </c>
       <c r="C74">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D74">
         <v>3</v>
@@ -3916,7 +3916,7 @@
         <v>600</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D75">
         <v>3</v>
@@ -3962,7 +3962,7 @@
         <v>700</v>
       </c>
       <c r="C77">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D77">
         <v>3</v>
@@ -3985,7 +3985,7 @@
         <v>700</v>
       </c>
       <c r="C78">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D78">
         <v>3</v>
@@ -4008,7 +4008,7 @@
         <v>700</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -4744,7 +4744,7 @@
         <v>4100</v>
       </c>
       <c r="C111">
-        <v>206</v>
+        <v>301</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -4955,8 +4955,8 @@
   <sheetPr/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="C121" sqref="C121:E121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -7090,13 +7090,13 @@
         <v>2600</v>
       </c>
       <c r="C118">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D118">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -7141,13 +7141,13 @@
         <v>2700</v>
       </c>
       <c r="C121">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122" spans="1:5">

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Id</t>
   </si>
@@ -49,16 +49,19 @@
   <si>
     <t>Param2</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -69,24 +72,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,8 +116,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,28 +147,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,23 +161,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -184,30 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,13 +225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,31 +249,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,7 +279,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,31 +297,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,13 +333,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,19 +357,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,31 +405,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,30 +416,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,11 +449,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,15 +502,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,145 +524,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2197,7 +2200,7 @@
   <sheetPr/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
@@ -4955,8 +4958,8 @@
   <sheetPr/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121:E121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -5016,7 +5019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5031,6 +5034,9 @@
       </c>
       <c r="E4">
         <v>100</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -10,15 +10,12 @@
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
     <sheet name="GetItems" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Id</t>
   </si>
@@ -50,7 +47,94 @@
     <t>Param2</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>バブルブロウ</t>
+  </si>
+  <si>
+    <t>ディプラヴィティ</t>
+  </si>
+  <si>
+    <t>トラストチェイン</t>
+  </si>
+  <si>
+    <t>ウルフソウル</t>
+  </si>
+  <si>
+    <t>スパークフォグ</t>
+  </si>
+  <si>
+    <t>べネディクション</t>
+  </si>
+  <si>
+    <t>デリートマジック</t>
+  </si>
+  <si>
+    <t>ガーディアンソウル</t>
+  </si>
+  <si>
+    <t>ヒートスタンプ</t>
+  </si>
+  <si>
+    <t>ショックインパルス</t>
+  </si>
+  <si>
+    <t>シールドスペル</t>
+  </si>
+  <si>
+    <t>ダークネス</t>
+  </si>
+  <si>
+    <t>リフレッシュ</t>
+  </si>
+  <si>
+    <t>ディバインシールド</t>
+  </si>
+  <si>
+    <t>ソードアダプト</t>
+  </si>
+  <si>
+    <t>アフターバーナー</t>
+  </si>
+  <si>
+    <t>ヘブンリーラック</t>
+  </si>
+  <si>
+    <t>スペリオール</t>
+  </si>
+  <si>
+    <t>ネガティブドレイン</t>
+  </si>
+  <si>
+    <t>リベリオススプリッツ</t>
+  </si>
+  <si>
+    <t>アップグルント</t>
+  </si>
+  <si>
+    <t>メルトバースト</t>
+  </si>
+  <si>
+    <t>シャープコード</t>
+  </si>
+  <si>
+    <t>エスコートソール</t>
+  </si>
+  <si>
+    <t>ホーリーグレイス</t>
+  </si>
+  <si>
+    <t>ドレインヒール</t>
+  </si>
+  <si>
+    <t>アシッドラッシュ</t>
+  </si>
+  <si>
+    <t>ホーミングクルセイド</t>
+  </si>
+  <si>
+    <t>スウィフトカレント</t>
+  </si>
+  <si>
+    <t>スカルグラッジ</t>
   </si>
 </sst>
 </file>
@@ -58,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -87,7 +171,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,6 +179,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,9 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,7 +230,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,8 +244,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,49 +285,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,7 +309,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,19 +345,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -261,25 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -297,43 +399,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,37 +435,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +471,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,6 +518,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -445,6 +538,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,33 +566,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -502,6 +577,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,7 +617,7 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,61 +626,61 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -605,22 +689,37 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,40 +728,25 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,1212 +816,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Skills"/>
-      <sheetName val="Features"/>
-      <sheetName val="Triggers"/>
-      <sheetName val="TextData"/>
-      <sheetName val="Define"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>Id</v>
-          </cell>
-          <cell r="B1" t="str">
-            <v>Text</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>0</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>何もしない</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>1</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>攻撃</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>11</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>神化</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>21</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>神化解除</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>31</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>拘束制御</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>32</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>拘束ダメージ解除</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>33</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>居合</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>41</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>アンデッド</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>42</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>アンデッド回復</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>101</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>ファイアボール</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>102</v>
-          </cell>
-          <cell r="B12" t="str">
-            <v>バーンストーム</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>103</v>
-          </cell>
-          <cell r="B13" t="str">
-            <v>ヒートスタンプ</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>104</v>
-          </cell>
-          <cell r="B14" t="str">
-            <v>ソードアダプト</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>111</v>
-          </cell>
-          <cell r="B15" t="str">
-            <v>インフェルノ</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>112</v>
-          </cell>
-          <cell r="B16" t="str">
-            <v>スベテモヤシツクス</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>113</v>
-          </cell>
-          <cell r="B17" t="str">
-            <v>アダプテーション</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>114</v>
-          </cell>
-          <cell r="B18" t="str">
-            <v>モエサカルホノオ</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>121</v>
-          </cell>
-          <cell r="B19" t="str">
-            <v>メルトバースト</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>131</v>
-          </cell>
-          <cell r="B20" t="str">
-            <v>ウルフソウル</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>132</v>
-          </cell>
-          <cell r="B21" t="str">
-            <v>プリディカメント</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>133</v>
-          </cell>
-          <cell r="B22" t="str">
-            <v>アサルトシフト</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>134</v>
-          </cell>
-          <cell r="B23" t="str">
-            <v>スタートダッシュ</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>135</v>
-          </cell>
-          <cell r="B24" t="str">
-            <v>ライズアップマインド</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>136</v>
-          </cell>
-          <cell r="B25" t="str">
-            <v>イグナイテッド</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>137</v>
-          </cell>
-          <cell r="B26" t="str">
-            <v>アフターバーナー</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>141</v>
-          </cell>
-          <cell r="B27" t="str">
-            <v>ファイアエンチャント</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>201</v>
-          </cell>
-          <cell r="B28" t="str">
-            <v>ディスチャージ</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>202</v>
-          </cell>
-          <cell r="B29" t="str">
-            <v>ライトニングウェブ</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>203</v>
-          </cell>
-          <cell r="B30" t="str">
-            <v>シャープコード</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>204</v>
-          </cell>
-          <cell r="B31" t="str">
-            <v>ショックインパルス</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>205</v>
-          </cell>
-          <cell r="B32" t="str">
-            <v>トラストチェイン</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>211</v>
-          </cell>
-          <cell r="B33" t="str">
-            <v>ステップリーダー</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>212</v>
-          </cell>
-          <cell r="B34" t="str">
-            <v>ユビサキデカラメトル</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>213</v>
-          </cell>
-          <cell r="B35" t="str">
-            <v>フルバースト</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>214</v>
-          </cell>
-          <cell r="B36" t="str">
-            <v>コウソクテンショウ</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>221</v>
-          </cell>
-          <cell r="B37" t="str">
-            <v>アクセラレイト</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>222</v>
-          </cell>
-          <cell r="B38" t="str">
-            <v>リフレクセス</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>231</v>
-          </cell>
-          <cell r="B39" t="str">
-            <v>エクステンション</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>232</v>
-          </cell>
-          <cell r="B40" t="str">
-            <v>スパークフォグ</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>233</v>
-          </cell>
-          <cell r="B41" t="str">
-            <v>スウィフトカレント</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>234</v>
-          </cell>
-          <cell r="B42" t="str">
-            <v>ファストキャスター</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>235</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>ヘブンリーラック</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>236</v>
-          </cell>
-          <cell r="B44" t="str">
-            <v>クイックアクト</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>237</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>リベリオススプリッツ</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>241</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>サンダーエンチャント</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>301</v>
-          </cell>
-          <cell r="B47" t="str">
-            <v>アイスブレイド</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>302</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>カウンターオーラ</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>303</v>
-          </cell>
-          <cell r="B49" t="str">
-            <v>シールドスペル</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>304</v>
-          </cell>
-          <cell r="B50" t="str">
-            <v>エスコートソール</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>305</v>
-          </cell>
-          <cell r="B51" t="str">
-            <v>ディープフリーズ</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>311</v>
-          </cell>
-          <cell r="B52" t="str">
-            <v>フリジットシェル</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>312</v>
-          </cell>
-          <cell r="B53" t="str">
-            <v>ノロマナカメニナレ</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>313</v>
-          </cell>
-          <cell r="B54" t="str">
-            <v>アンチドード</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>314</v>
-          </cell>
-          <cell r="B55" t="str">
-            <v>コオリノセカイヘ</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>321</v>
-          </cell>
-          <cell r="B56" t="str">
-            <v>バブルブロウ</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>322</v>
-          </cell>
-          <cell r="B57" t="str">
-            <v>アクアミラージュ</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>331</v>
-          </cell>
-          <cell r="B58" t="str">
-            <v>ガーディアンソウル</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>332</v>
-          </cell>
-          <cell r="B59" t="str">
-            <v>アーマーコード</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>333</v>
-          </cell>
-          <cell r="B60" t="str">
-            <v>ガードシフト</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>334</v>
-          </cell>
-          <cell r="B61" t="str">
-            <v>ノーリミット</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>335</v>
-          </cell>
-          <cell r="B62" t="str">
-            <v>カウンターヒール</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>336</v>
-          </cell>
-          <cell r="B63" t="str">
-            <v>ペイシャンス</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>337</v>
-          </cell>
-          <cell r="B64" t="str">
-            <v>アシッドラッシュ</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>341</v>
-          </cell>
-          <cell r="B65" t="str">
-            <v>アイスエンチャント</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>401</v>
-          </cell>
-          <cell r="B66" t="str">
-            <v>セイントレーザー</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>402</v>
-          </cell>
-          <cell r="B67" t="str">
-            <v>ペネトレイト</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>403</v>
-          </cell>
-          <cell r="B68" t="str">
-            <v>ヒーリング</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>404</v>
-          </cell>
-          <cell r="B69" t="str">
-            <v>リフレッシュ</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>405</v>
-          </cell>
-          <cell r="B70" t="str">
-            <v>べネディクション</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>411</v>
-          </cell>
-          <cell r="B71" t="str">
-            <v>エリクシール</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>412</v>
-          </cell>
-          <cell r="B72" t="str">
-            <v>エンジェルフェザー</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>413</v>
-          </cell>
-          <cell r="B73" t="str">
-            <v>ブレークザウォール</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>414</v>
-          </cell>
-          <cell r="B74" t="str">
-            <v>トリニティレイ</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>421</v>
-          </cell>
-          <cell r="B75" t="str">
-            <v>ホーリーグレイス</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>422</v>
-          </cell>
-          <cell r="B76" t="str">
-            <v>プリズムリフレクター</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>431</v>
-          </cell>
-          <cell r="B77" t="str">
-            <v>ディバインシールド</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>432</v>
-          </cell>
-          <cell r="B78" t="str">
-            <v>メディケーション</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>433</v>
-          </cell>
-          <cell r="B79" t="str">
-            <v>エイミングスコープ</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>434</v>
-          </cell>
-          <cell r="B80" t="str">
-            <v>リジェネレーション</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>435</v>
-          </cell>
-          <cell r="B81" t="str">
-            <v>アライアンス</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>436</v>
-          </cell>
-          <cell r="B82" t="str">
-            <v>スペクトルマイン</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>437</v>
-          </cell>
-          <cell r="B83" t="str">
-            <v>ホーミングクルセイド</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>438</v>
-          </cell>
-          <cell r="B84" t="str">
-            <v>スペリオール</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>441</v>
-          </cell>
-          <cell r="B85" t="str">
-            <v>ホーリーエンチャント</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>501</v>
-          </cell>
-          <cell r="B86" t="str">
-            <v>ダークプリズン</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>502</v>
-          </cell>
-          <cell r="B87" t="str">
-            <v>ユーサネイジア</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>503</v>
-          </cell>
-          <cell r="B88" t="str">
-            <v>ドレインヒール</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>504</v>
-          </cell>
-          <cell r="B89" t="str">
-            <v>デリートマジック</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>505</v>
-          </cell>
-          <cell r="B90" t="str">
-            <v>ディプラヴィティ</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>511</v>
-          </cell>
-          <cell r="B91" t="str">
-            <v>ディストラクション</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>512</v>
-          </cell>
-          <cell r="B92" t="str">
-            <v>カオスペイン</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>513</v>
-          </cell>
-          <cell r="B93" t="str">
-            <v>セメタリーコール</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>514</v>
-          </cell>
-          <cell r="B94" t="str">
-            <v>セルフカット</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>521</v>
-          </cell>
-          <cell r="B95" t="str">
-            <v>ダークネス</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>522</v>
-          </cell>
-          <cell r="B96" t="str">
-            <v>シェイディークラウド</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>531</v>
-          </cell>
-          <cell r="B97" t="str">
-            <v>イーグルアイ</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>532</v>
-          </cell>
-          <cell r="B98" t="str">
-            <v>ネヴァーエンド</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>533</v>
-          </cell>
-          <cell r="B99" t="str">
-            <v>ネガティブドレイン</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>534</v>
-          </cell>
-          <cell r="B100" t="str">
-            <v>スカルグラッジ</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>535</v>
-          </cell>
-          <cell r="B101" t="str">
-            <v>クリープアウト</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>536</v>
-          </cell>
-          <cell r="B102" t="str">
-            <v>アンデッドペイン</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>537</v>
-          </cell>
-          <cell r="B103" t="str">
-            <v>アップグルント</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104">
-            <v>541</v>
-          </cell>
-          <cell r="B104" t="str">
-            <v>ダークエンチャント</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105">
-            <v>601</v>
-          </cell>
-          <cell r="B105" t="str">
-            <v>エンドオブサイクル</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106">
-            <v>1000</v>
-          </cell>
-          <cell r="B106" t="str">
-            <v>愚者</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107">
-            <v>1001</v>
-          </cell>
-          <cell r="B107" t="str">
-            <v>魔術師</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108">
-            <v>1002</v>
-          </cell>
-          <cell r="B108" t="str">
-            <v>女帝</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109">
-            <v>1003</v>
-          </cell>
-          <cell r="B109" t="str">
-            <v>女教皇</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110">
-            <v>1004</v>
-          </cell>
-          <cell r="B110" t="str">
-            <v>皇帝</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111">
-            <v>1005</v>
-          </cell>
-          <cell r="B111" t="str">
-            <v>法王</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112">
-            <v>1006</v>
-          </cell>
-          <cell r="B112" t="str">
-            <v>恋愛</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113">
-            <v>1007</v>
-          </cell>
-          <cell r="B113" t="str">
-            <v>戦車</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114">
-            <v>1008</v>
-          </cell>
-          <cell r="B114" t="str">
-            <v>正義</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115">
-            <v>1009</v>
-          </cell>
-          <cell r="B115" t="str">
-            <v>隠者</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116">
-            <v>1010</v>
-          </cell>
-          <cell r="B116" t="str">
-            <v>運命</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117">
-            <v>1011</v>
-          </cell>
-          <cell r="B117" t="str">
-            <v>剛毅</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118">
-            <v>1012</v>
-          </cell>
-          <cell r="B118" t="str">
-            <v>刑死者</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119">
-            <v>1013</v>
-          </cell>
-          <cell r="B119" t="str">
-            <v>死神</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120">
-            <v>1014</v>
-          </cell>
-          <cell r="B120" t="str">
-            <v>節制</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121">
-            <v>1015</v>
-          </cell>
-          <cell r="B121" t="str">
-            <v>悪魔</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122">
-            <v>1016</v>
-          </cell>
-          <cell r="B122" t="str">
-            <v>塔</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123">
-            <v>1017</v>
-          </cell>
-          <cell r="B123" t="str">
-            <v>星</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124">
-            <v>1018</v>
-          </cell>
-          <cell r="B124" t="str">
-            <v>月</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125">
-            <v>1019</v>
-          </cell>
-          <cell r="B125" t="str">
-            <v>太陽</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126">
-            <v>1020</v>
-          </cell>
-          <cell r="B126" t="str">
-            <v>審判</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127">
-            <v>1022</v>
-          </cell>
-          <cell r="B127" t="str">
-            <v>杖</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128">
-            <v>1023</v>
-          </cell>
-          <cell r="B128" t="str">
-            <v>器</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129">
-            <v>1024</v>
-          </cell>
-          <cell r="B129" t="str">
-            <v>剣</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130">
-            <v>1025</v>
-          </cell>
-          <cell r="B130" t="str">
-            <v>貨幣</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131">
-            <v>2001</v>
-          </cell>
-          <cell r="B131" t="str">
-            <v>元素術・炎</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132">
-            <v>2002</v>
-          </cell>
-          <cell r="B132" t="str">
-            <v>元素術・雷</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133">
-            <v>2003</v>
-          </cell>
-          <cell r="B133" t="str">
-            <v>元素術・氷</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134">
-            <v>2004</v>
-          </cell>
-          <cell r="B134" t="str">
-            <v>光魔術</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135">
-            <v>2005</v>
-          </cell>
-          <cell r="B135" t="str">
-            <v>超次元術</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="A136">
-            <v>2009</v>
-          </cell>
-          <cell r="B136" t="str">
-            <v>はずす</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="A137">
-            <v>4001</v>
-          </cell>
-          <cell r="B137" t="str">
-            <v>人体錬成+\d</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="A138">
-            <v>4002</v>
-          </cell>
-          <cell r="B138" t="str">
-            <v>理性拡張+\d</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="A139">
-            <v>4003</v>
-          </cell>
-          <cell r="B139" t="str">
-            <v>存在修復+\d</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="A140">
-            <v>4004</v>
-          </cell>
-          <cell r="B140" t="str">
-            <v>救済執行+\d</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="A141">
-            <v>4005</v>
-          </cell>
-          <cell r="B141" t="str">
-            <v>素子補充+\d</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="A142">
-            <v>4101</v>
-          </cell>
-          <cell r="B142" t="str">
-            <v>最大Hp+\d</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="A143">
-            <v>4102</v>
-          </cell>
-          <cell r="B143" t="str">
-            <v>最大Mp+\d</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="A144">
-            <v>4103</v>
-          </cell>
-          <cell r="B144" t="str">
-            <v>ATK+\d</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="A145">
-            <v>4104</v>
-          </cell>
-          <cell r="B145" t="str">
-            <v>DEF+\d</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146">
-            <v>4105</v>
-          </cell>
-          <cell r="B146" t="str">
-            <v>SPD+\d</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147">
-            <v>4201</v>
-          </cell>
-          <cell r="B147" t="str">
-            <v>\d</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148">
-            <v>4301</v>
-          </cell>
-          <cell r="B148" t="str">
-            <v>すべて死せる魂+\d</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2201,7 +1079,7 @@
   <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+      <selection activeCell="J10" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -2260,19 +1138,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -2280,22 +1158,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -2303,19 +1181,19 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -2329,19 +1207,19 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -2349,19 +1227,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -2372,19 +1250,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -2398,19 +1276,19 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -2418,22 +1296,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -2441,19 +1319,19 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -2467,19 +1345,19 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -2487,19 +1365,19 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -2510,19 +1388,19 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -2536,19 +1414,19 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -2556,22 +1434,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -2579,19 +1457,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -2605,10 +1483,10 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>140</v>
+        <v>1010</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2628,10 +1506,10 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>140</v>
+        <v>1010</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2640,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2651,10 +1529,10 @@
         <v>3</v>
       </c>
       <c r="B20">
-        <v>140</v>
+        <v>1010</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -2674,10 +1552,10 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>1020</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2697,10 +1575,10 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>1020</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2709,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2720,10 +1598,10 @@
         <v>3</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>1020</v>
       </c>
       <c r="C23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -2743,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>1030</v>
       </c>
       <c r="C24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -2766,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>1030</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -2789,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="B26">
-        <v>60</v>
+        <v>1030</v>
       </c>
       <c r="C26">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -2812,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>1040</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -2835,10 +1713,10 @@
         <v>2</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>1040</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -2847,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -2858,10 +1736,10 @@
         <v>3</v>
       </c>
       <c r="B29">
-        <v>70</v>
+        <v>1040</v>
       </c>
       <c r="C29">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -2881,19 +1759,19 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>1001</v>
+        <v>1130</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -2901,22 +1779,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>1002</v>
+        <v>1130</v>
       </c>
       <c r="C31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -2924,19 +1802,19 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B32">
-        <v>1003</v>
+        <v>1130</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2950,19 +1828,19 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>1004</v>
+        <v>1140</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -2970,19 +1848,19 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B34">
-        <v>1005</v>
+        <v>1140</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2993,19 +1871,19 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B35">
-        <v>1006</v>
+        <v>1140</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -3019,19 +1897,19 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>1007</v>
+        <v>1050</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3039,22 +1917,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37">
-        <v>1008</v>
+        <v>1050</v>
       </c>
       <c r="C37">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>1</v>
@@ -3062,19 +1940,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B38">
-        <v>1009</v>
+        <v>1050</v>
       </c>
       <c r="C38">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -3088,19 +1966,19 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>1010</v>
+        <v>1060</v>
       </c>
       <c r="C39">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3108,22 +1986,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>1011</v>
+        <v>1060</v>
       </c>
       <c r="C40">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>1</v>
@@ -3131,19 +2009,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B41">
-        <v>1012</v>
+        <v>1060</v>
       </c>
       <c r="C41">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -3157,19 +2035,19 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>1013</v>
+        <v>1070</v>
       </c>
       <c r="C42">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -3177,22 +2055,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B43">
-        <v>1014</v>
+        <v>1070</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -3200,19 +2078,19 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B44">
-        <v>1015</v>
+        <v>1070</v>
       </c>
       <c r="C44">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -3226,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>100</v>
+        <v>2010</v>
       </c>
       <c r="C45">
         <v>13</v>
@@ -3249,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>100</v>
+        <v>2010</v>
       </c>
       <c r="C46">
         <v>13</v>
@@ -3272,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="B47">
-        <v>100</v>
+        <v>2010</v>
       </c>
       <c r="C47">
         <v>13</v>
@@ -3295,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="B48">
-        <v>100</v>
+        <v>2010</v>
       </c>
       <c r="C48">
         <v>101</v>
@@ -3318,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>200</v>
+        <v>2020</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -3341,7 +2219,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>200</v>
+        <v>2020</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -3364,7 +2242,7 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>200</v>
+        <v>2020</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -3387,7 +2265,7 @@
         <v>4</v>
       </c>
       <c r="B52">
-        <v>200</v>
+        <v>2020</v>
       </c>
       <c r="C52">
         <v>102</v>
@@ -3410,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>300</v>
+        <v>2030</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -3433,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>300</v>
+        <v>2030</v>
       </c>
       <c r="C54">
         <v>7</v>
@@ -3456,7 +2334,7 @@
         <v>3</v>
       </c>
       <c r="B55">
-        <v>300</v>
+        <v>2030</v>
       </c>
       <c r="C55">
         <v>7</v>
@@ -3479,7 +2357,7 @@
         <v>4</v>
       </c>
       <c r="B56">
-        <v>300</v>
+        <v>2030</v>
       </c>
       <c r="C56">
         <v>103</v>
@@ -3502,7 +2380,7 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>400</v>
+        <v>2040</v>
       </c>
       <c r="C57">
         <v>14</v>
@@ -3525,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>400</v>
+        <v>2040</v>
       </c>
       <c r="C58">
         <v>14</v>
@@ -3548,7 +2426,7 @@
         <v>3</v>
       </c>
       <c r="B59">
-        <v>400</v>
+        <v>2040</v>
       </c>
       <c r="C59">
         <v>14</v>
@@ -3571,7 +2449,7 @@
         <v>4</v>
       </c>
       <c r="B60">
-        <v>400</v>
+        <v>2040</v>
       </c>
       <c r="C60">
         <v>104</v>
@@ -3594,7 +2472,7 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>1300</v>
+        <v>2130</v>
       </c>
       <c r="C61">
         <v>2</v>
@@ -3617,7 +2495,7 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>1300</v>
+        <v>2130</v>
       </c>
       <c r="C62">
         <v>2</v>
@@ -3640,7 +2518,7 @@
         <v>3</v>
       </c>
       <c r="B63">
-        <v>1300</v>
+        <v>2130</v>
       </c>
       <c r="C63">
         <v>2</v>
@@ -3663,7 +2541,7 @@
         <v>4</v>
       </c>
       <c r="B64">
-        <v>1300</v>
+        <v>2130</v>
       </c>
       <c r="C64">
         <v>113</v>
@@ -3686,7 +2564,7 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>1400</v>
+        <v>2140</v>
       </c>
       <c r="C65">
         <v>12</v>
@@ -3709,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>1400</v>
+        <v>2140</v>
       </c>
       <c r="C66">
         <v>12</v>
@@ -3732,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="B67">
-        <v>1400</v>
+        <v>2140</v>
       </c>
       <c r="C67">
         <v>12</v>
@@ -3755,7 +2633,7 @@
         <v>4</v>
       </c>
       <c r="B68">
-        <v>1400</v>
+        <v>2140</v>
       </c>
       <c r="C68">
         <v>114</v>
@@ -3778,7 +2656,7 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>500</v>
+        <v>2050</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -3801,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>500</v>
+        <v>2050</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -3824,7 +2702,7 @@
         <v>3</v>
       </c>
       <c r="B71">
-        <v>500</v>
+        <v>2050</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -3847,7 +2725,7 @@
         <v>4</v>
       </c>
       <c r="B72">
-        <v>500</v>
+        <v>2050</v>
       </c>
       <c r="C72">
         <v>105</v>
@@ -3870,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>600</v>
+        <v>2060</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -3893,7 +2771,7 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>600</v>
+        <v>2060</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -3916,7 +2794,7 @@
         <v>3</v>
       </c>
       <c r="B75">
-        <v>600</v>
+        <v>2060</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -3939,7 +2817,7 @@
         <v>4</v>
       </c>
       <c r="B76">
-        <v>600</v>
+        <v>2060</v>
       </c>
       <c r="C76">
         <v>106</v>
@@ -3962,7 +2840,7 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>700</v>
+        <v>2070</v>
       </c>
       <c r="C77">
         <v>10</v>
@@ -3985,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B78">
-        <v>700</v>
+        <v>2070</v>
       </c>
       <c r="C78">
         <v>10</v>
@@ -4008,7 +2886,7 @@
         <v>3</v>
       </c>
       <c r="B79">
-        <v>700</v>
+        <v>2070</v>
       </c>
       <c r="C79">
         <v>10</v>
@@ -4031,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="B80">
-        <v>700</v>
+        <v>2070</v>
       </c>
       <c r="C80">
         <v>107</v>
@@ -4054,7 +2932,7 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>2100</v>
+        <v>3010</v>
       </c>
       <c r="C81">
         <v>2</v>
@@ -4077,7 +2955,7 @@
         <v>2</v>
       </c>
       <c r="B82">
-        <v>2100</v>
+        <v>3010</v>
       </c>
       <c r="C82">
         <v>12</v>
@@ -4100,7 +2978,7 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>2100</v>
+        <v>3010</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -4123,7 +3001,7 @@
         <v>4</v>
       </c>
       <c r="B84">
-        <v>2100</v>
+        <v>3010</v>
       </c>
       <c r="C84">
         <v>201</v>
@@ -4146,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="B85">
-        <v>2200</v>
+        <v>3020</v>
       </c>
       <c r="C85">
         <v>10</v>
@@ -4169,7 +3047,7 @@
         <v>2</v>
       </c>
       <c r="B86">
-        <v>2200</v>
+        <v>3020</v>
       </c>
       <c r="C86">
         <v>8</v>
@@ -4192,7 +3070,7 @@
         <v>3</v>
       </c>
       <c r="B87">
-        <v>2200</v>
+        <v>3020</v>
       </c>
       <c r="C87">
         <v>10</v>
@@ -4215,7 +3093,7 @@
         <v>4</v>
       </c>
       <c r="B88">
-        <v>2200</v>
+        <v>3020</v>
       </c>
       <c r="C88">
         <v>202</v>
@@ -4238,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>2300</v>
+        <v>3030</v>
       </c>
       <c r="C89">
         <v>7</v>
@@ -4261,7 +3139,7 @@
         <v>2</v>
       </c>
       <c r="B90">
-        <v>2300</v>
+        <v>3030</v>
       </c>
       <c r="C90">
         <v>15</v>
@@ -4284,7 +3162,7 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>2300</v>
+        <v>3030</v>
       </c>
       <c r="C91">
         <v>7</v>
@@ -4307,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="B92">
-        <v>2300</v>
+        <v>3030</v>
       </c>
       <c r="C92">
         <v>203</v>
@@ -4330,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>2400</v>
+        <v>3040</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4353,7 +3231,7 @@
         <v>2</v>
       </c>
       <c r="B94">
-        <v>2400</v>
+        <v>3040</v>
       </c>
       <c r="C94">
         <v>5</v>
@@ -4376,7 +3254,7 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>2400</v>
+        <v>3040</v>
       </c>
       <c r="C95">
         <v>14</v>
@@ -4399,7 +3277,7 @@
         <v>4</v>
       </c>
       <c r="B96">
-        <v>2400</v>
+        <v>3040</v>
       </c>
       <c r="C96">
         <v>204</v>
@@ -4422,7 +3300,7 @@
         <v>1</v>
       </c>
       <c r="B97">
-        <v>2500</v>
+        <v>3050</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -4445,7 +3323,7 @@
         <v>2</v>
       </c>
       <c r="B98">
-        <v>2500</v>
+        <v>3050</v>
       </c>
       <c r="C98">
         <v>9</v>
@@ -4468,7 +3346,7 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>2500</v>
+        <v>3050</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -4491,7 +3369,7 @@
         <v>4</v>
       </c>
       <c r="B100">
-        <v>2500</v>
+        <v>3050</v>
       </c>
       <c r="C100">
         <v>205</v>
@@ -4514,7 +3392,7 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>2600</v>
+        <v>3060</v>
       </c>
       <c r="C101">
         <v>8</v>
@@ -4537,7 +3415,7 @@
         <v>2</v>
       </c>
       <c r="B102">
-        <v>2600</v>
+        <v>3060</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -4560,7 +3438,7 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <v>2600</v>
+        <v>3060</v>
       </c>
       <c r="C103">
         <v>8</v>
@@ -4583,7 +3461,7 @@
         <v>4</v>
       </c>
       <c r="B104">
-        <v>2600</v>
+        <v>3060</v>
       </c>
       <c r="C104">
         <v>206</v>
@@ -4606,7 +3484,7 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>2700</v>
+        <v>3070</v>
       </c>
       <c r="C105">
         <v>13</v>
@@ -4629,7 +3507,7 @@
         <v>2</v>
       </c>
       <c r="B106">
-        <v>2700</v>
+        <v>3070</v>
       </c>
       <c r="C106">
         <v>7</v>
@@ -4652,7 +3530,7 @@
         <v>3</v>
       </c>
       <c r="B107">
-        <v>2700</v>
+        <v>3070</v>
       </c>
       <c r="C107">
         <v>13</v>
@@ -4675,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="B108">
-        <v>2700</v>
+        <v>3070</v>
       </c>
       <c r="C108">
         <v>207</v>
@@ -4698,10 +3576,10 @@
         <v>1</v>
       </c>
       <c r="B109">
-        <v>4100</v>
+        <v>3130</v>
       </c>
       <c r="C109">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D109">
         <v>3</v>
@@ -4721,10 +3599,10 @@
         <v>2</v>
       </c>
       <c r="B110">
-        <v>4100</v>
+        <v>3130</v>
       </c>
       <c r="C110">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -4744,19 +3622,19 @@
         <v>3</v>
       </c>
       <c r="B111">
-        <v>4100</v>
+        <v>3130</v>
       </c>
       <c r="C111">
-        <v>301</v>
+        <v>7</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -4764,22 +3642,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B112">
-        <v>3300</v>
+        <v>3130</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>213</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -4787,13 +3665,13 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113">
-        <v>3300</v>
+        <v>3140</v>
       </c>
       <c r="C113">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -4810,13 +3688,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B114">
-        <v>3300</v>
+        <v>3140</v>
       </c>
       <c r="C114">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -4833,22 +3711,22 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B115">
-        <v>3300</v>
+        <v>3140</v>
       </c>
       <c r="C115">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G115">
         <v>1</v>
@@ -4856,22 +3734,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B116">
-        <v>3400</v>
+        <v>3140</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="D116">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -4879,13 +3757,13 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117">
-        <v>3400</v>
+        <v>4010</v>
       </c>
       <c r="C117">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -4902,10 +3780,10 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B118">
-        <v>3400</v>
+        <v>4010</v>
       </c>
       <c r="C118">
         <v>14</v>
@@ -4925,13 +3803,13 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B119">
-        <v>3400</v>
+        <v>4010</v>
       </c>
       <c r="C119">
-        <v>214</v>
+        <v>301</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -4959,7 +3837,7 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E18" sqref="A1:F127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -4986,20 +3864,19 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>321</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>137</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D2,[1]TextData!A:A))</f>
-        <v>アフターバーナー</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5007,36 +3884,33 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>100</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5044,20 +3918,19 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>235</v>
+        <v>505</v>
       </c>
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="F5" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D5,[1]TextData!A:A))</f>
-        <v>ヘブンリーラック</v>
+      <c r="F5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -5065,13 +3938,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -5082,13 +3955,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -5099,20 +3972,19 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8">
-        <v>331</v>
+        <v>205</v>
       </c>
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="F8" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D8,[1]TextData!A:A))</f>
-        <v>ガーディアンソウル</v>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5120,13 +3992,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -5137,13 +4009,13 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -5154,20 +4026,19 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>431</v>
+        <v>131</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
-      <c r="F11" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D11,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+      <c r="F11" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5175,13 +4046,13 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -5192,13 +4063,13 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E13">
         <v>100</v>
@@ -5209,20 +4080,19 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
-      <c r="F14" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D14,[1]TextData!A:A))</f>
-        <v>シールドスペル</v>
+      <c r="F14" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -5230,13 +4100,13 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -5247,13 +4117,13 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -5264,20 +4134,19 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
-      <c r="F17" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D17,[1]TextData!A:A))</f>
-        <v>スペリオール</v>
+      <c r="F17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5285,13 +4154,13 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>100</v>
@@ -5302,13 +4171,13 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>140</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <v>100</v>
@@ -5319,20 +4188,19 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
-      <c r="F20" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D20,[1]TextData!A:A))</f>
-        <v>ネガティブドレイン</v>
+      <c r="F20" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5340,13 +4208,13 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -5357,13 +4225,13 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -5374,20 +4242,19 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="E23">
         <v>100</v>
       </c>
-      <c r="F23" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D23,[1]TextData!A:A))</f>
-        <v>リベリオススプリッツ</v>
+      <c r="F23" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5395,13 +4262,13 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -5412,13 +4279,13 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -5429,20 +4296,19 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26">
-        <v>537</v>
+        <v>103</v>
       </c>
       <c r="E26">
         <v>100</v>
       </c>
-      <c r="F26" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D26,[1]TextData!A:A))</f>
-        <v>アップグルント</v>
+      <c r="F26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5450,13 +4316,13 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>100</v>
@@ -5467,13 +4333,13 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -5484,20 +4350,19 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="E29">
         <v>100</v>
       </c>
-      <c r="F29" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D29,[1]TextData!A:A))</f>
-        <v>メルトバースト</v>
+      <c r="F29" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5505,13 +4370,13 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -5522,13 +4387,13 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -5539,20 +4404,19 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>203</v>
+        <v>303</v>
       </c>
       <c r="E32">
         <v>100</v>
       </c>
-      <c r="F32" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D32,[1]TextData!A:A))</f>
-        <v>シャープコード</v>
+      <c r="F32" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5560,13 +4424,13 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>100</v>
@@ -5577,13 +4441,13 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -5594,20 +4458,19 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35">
-        <v>304</v>
+        <v>521</v>
       </c>
       <c r="E35">
         <v>100</v>
       </c>
-      <c r="F35" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D35,[1]TextData!A:A))</f>
-        <v>エスコートソール</v>
+      <c r="F35" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5615,13 +4478,13 @@
         <v>1</v>
       </c>
       <c r="B36">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D36">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -5632,13 +4495,13 @@
         <v>1</v>
       </c>
       <c r="B37">
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -5649,20 +4512,19 @@
         <v>1</v>
       </c>
       <c r="B38">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="E38">
         <v>100</v>
       </c>
-      <c r="F38" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D38,[1]TextData!A:A))</f>
-        <v>ホーリーグレイス</v>
+      <c r="F38" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5670,13 +4532,13 @@
         <v>1</v>
       </c>
       <c r="B39">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -5687,13 +4549,13 @@
         <v>1</v>
       </c>
       <c r="B40">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -5704,20 +4566,19 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41">
-        <v>503</v>
+        <v>431</v>
       </c>
       <c r="E41">
         <v>100</v>
       </c>
-      <c r="F41" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D41,[1]TextData!A:A))</f>
-        <v>ドレインヒール</v>
+      <c r="F41" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5725,13 +4586,13 @@
         <v>1</v>
       </c>
       <c r="B42">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D42">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -5742,13 +4603,13 @@
         <v>1</v>
       </c>
       <c r="B43">
-        <v>500</v>
+        <v>14</v>
       </c>
       <c r="C43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -5759,20 +4620,19 @@
         <v>1</v>
       </c>
       <c r="B44">
-        <v>1300</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>337</v>
+        <v>104</v>
       </c>
       <c r="E44">
         <v>100</v>
       </c>
-      <c r="F44" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D44,[1]TextData!A:A))</f>
-        <v>アシッドラッシュ</v>
+      <c r="F44" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5780,13 +4640,13 @@
         <v>1</v>
       </c>
       <c r="B45">
-        <v>1300</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D45">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>100</v>
@@ -5797,13 +4657,13 @@
         <v>1</v>
       </c>
       <c r="B46">
-        <v>1300</v>
+        <v>15</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -5814,20 +4674,19 @@
         <v>1</v>
       </c>
       <c r="B47">
-        <v>1400</v>
+        <v>1010</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>437</v>
+        <v>137</v>
       </c>
       <c r="E47">
         <v>100</v>
       </c>
-      <c r="F47" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D47,[1]TextData!A:A))</f>
-        <v>ホーミングクルセイド</v>
+      <c r="F47" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5835,13 +4694,13 @@
         <v>1</v>
       </c>
       <c r="B48">
-        <v>1400</v>
+        <v>1010</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
       <c r="D48">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -5852,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>1400</v>
+        <v>1010</v>
       </c>
       <c r="C49">
         <v>3</v>
@@ -5869,20 +4728,19 @@
         <v>1</v>
       </c>
       <c r="B50">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E50">
         <v>100</v>
       </c>
-      <c r="F50" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D50,[1]TextData!A:A))</f>
-        <v>スウィフトカレント</v>
+      <c r="F50" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5890,13 +4748,13 @@
         <v>1</v>
       </c>
       <c r="B51">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="C51">
         <v>2</v>
       </c>
       <c r="D51">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E51">
         <v>100</v>
@@ -5907,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="B52">
-        <v>600</v>
+        <v>1020</v>
       </c>
       <c r="C52">
         <v>3</v>
@@ -5924,20 +4782,19 @@
         <v>1</v>
       </c>
       <c r="B53">
-        <v>700</v>
+        <v>1030</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>534</v>
+        <v>331</v>
       </c>
       <c r="E53">
         <v>100</v>
       </c>
-      <c r="F53" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D53,[1]TextData!A:A))</f>
-        <v>スカルグラッジ</v>
+      <c r="F53" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5945,13 +4802,13 @@
         <v>1</v>
       </c>
       <c r="B54">
-        <v>700</v>
+        <v>1030</v>
       </c>
       <c r="C54">
         <v>2</v>
       </c>
       <c r="D54">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E54">
         <v>100</v>
@@ -5962,7 +4819,7 @@
         <v>1</v>
       </c>
       <c r="B55">
-        <v>700</v>
+        <v>1030</v>
       </c>
       <c r="C55">
         <v>3</v>
@@ -5979,20 +4836,19 @@
         <v>1</v>
       </c>
       <c r="B56">
-        <v>1001</v>
+        <v>1040</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56">
-        <v>321</v>
+        <v>431</v>
       </c>
       <c r="E56">
         <v>100</v>
       </c>
-      <c r="F56" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D56,[1]TextData!A:A))</f>
-        <v>バブルブロウ</v>
+      <c r="F56" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -6000,13 +4856,13 @@
         <v>1</v>
       </c>
       <c r="B57">
-        <v>1001</v>
+        <v>1040</v>
       </c>
       <c r="C57">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E57">
         <v>100</v>
@@ -6017,13 +4873,13 @@
         <v>1</v>
       </c>
       <c r="B58">
-        <v>1001</v>
+        <v>1040</v>
       </c>
       <c r="C58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>100</v>
@@ -6034,20 +4890,19 @@
         <v>1</v>
       </c>
       <c r="B59">
-        <v>1002</v>
+        <v>1130</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59">
-        <v>505</v>
+        <v>303</v>
       </c>
       <c r="E59">
         <v>100</v>
       </c>
-      <c r="F59" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D59,[1]TextData!A:A))</f>
-        <v>ディプラヴィティ</v>
+      <c r="F59" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -6055,13 +4910,13 @@
         <v>1</v>
       </c>
       <c r="B60">
-        <v>1002</v>
+        <v>1130</v>
       </c>
       <c r="C60">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E60">
         <v>100</v>
@@ -6072,13 +4927,13 @@
         <v>1</v>
       </c>
       <c r="B61">
-        <v>1002</v>
+        <v>1130</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>100</v>
@@ -6089,20 +4944,19 @@
         <v>1</v>
       </c>
       <c r="B62">
-        <v>1003</v>
+        <v>1140</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>205</v>
+        <v>438</v>
       </c>
       <c r="E62">
         <v>100</v>
       </c>
-      <c r="F62" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D62,[1]TextData!A:A))</f>
-        <v>トラストチェイン</v>
+      <c r="F62" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -6110,13 +4964,13 @@
         <v>1</v>
       </c>
       <c r="B63">
-        <v>1003</v>
+        <v>1140</v>
       </c>
       <c r="C63">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E63">
         <v>100</v>
@@ -6127,13 +4981,13 @@
         <v>1</v>
       </c>
       <c r="B64">
-        <v>1003</v>
+        <v>1140</v>
       </c>
       <c r="C64">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>100</v>
@@ -6144,20 +4998,19 @@
         <v>1</v>
       </c>
       <c r="B65">
-        <v>1004</v>
+        <v>1050</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>131</v>
+        <v>533</v>
       </c>
       <c r="E65">
         <v>100</v>
       </c>
-      <c r="F65" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D65,[1]TextData!A:A))</f>
-        <v>ウルフソウル</v>
+      <c r="F65" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -6165,13 +5018,13 @@
         <v>1</v>
       </c>
       <c r="B66">
-        <v>1004</v>
+        <v>1050</v>
       </c>
       <c r="C66">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D66">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E66">
         <v>100</v>
@@ -6182,13 +5035,13 @@
         <v>1</v>
       </c>
       <c r="B67">
-        <v>1004</v>
+        <v>1050</v>
       </c>
       <c r="C67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E67">
         <v>100</v>
@@ -6199,20 +5052,19 @@
         <v>1</v>
       </c>
       <c r="B68">
-        <v>1005</v>
+        <v>1060</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E68">
         <v>100</v>
       </c>
-      <c r="F68" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D68,[1]TextData!A:A))</f>
-        <v>スパークフォグ</v>
+      <c r="F68" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -6220,13 +5072,13 @@
         <v>1</v>
       </c>
       <c r="B69">
-        <v>1005</v>
+        <v>1060</v>
       </c>
       <c r="C69">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E69">
         <v>100</v>
@@ -6237,13 +5089,13 @@
         <v>1</v>
       </c>
       <c r="B70">
-        <v>1005</v>
+        <v>1060</v>
       </c>
       <c r="C70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>100</v>
@@ -6254,20 +5106,19 @@
         <v>1</v>
       </c>
       <c r="B71">
-        <v>1006</v>
+        <v>1070</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>405</v>
+        <v>537</v>
       </c>
       <c r="E71">
         <v>100</v>
       </c>
-      <c r="F71" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D71,[1]TextData!A:A))</f>
-        <v>べネディクション</v>
+      <c r="F71" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -6275,13 +5126,13 @@
         <v>1</v>
       </c>
       <c r="B72">
-        <v>1006</v>
+        <v>1070</v>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E72">
         <v>100</v>
@@ -6292,13 +5143,13 @@
         <v>1</v>
       </c>
       <c r="B73">
-        <v>1006</v>
+        <v>1070</v>
       </c>
       <c r="C73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>100</v>
@@ -6309,20 +5160,19 @@
         <v>1</v>
       </c>
       <c r="B74">
-        <v>1007</v>
+        <v>2010</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74">
-        <v>504</v>
+        <v>121</v>
       </c>
       <c r="E74">
         <v>100</v>
       </c>
-      <c r="F74" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D74,[1]TextData!A:A))</f>
-        <v>デリートマジック</v>
+      <c r="F74" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6330,13 +5180,13 @@
         <v>1</v>
       </c>
       <c r="B75">
-        <v>1007</v>
+        <v>2010</v>
       </c>
       <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75">
         <v>15</v>
-      </c>
-      <c r="D75">
-        <v>1</v>
       </c>
       <c r="E75">
         <v>100</v>
@@ -6347,13 +5197,13 @@
         <v>1</v>
       </c>
       <c r="B76">
-        <v>1007</v>
+        <v>2010</v>
       </c>
       <c r="C76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E76">
         <v>100</v>
@@ -6364,20 +5214,19 @@
         <v>1</v>
       </c>
       <c r="B77">
-        <v>1008</v>
+        <v>2020</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77">
-        <v>331</v>
+        <v>203</v>
       </c>
       <c r="E77">
         <v>100</v>
       </c>
-      <c r="F77" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D77,[1]TextData!A:A))</f>
-        <v>ガーディアンソウル</v>
+      <c r="F77" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6385,13 +5234,13 @@
         <v>1</v>
       </c>
       <c r="B78">
-        <v>1008</v>
+        <v>2020</v>
       </c>
       <c r="C78">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E78">
         <v>100</v>
@@ -6402,13 +5251,13 @@
         <v>1</v>
       </c>
       <c r="B79">
-        <v>1008</v>
+        <v>2020</v>
       </c>
       <c r="C79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E79">
         <v>100</v>
@@ -6419,20 +5268,19 @@
         <v>1</v>
       </c>
       <c r="B80">
-        <v>1009</v>
+        <v>2030</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
       <c r="D80">
-        <v>103</v>
+        <v>304</v>
       </c>
       <c r="E80">
         <v>100</v>
       </c>
-      <c r="F80" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D80,[1]TextData!A:A))</f>
-        <v>ヒートスタンプ</v>
+      <c r="F80" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6440,13 +5288,13 @@
         <v>1</v>
       </c>
       <c r="B81">
-        <v>1009</v>
+        <v>2030</v>
       </c>
       <c r="C81">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E81">
         <v>100</v>
@@ -6457,13 +5305,13 @@
         <v>1</v>
       </c>
       <c r="B82">
-        <v>1009</v>
+        <v>2030</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>100</v>
@@ -6474,20 +5322,19 @@
         <v>1</v>
       </c>
       <c r="B83">
-        <v>1010</v>
+        <v>2040</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>204</v>
+        <v>421</v>
       </c>
       <c r="E83">
         <v>100</v>
       </c>
-      <c r="F83" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D83,[1]TextData!A:A))</f>
-        <v>ショックインパルス</v>
+      <c r="F83" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6495,13 +5342,13 @@
         <v>1</v>
       </c>
       <c r="B84">
-        <v>1010</v>
+        <v>2040</v>
       </c>
       <c r="C84">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E84">
         <v>100</v>
@@ -6512,13 +5359,13 @@
         <v>1</v>
       </c>
       <c r="B85">
-        <v>1010</v>
+        <v>2040</v>
       </c>
       <c r="C85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -6529,20 +5376,19 @@
         <v>1</v>
       </c>
       <c r="B86">
-        <v>1011</v>
+        <v>2050</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>303</v>
+        <v>503</v>
       </c>
       <c r="E86">
         <v>100</v>
       </c>
-      <c r="F86" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D86,[1]TextData!A:A))</f>
-        <v>シールドスペル</v>
+      <c r="F86" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6550,13 +5396,13 @@
         <v>1</v>
       </c>
       <c r="B87">
-        <v>1011</v>
+        <v>2050</v>
       </c>
       <c r="C87">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -6567,13 +5413,13 @@
         <v>1</v>
       </c>
       <c r="B88">
-        <v>1011</v>
+        <v>2050</v>
       </c>
       <c r="C88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -6584,20 +5430,19 @@
         <v>1</v>
       </c>
       <c r="B89">
-        <v>1012</v>
+        <v>2130</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89">
-        <v>521</v>
+        <v>337</v>
       </c>
       <c r="E89">
         <v>100</v>
       </c>
-      <c r="F89" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D89,[1]TextData!A:A))</f>
-        <v>ダークネス</v>
+      <c r="F89" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -6605,13 +5450,13 @@
         <v>1</v>
       </c>
       <c r="B90">
-        <v>1012</v>
+        <v>2130</v>
       </c>
       <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90">
         <v>15</v>
-      </c>
-      <c r="D90">
-        <v>1</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -6622,13 +5467,13 @@
         <v>1</v>
       </c>
       <c r="B91">
-        <v>1012</v>
+        <v>2130</v>
       </c>
       <c r="C91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -6639,20 +5484,19 @@
         <v>1</v>
       </c>
       <c r="B92">
-        <v>1013</v>
+        <v>2140</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="E92">
         <v>100</v>
       </c>
-      <c r="F92" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D92,[1]TextData!A:A))</f>
-        <v>リフレッシュ</v>
+      <c r="F92" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -6660,13 +5504,13 @@
         <v>1</v>
       </c>
       <c r="B93">
-        <v>1013</v>
+        <v>2140</v>
       </c>
       <c r="C93">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D93">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -6677,13 +5521,13 @@
         <v>1</v>
       </c>
       <c r="B94">
-        <v>1013</v>
+        <v>2140</v>
       </c>
       <c r="C94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -6694,20 +5538,19 @@
         <v>1</v>
       </c>
       <c r="B95">
-        <v>1014</v>
+        <v>2060</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95">
-        <v>431</v>
+        <v>233</v>
       </c>
       <c r="E95">
         <v>100</v>
       </c>
-      <c r="F95" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D95,[1]TextData!A:A))</f>
-        <v>ディバインシールド</v>
+      <c r="F95" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -6715,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="B96">
-        <v>1014</v>
+        <v>2060</v>
       </c>
       <c r="C96">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -6732,13 +5575,13 @@
         <v>1</v>
       </c>
       <c r="B97">
-        <v>1014</v>
+        <v>2060</v>
       </c>
       <c r="C97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -6749,20 +5592,19 @@
         <v>1</v>
       </c>
       <c r="B98">
-        <v>1015</v>
+        <v>2070</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98">
-        <v>104</v>
+        <v>534</v>
       </c>
       <c r="E98">
         <v>100</v>
       </c>
-      <c r="F98" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(D98,[1]TextData!A:A))</f>
-        <v>ソードアダプト</v>
+      <c r="F98" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -6770,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="B99">
-        <v>1015</v>
+        <v>2070</v>
       </c>
       <c r="C99">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -6787,13 +5629,13 @@
         <v>1</v>
       </c>
       <c r="B100">
-        <v>1015</v>
+        <v>2070</v>
       </c>
       <c r="C100">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -6804,7 +5646,7 @@
         <v>1</v>
       </c>
       <c r="B101">
-        <v>2100</v>
+        <v>3010</v>
       </c>
       <c r="C101">
         <v>22</v>
@@ -6821,7 +5663,7 @@
         <v>1</v>
       </c>
       <c r="B102">
-        <v>2100</v>
+        <v>3010</v>
       </c>
       <c r="C102">
         <v>3</v>
@@ -6838,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="B103">
-        <v>2100</v>
+        <v>3010</v>
       </c>
       <c r="C103">
         <v>2</v>
@@ -6855,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="B104">
-        <v>2200</v>
+        <v>3020</v>
       </c>
       <c r="C104">
         <v>22</v>
@@ -6872,7 +5714,7 @@
         <v>1</v>
       </c>
       <c r="B105">
-        <v>2200</v>
+        <v>3020</v>
       </c>
       <c r="C105">
         <v>3</v>
@@ -6889,7 +5731,7 @@
         <v>1</v>
       </c>
       <c r="B106">
-        <v>2200</v>
+        <v>3020</v>
       </c>
       <c r="C106">
         <v>2</v>
@@ -6906,7 +5748,7 @@
         <v>1</v>
       </c>
       <c r="B107">
-        <v>2300</v>
+        <v>3030</v>
       </c>
       <c r="C107">
         <v>22</v>
@@ -6923,7 +5765,7 @@
         <v>1</v>
       </c>
       <c r="B108">
-        <v>2300</v>
+        <v>3030</v>
       </c>
       <c r="C108">
         <v>3</v>
@@ -6940,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="B109">
-        <v>2300</v>
+        <v>3030</v>
       </c>
       <c r="C109">
         <v>2</v>
@@ -6957,7 +5799,7 @@
         <v>1</v>
       </c>
       <c r="B110">
-        <v>2400</v>
+        <v>3040</v>
       </c>
       <c r="C110">
         <v>22</v>
@@ -6974,7 +5816,7 @@
         <v>1</v>
       </c>
       <c r="B111">
-        <v>2400</v>
+        <v>3040</v>
       </c>
       <c r="C111">
         <v>3</v>
@@ -6991,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="B112">
-        <v>2400</v>
+        <v>3040</v>
       </c>
       <c r="C112">
         <v>21</v>
@@ -7008,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="B113">
-        <v>2500</v>
+        <v>3050</v>
       </c>
       <c r="C113">
         <v>22</v>
@@ -7025,7 +5867,7 @@
         <v>1</v>
       </c>
       <c r="B114">
-        <v>2500</v>
+        <v>3050</v>
       </c>
       <c r="C114">
         <v>3</v>
@@ -7042,7 +5884,7 @@
         <v>1</v>
       </c>
       <c r="B115">
-        <v>2500</v>
+        <v>3050</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -7059,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="B116">
-        <v>2600</v>
+        <v>3060</v>
       </c>
       <c r="C116">
         <v>22</v>
@@ -7076,7 +5918,7 @@
         <v>1</v>
       </c>
       <c r="B117">
-        <v>2600</v>
+        <v>3060</v>
       </c>
       <c r="C117">
         <v>3</v>
@@ -7093,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="B118">
-        <v>2600</v>
+        <v>3060</v>
       </c>
       <c r="C118">
         <v>2</v>
@@ -7110,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="B119">
-        <v>2700</v>
+        <v>3070</v>
       </c>
       <c r="C119">
         <v>22</v>
@@ -7127,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="B120">
-        <v>2700</v>
+        <v>3070</v>
       </c>
       <c r="C120">
         <v>3</v>
@@ -7144,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="B121">
-        <v>2700</v>
+        <v>3070</v>
       </c>
       <c r="C121">
         <v>2</v>
@@ -7161,7 +6003,7 @@
         <v>1</v>
       </c>
       <c r="B122">
-        <v>3300</v>
+        <v>3130</v>
       </c>
       <c r="C122">
         <v>22</v>
@@ -7178,7 +6020,7 @@
         <v>1</v>
       </c>
       <c r="B123">
-        <v>3300</v>
+        <v>3130</v>
       </c>
       <c r="C123">
         <v>3</v>
@@ -7195,7 +6037,7 @@
         <v>1</v>
       </c>
       <c r="B124">
-        <v>3300</v>
+        <v>3130</v>
       </c>
       <c r="C124">
         <v>2</v>
@@ -7212,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="B125">
-        <v>3400</v>
+        <v>3140</v>
       </c>
       <c r="C125">
         <v>22</v>
@@ -7229,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="B126">
-        <v>3400</v>
+        <v>3140</v>
       </c>
       <c r="C126">
         <v>3</v>
@@ -7246,7 +6088,7 @@
         <v>1</v>
       </c>
       <c r="B127">
-        <v>3400</v>
+        <v>3140</v>
       </c>
       <c r="C127">
         <v>21</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -156,8 +156,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,15 +202,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,24 +232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,61 +241,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,7 +256,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,19 +309,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,7 +321,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,31 +339,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,6 +363,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,7 +399,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,31 +411,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,31 +477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,13 +489,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,69 +500,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -585,7 +522,61 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +591,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,145 +608,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3836,8 +3836,8 @@
   <sheetPr/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="A1:F127"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -3870,7 +3870,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>321</v>
+        <v>3060</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3924,7 +3924,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>505</v>
+        <v>5050</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -3978,7 +3978,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>205</v>
+        <v>2050</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -4032,7 +4032,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>131</v>
+        <v>11030</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -4086,7 +4086,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>232</v>
+        <v>12020</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -4140,7 +4140,7 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>405</v>
+        <v>4050</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -4194,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>504</v>
+        <v>5040</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -4248,7 +4248,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>331</v>
+        <v>13010</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -4302,7 +4302,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>103</v>
+        <v>1030</v>
       </c>
       <c r="E26">
         <v>100</v>
@@ -4356,7 +4356,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>204</v>
+        <v>2040</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>303</v>
+        <v>3030</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>521</v>
+        <v>5060</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -4518,7 +4518,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>404</v>
+        <v>4040</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -4572,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>431</v>
+        <v>14010</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -4626,7 +4626,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>104</v>
+        <v>1040</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>137</v>
+        <v>11070</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -4734,7 +4734,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>235</v>
+        <v>12050</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -4788,7 +4788,7 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>331</v>
+        <v>13010</v>
       </c>
       <c r="E53">
         <v>100</v>
@@ -4842,7 +4842,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>431</v>
+        <v>14010</v>
       </c>
       <c r="E56">
         <v>100</v>
@@ -4896,7 +4896,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>303</v>
+        <v>3030</v>
       </c>
       <c r="E59">
         <v>100</v>
@@ -4950,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>438</v>
+        <v>14080</v>
       </c>
       <c r="E62">
         <v>100</v>
@@ -5004,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>533</v>
+        <v>15030</v>
       </c>
       <c r="E65">
         <v>100</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>237</v>
+        <v>12070</v>
       </c>
       <c r="E68">
         <v>100</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>121</v>
+        <v>1050</v>
       </c>
       <c r="E74">
         <v>100</v>
@@ -5220,7 +5220,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>203</v>
+        <v>2030</v>
       </c>
       <c r="E77">
         <v>100</v>
@@ -5274,7 +5274,7 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>304</v>
+        <v>3040</v>
       </c>
       <c r="E80">
         <v>100</v>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>421</v>
+        <v>4060</v>
       </c>
       <c r="E83">
         <v>100</v>
@@ -5382,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>503</v>
+        <v>5030</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -5436,7 +5436,7 @@
         <v>1</v>
       </c>
       <c r="D89">
-        <v>337</v>
+        <v>13070</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -5490,7 +5490,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>437</v>
+        <v>14070</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -5544,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="D95">
-        <v>233</v>
+        <v>12030</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -5598,7 +5598,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>534</v>
+        <v>15040</v>
       </c>
       <c r="E98">
         <v>100</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>Id</t>
   </si>
@@ -50,43 +50,43 @@
     <t>バブルブロウ</t>
   </si>
   <si>
-    <t>ディプラヴィティ</t>
+    <t>ドレインヒール</t>
   </si>
   <si>
-    <t>トラストチェイン</t>
+    <t>エクステンション</t>
   </si>
   <si>
     <t>ウルフソウル</t>
   </si>
   <si>
-    <t>スパークフォグ</t>
+    <t>ショックインパルス</t>
   </si>
   <si>
     <t>べネディクション</t>
   </si>
   <si>
-    <t>デリートマジック</t>
+    <t>ダークネス</t>
   </si>
   <si>
-    <t>ガーディアンソウル</t>
+    <t>ガードシフト</t>
   </si>
   <si>
     <t>ヒートスタンプ</t>
   </si>
   <si>
-    <t>ショックインパルス</t>
+    <t>クイックアクト</t>
   </si>
   <si>
-    <t>シールドスペル</t>
+    <t>アーマーコード</t>
   </si>
   <si>
-    <t>ダークネス</t>
+    <t>イーグルアイ</t>
+  </si>
+  <si>
+    <t>リイェネレーション</t>
   </si>
   <si>
     <t>リフレッシュ</t>
-  </si>
-  <si>
-    <t>ディバインシールド</t>
   </si>
   <si>
     <t>ソードアダプト</t>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>ヘブンリーラック</t>
+  </si>
+  <si>
+    <t>ガーディアンソウル</t>
+  </si>
+  <si>
+    <t>ディバインシールド</t>
+  </si>
+  <si>
+    <t>シールドスペル</t>
   </si>
   <si>
     <t>スペリオール</t>
@@ -122,9 +131,6 @@
     <t>ホーリーグレイス</t>
   </si>
   <si>
-    <t>ドレインヒール</t>
-  </si>
-  <si>
     <t>アシッドラッシュ</t>
   </si>
   <si>
@@ -142,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -156,35 +162,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -196,44 +192,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,17 +207,54 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,23 +274,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +315,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,145 +375,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,19 +399,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,30 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,9 +526,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +546,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,10 +576,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -600,6 +591,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -608,16 +614,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -626,127 +632,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1079,7 +1085,7 @@
   <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -3836,8 +3842,8 @@
   <sheetPr/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -3924,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>5050</v>
+        <v>5030</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -3978,7 +3984,7 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>2050</v>
+        <v>12010</v>
       </c>
       <c r="E8">
         <v>100</v>
@@ -4032,7 +4038,7 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>11030</v>
+        <v>11010</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -4086,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>12020</v>
+        <v>2040</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -4194,7 +4200,7 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>5040</v>
+        <v>5060</v>
       </c>
       <c r="E20">
         <v>100</v>
@@ -4248,7 +4254,7 @@
         <v>1</v>
       </c>
       <c r="D23">
-        <v>13010</v>
+        <v>13030</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -4356,7 +4362,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>2040</v>
+        <v>12060</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -4410,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>3030</v>
+        <v>13020</v>
       </c>
       <c r="E32">
         <v>100</v>
@@ -4464,7 +4470,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>5060</v>
+        <v>15010</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -4518,7 +4524,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>4040</v>
+        <v>14040</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -4572,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="D41">
-        <v>14010</v>
+        <v>4040</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -4794,7 +4800,7 @@
         <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4848,7 +4854,7 @@
         <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4902,7 +4908,7 @@
         <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4956,7 +4962,7 @@
         <v>100</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5010,7 +5016,7 @@
         <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5064,7 +5070,7 @@
         <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5118,7 +5124,7 @@
         <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5172,7 +5178,7 @@
         <v>100</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5226,7 +5232,7 @@
         <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5280,7 +5286,7 @@
         <v>100</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5334,7 +5340,7 @@
         <v>100</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5388,7 +5394,7 @@
         <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5442,7 +5448,7 @@
         <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5496,7 +5502,7 @@
         <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5550,7 +5556,7 @@
         <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5604,7 +5610,7 @@
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:5">

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -148,8 +148,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
@@ -157,6 +157,52 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -178,36 +224,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,23 +254,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,22 +292,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -274,33 +299,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,54 +312,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -375,7 +327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +351,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -399,13 +423,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,49 +447,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,31 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +506,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -526,10 +537,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -546,6 +555,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -578,31 +602,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +614,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,7 +623,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,127 +632,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1124,7 +1124,7 @@
         <v>401</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3842,7 +3842,7 @@
   <sheetPr/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -148,9 +148,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -162,6 +162,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -170,18 +178,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,23 +193,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,7 +217,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -246,16 +240,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -276,16 +277,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,6 +287,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +321,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,19 +345,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,7 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,67 +423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,13 +447,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,7 +483,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,13 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,17 +506,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,21 +533,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -576,9 +550,35 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,8 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,145 +614,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1082,10 +1082,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G119"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1124,7 +1124,7 @@
         <v>401</v>
       </c>
       <c r="C2">
-        <v>201</v>
+        <v>103</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1141,13 +1141,13 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1190,10 +1190,10 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1213,10 +1213,10 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1236,10 +1236,10 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1259,10 +1259,10 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1282,10 +1282,10 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1305,10 +1305,10 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1328,10 +1328,10 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1351,10 +1351,10 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1374,10 +1374,10 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1397,10 +1397,10 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1420,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1443,10 +1443,10 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1466,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1489,19 +1489,19 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>1010</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19">
         <v>1010</v>
@@ -1532,22 +1532,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20">
         <v>1010</v>
       </c>
       <c r="C20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1555,22 +1555,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B21">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1578,13 +1578,13 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>1020</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23">
         <v>1020</v>
@@ -1610,7 +1610,7 @@
         <v>3</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1624,22 +1624,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
         <v>1030</v>
@@ -1670,22 +1670,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>1030</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -1693,22 +1693,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B27">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -1716,13 +1716,13 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28">
         <v>1040</v>
       </c>
       <c r="C28">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29">
         <v>1040</v>
@@ -1748,7 +1748,7 @@
         <v>12</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1762,22 +1762,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30">
-        <v>1130</v>
+        <v>1040</v>
       </c>
       <c r="C30">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -1785,16 +1785,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31">
         <v>1130</v>
       </c>
       <c r="C31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1808,22 +1808,22 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32">
         <v>1130</v>
       </c>
       <c r="C32">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -1831,13 +1831,13 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B33">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="C33">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -1854,13 +1854,13 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34">
         <v>1140</v>
       </c>
       <c r="C34">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B35">
         <v>1140</v>
@@ -1886,7 +1886,7 @@
         <v>14</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1900,22 +1900,22 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36">
-        <v>1050</v>
+        <v>1140</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37">
         <v>1050</v>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B38">
         <v>1050</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -1969,22 +1969,22 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
         <v>1060</v>
@@ -2015,22 +2015,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B41">
         <v>1060</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E41">
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -2038,22 +2038,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B42">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="C42">
         <v>15</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E42">
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>1070</v>
@@ -2084,22 +2084,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B44">
         <v>1070</v>
       </c>
       <c r="C44">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -2107,10 +2107,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>2010</v>
+        <v>1070</v>
       </c>
       <c r="C45">
         <v>13</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>1</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46">
         <v>2010</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B47">
         <v>2010</v>
@@ -2171,50 +2171,50 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B48">
         <v>2010</v>
       </c>
       <c r="C48">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B49">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50">
         <v>2020</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B51">
         <v>2020</v>
@@ -2263,50 +2263,50 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B52">
         <v>2020</v>
       </c>
       <c r="C52">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B53">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C53">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54">
         <v>2030</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B55">
         <v>2030</v>
@@ -2355,50 +2355,50 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56">
         <v>2030</v>
       </c>
       <c r="C56">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B57">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C57">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58">
         <v>2040</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B59">
         <v>2040</v>
@@ -2447,50 +2447,50 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B60">
         <v>2040</v>
       </c>
       <c r="C60">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B61">
-        <v>2130</v>
+        <v>2040</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62">
         <v>2130</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B63">
         <v>2130</v>
@@ -2539,50 +2539,50 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B64">
         <v>2130</v>
       </c>
       <c r="C64">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B65">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="C65">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66">
         <v>2140</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B67">
         <v>2140</v>
@@ -2631,50 +2631,50 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B68">
         <v>2140</v>
       </c>
       <c r="C68">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B69">
-        <v>2050</v>
+        <v>2140</v>
       </c>
       <c r="C69">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70">
         <v>2050</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B71">
         <v>2050</v>
@@ -2723,50 +2723,50 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B72">
         <v>2050</v>
       </c>
       <c r="C72">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B73">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="C73">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D73">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74">
         <v>2060</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B75">
         <v>2060</v>
@@ -2815,50 +2815,50 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B76">
         <v>2060</v>
       </c>
       <c r="C76">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B77">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="C77">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78">
         <v>2070</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B79">
         <v>2070</v>
@@ -2907,50 +2907,50 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80">
         <v>2070</v>
       </c>
       <c r="C80">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G80">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B81">
-        <v>3010</v>
+        <v>2070</v>
       </c>
       <c r="C81">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D81">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -2958,13 +2958,13 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82">
         <v>3010</v>
       </c>
       <c r="C82">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2981,13 +2981,13 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B83">
         <v>3010</v>
       </c>
       <c r="C83">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -3004,22 +3004,22 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B84">
         <v>3010</v>
       </c>
       <c r="C84">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="D84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -3027,22 +3027,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B85">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C85">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -3050,13 +3050,13 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86">
         <v>3020</v>
       </c>
       <c r="C86">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B87">
         <v>3020</v>
       </c>
       <c r="C87">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -3096,22 +3096,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B88">
         <v>3020</v>
       </c>
       <c r="C88">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="D88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -3119,22 +3119,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B89">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="C89">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -3142,13 +3142,13 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90">
         <v>3030</v>
       </c>
       <c r="C90">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D90">
         <v>3</v>
@@ -3165,13 +3165,13 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B91">
         <v>3030</v>
       </c>
       <c r="C91">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D91">
         <v>3</v>
@@ -3188,22 +3188,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B92">
         <v>3030</v>
       </c>
       <c r="C92">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -3211,22 +3211,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B93">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="C93">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="D93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>1</v>
@@ -3234,13 +3234,13 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94">
         <v>3040</v>
       </c>
       <c r="C94">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D94">
         <v>3</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B95">
         <v>3040</v>
       </c>
       <c r="C95">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>3</v>
@@ -3280,22 +3280,22 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B96">
         <v>3040</v>
       </c>
       <c r="C96">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -3303,22 +3303,22 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B97">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="C97">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D97">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -3326,13 +3326,13 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98">
         <v>3050</v>
       </c>
       <c r="C98">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -3349,13 +3349,13 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B99">
         <v>3050</v>
       </c>
       <c r="C99">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D99">
         <v>3</v>
@@ -3372,22 +3372,22 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B100">
         <v>3050</v>
       </c>
       <c r="C100">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -3395,22 +3395,22 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B101">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="C101">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="D101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -3418,13 +3418,13 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102">
         <v>3060</v>
       </c>
       <c r="C102">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D102">
         <v>3</v>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B103">
         <v>3060</v>
       </c>
       <c r="C103">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D103">
         <v>3</v>
@@ -3464,22 +3464,22 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B104">
         <v>3060</v>
       </c>
       <c r="C104">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -3487,22 +3487,22 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B105">
-        <v>3070</v>
+        <v>3060</v>
       </c>
       <c r="C105">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="D105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -3510,13 +3510,13 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106">
         <v>3070</v>
       </c>
       <c r="C106">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D106">
         <v>3</v>
@@ -3533,13 +3533,13 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B107">
         <v>3070</v>
       </c>
       <c r="C107">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D107">
         <v>3</v>
@@ -3556,22 +3556,22 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B108">
         <v>3070</v>
       </c>
       <c r="C108">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -3579,22 +3579,22 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B109">
-        <v>3130</v>
+        <v>3070</v>
       </c>
       <c r="C109">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -3602,13 +3602,13 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110">
         <v>3130</v>
       </c>
       <c r="C110">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D110">
         <v>3</v>
@@ -3625,13 +3625,13 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B111">
         <v>3130</v>
       </c>
       <c r="C111">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D111">
         <v>3</v>
@@ -3648,22 +3648,22 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B112">
         <v>3130</v>
       </c>
       <c r="C112">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="D112">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G112">
         <v>1</v>
@@ -3671,22 +3671,22 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B113">
-        <v>3140</v>
+        <v>3130</v>
       </c>
       <c r="C113">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="D113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -3694,13 +3694,13 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114">
         <v>3140</v>
       </c>
       <c r="C114">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -3717,13 +3717,13 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B115">
         <v>3140</v>
       </c>
       <c r="C115">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -3740,22 +3740,22 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B116">
         <v>3140</v>
       </c>
       <c r="C116">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G116">
         <v>1</v>
@@ -3763,22 +3763,22 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B117">
-        <v>4010</v>
+        <v>3140</v>
       </c>
       <c r="C117">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="D117">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
         <v>1</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118">
         <v>4010</v>
@@ -3809,24 +3809,47 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B119">
         <v>4010</v>
       </c>
       <c r="C119">
+        <v>14</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119">
+        <v>0</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120">
+        <v>3</v>
+      </c>
+      <c r="B120">
+        <v>4010</v>
+      </c>
+      <c r="C120">
         <v>301</v>
       </c>
-      <c r="D119">
-        <v>1</v>
-      </c>
-      <c r="E119">
-        <v>1</v>
-      </c>
-      <c r="F119">
-        <v>1</v>
-      </c>
-      <c r="G119">
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120">
         <v>1</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -148,15 +148,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -170,24 +185,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,21 +211,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,16 +232,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,29 +262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,7 +277,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -299,8 +290,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,7 +315,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,19 +381,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,31 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,7 +459,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,97 +489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,6 +510,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -520,6 +535,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,38 +592,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -601,8 +601,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,7 +614,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,7 +623,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,76 +632,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,49 +749,10 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
@@ -1136,7 +1136,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1182,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1251,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1320,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1343,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1389,7 +1389,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1412,7 +1412,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1435,7 +1435,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1481,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1619,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1642,7 +1642,7 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1711,7 +1711,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1757,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1872,7 +1872,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1941,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1964,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1987,7 +1987,7 @@
         <v>1</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2033,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2056,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2079,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2125,7 +2125,7 @@
         <v>1</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2148,7 +2148,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2171,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2217,7 +2217,7 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="G52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2309,7 +2309,7 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2332,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2355,7 +2355,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2401,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2470,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="G60">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2493,7 +2493,7 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2516,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2562,7 +2562,7 @@
         <v>0</v>
       </c>
       <c r="G64">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2585,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="G68">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2700,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2723,7 +2723,7 @@
         <v>0</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="G72">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2769,7 +2769,7 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2838,7 +2838,7 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2861,7 +2861,7 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2907,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2953,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2976,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="G82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3022,7 +3022,7 @@
         <v>0</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3045,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3114,7 +3114,7 @@
         <v>0</v>
       </c>
       <c r="G88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3137,7 +3137,7 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3160,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="G90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3183,7 +3183,7 @@
         <v>0</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3229,7 +3229,7 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="G94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3298,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="G96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3321,7 +3321,7 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3413,7 +3413,7 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3459,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3505,7 +3505,7 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="G107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3597,7 +3597,7 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="G110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="G111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="G116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3781,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3804,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -148,10 +148,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,15 +171,97 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,31 +275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -225,38 +284,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,38 +300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,13 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,19 +327,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,102 +357,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,13 +369,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,7 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -506,6 +506,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -524,17 +559,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,7 +587,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,35 +606,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -614,145 +614,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1084,8 +1084,8 @@
   <sheetPr/>
   <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="A121" sqref="$A121:$XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
     <sheet name="GetItems" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Id</t>
   </si>
@@ -24,6 +27,9 @@
   </si>
   <si>
     <t>EnemyId</t>
+  </si>
+  <si>
+    <t>Enemy</t>
   </si>
   <si>
     <t>Lv</t>
@@ -148,9 +154,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -159,13 +165,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,37 +178,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,9 +221,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,8 +257,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,6 +278,14 @@
       <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,14 +305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -315,19 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,7 +339,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -357,7 +381,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,133 +501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,6 +526,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -531,15 +552,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,22 +599,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,16 +620,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,127 +638,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -822,6 +828,290 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Enemies"/>
+      <sheetName val="Learning"/>
+      <sheetName val="Triggers"/>
+      <sheetName val="TextData"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Text</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ネレイドジェム</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>カースド</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>3</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ビー</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ウルフ</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>クロウ</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>6</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>ネームレス</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>7</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>サーチャー</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>8</v>
+          </cell>
+          <cell r="B9" t="str">
+            <v>シールド</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>9</v>
+          </cell>
+          <cell r="B10" t="str">
+            <v>ドライアド</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>10</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>スコーピオン</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>11</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>スクイッド</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>12</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>クリーパー</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>13</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>インプ</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>14</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>ゴーストアーマー</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>15</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>ソード</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>101</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>ビフロンス</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>102</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>アンドラス</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>103</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>アモン</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>104</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>ベリト</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>105</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>パイモン</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>106</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>ビヤーキー</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>107</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>ポリプ</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>113</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>アイホート</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>114</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>ノーデンス</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>201</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>ブエル</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>202</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>デカラビア</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>203</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>ザガン</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>204</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>メフィストフェレス</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>205</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>アスタロト</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>206</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>イタクァ</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>207</v>
+          </cell>
+          <cell r="B32" t="str">
+            <v>シアエガ</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>301</v>
+          </cell>
+          <cell r="B33" t="str">
+            <v>デビルドラゴン</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,18 +1372,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G120"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A121" sqref="$A121:$XFD124"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="9.54545454545454"/>
+    <col min="4" max="4" width="16.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1103,7 +1394,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
@@ -1115,8 +1406,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>3</v>
       </c>
@@ -1126,8 +1420,9 @@
       <c r="C2">
         <v>103</v>
       </c>
-      <c r="D2">
-        <v>1</v>
+      <c r="D2" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C2,[1]TextData!A:A))</f>
+        <v>アモン</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1136,10 +1431,13 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1149,8 +1447,9 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3">
-        <v>1</v>
+      <c r="D3" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C3,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1159,10 +1458,13 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1172,8 +1474,9 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4">
-        <v>1</v>
+      <c r="D4" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C4,[1]TextData!A:A))</f>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1182,10 +1485,13 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1195,8 +1501,9 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>1</v>
+      <c r="D5" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C5,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1205,10 +1512,13 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1218,8 +1528,9 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D6" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C6,[1]TextData!A:A))</f>
+        <v>ビー</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1228,10 +1539,13 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1241,8 +1555,9 @@
       <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7">
-        <v>1</v>
+      <c r="D7" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C7,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1251,10 +1566,13 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1264,8 +1582,9 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C8,[1]TextData!A:A))</f>
+        <v>クロウ</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1274,10 +1593,13 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1287,8 +1609,9 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C9,[1]TextData!A:A))</f>
+        <v>ネームレス</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1297,10 +1620,13 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1310,8 +1636,9 @@
       <c r="C10">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>1</v>
+      <c r="D10" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C10,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1320,10 +1647,13 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1333,8 +1663,9 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="D11">
-        <v>1</v>
+      <c r="D11" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C11,[1]TextData!A:A))</f>
+        <v>シールド</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1343,10 +1674,13 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1356,8 +1690,9 @@
       <c r="C12">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>1</v>
+      <c r="D12" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C12,[1]TextData!A:A))</f>
+        <v>ドライアド</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1366,10 +1701,13 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1379,8 +1717,9 @@
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>1</v>
+      <c r="D13" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C13,[1]TextData!A:A))</f>
+        <v>スコーピオン</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1389,10 +1728,13 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1402,8 +1744,9 @@
       <c r="C14">
         <v>11</v>
       </c>
-      <c r="D14">
-        <v>1</v>
+      <c r="D14" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C14,[1]TextData!A:A))</f>
+        <v>スクイッド</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1412,10 +1755,13 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1425,8 +1771,9 @@
       <c r="C15">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="D15" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C15,[1]TextData!A:A))</f>
+        <v>クリーパー</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1435,10 +1782,13 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1448,8 +1798,9 @@
       <c r="C16">
         <v>13</v>
       </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="D16" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C16,[1]TextData!A:A))</f>
+        <v>インプ</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1458,10 +1809,13 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1471,8 +1825,9 @@
       <c r="C17">
         <v>14</v>
       </c>
-      <c r="D17">
-        <v>1</v>
+      <c r="D17" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1481,10 +1836,13 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1494,8 +1852,9 @@
       <c r="C18">
         <v>15</v>
       </c>
-      <c r="D18">
-        <v>1</v>
+      <c r="D18" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C18,[1]TextData!A:A))</f>
+        <v>ソード</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1504,10 +1863,13 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1517,11 +1879,12 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="D19">
-        <v>1</v>
+      <c r="D19" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C19,[1]TextData!A:A))</f>
+        <v>ビー</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1529,8 +1892,11 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>2</v>
       </c>
@@ -1540,11 +1906,12 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20">
-        <v>1</v>
+      <c r="D20" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C20,[1]TextData!A:A))</f>
+        <v>ビー</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1552,8 +1919,11 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1563,20 +1933,24 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21">
-        <v>3</v>
+      <c r="D21" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C21,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1586,11 +1960,12 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>1</v>
+      <c r="D22" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C22,[1]TextData!A:A))</f>
+        <v>ネームレス</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1598,8 +1973,11 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1609,20 +1987,24 @@
       <c r="C23">
         <v>3</v>
       </c>
-      <c r="D23">
-        <v>1</v>
+      <c r="D23" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C23,[1]TextData!A:A))</f>
+        <v>ビー</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1632,20 +2014,24 @@
       <c r="C24">
         <v>3</v>
       </c>
-      <c r="D24">
-        <v>3</v>
+      <c r="D24" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C24,[1]TextData!A:A))</f>
+        <v>ビー</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1655,11 +2041,12 @@
       <c r="C25">
         <v>4</v>
       </c>
-      <c r="D25">
-        <v>1</v>
+      <c r="D25" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C25,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1667,8 +2054,11 @@
       <c r="G25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1678,11 +2068,12 @@
       <c r="C26">
         <v>4</v>
       </c>
-      <c r="D26">
-        <v>1</v>
+      <c r="D26" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C26,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1690,8 +2081,11 @@
       <c r="G26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1701,20 +2095,24 @@
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27">
-        <v>3</v>
+      <c r="D27" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C27,[1]TextData!A:A))</f>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1724,11 +2122,12 @@
       <c r="C28">
         <v>2</v>
       </c>
-      <c r="D28">
-        <v>1</v>
+      <c r="D28" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C28,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1736,8 +2135,11 @@
       <c r="G28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1747,20 +2149,24 @@
       <c r="C29">
         <v>12</v>
       </c>
-      <c r="D29">
-        <v>1</v>
+      <c r="D29" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C29,[1]TextData!A:A))</f>
+        <v>クリーパー</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1770,20 +2176,24 @@
       <c r="C30">
         <v>12</v>
       </c>
-      <c r="D30">
-        <v>3</v>
+      <c r="D30" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C30,[1]TextData!A:A))</f>
+        <v>クリーパー</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1793,11 +2203,12 @@
       <c r="C31">
         <v>10</v>
       </c>
-      <c r="D31">
-        <v>1</v>
+      <c r="D31" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C31,[1]TextData!A:A))</f>
+        <v>スコーピオン</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1805,8 +2216,11 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1816,20 +2230,24 @@
       <c r="C32">
         <v>5</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C32,[1]TextData!A:A))</f>
+        <v>クロウ</v>
+      </c>
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1839,20 +2257,24 @@
       <c r="C33">
         <v>10</v>
       </c>
-      <c r="D33">
-        <v>1</v>
+      <c r="D33" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C33,[1]TextData!A:A))</f>
+        <v>スコーピオン</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1862,11 +2284,12 @@
       <c r="C34">
         <v>12</v>
       </c>
-      <c r="D34">
-        <v>1</v>
+      <c r="D34" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C34,[1]TextData!A:A))</f>
+        <v>クリーパー</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -1874,8 +2297,11 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1885,20 +2311,24 @@
       <c r="C35">
         <v>14</v>
       </c>
-      <c r="D35">
-        <v>1</v>
+      <c r="D35" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C35,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1908,20 +2338,24 @@
       <c r="C36">
         <v>14</v>
       </c>
-      <c r="D36">
-        <v>3</v>
+      <c r="D36" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C36,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1931,11 +2365,12 @@
       <c r="C37">
         <v>5</v>
       </c>
-      <c r="D37">
-        <v>1</v>
+      <c r="D37" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C37,[1]TextData!A:A))</f>
+        <v>クロウ</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1943,8 +2378,11 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1954,11 +2392,12 @@
       <c r="C38">
         <v>5</v>
       </c>
-      <c r="D38">
-        <v>1</v>
+      <c r="D38" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C38,[1]TextData!A:A))</f>
+        <v>クロウ</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1966,8 +2405,11 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1977,20 +2419,24 @@
       <c r="C39">
         <v>2</v>
       </c>
-      <c r="D39">
-        <v>3</v>
+      <c r="D39" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C39,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2000,11 +2446,12 @@
       <c r="C40">
         <v>1</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+      <c r="D40" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C40,[1]TextData!A:A))</f>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2012,8 +2459,11 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2023,11 +2473,12 @@
       <c r="C41">
         <v>1</v>
       </c>
-      <c r="D41">
-        <v>1</v>
+      <c r="D41" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C41,[1]TextData!A:A))</f>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -2035,8 +2486,11 @@
       <c r="G41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="H41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2046,20 +2500,24 @@
       <c r="C42">
         <v>15</v>
       </c>
-      <c r="D42">
-        <v>3</v>
+      <c r="D42" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C42,[1]TextData!A:A))</f>
+        <v>ソード</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2069,11 +2527,12 @@
       <c r="C43">
         <v>15</v>
       </c>
-      <c r="D43">
-        <v>1</v>
+      <c r="D43" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C43,[1]TextData!A:A))</f>
+        <v>ソード</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2081,8 +2540,11 @@
       <c r="G43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44">
         <v>2</v>
       </c>
@@ -2092,11 +2554,12 @@
       <c r="C44">
         <v>15</v>
       </c>
-      <c r="D44">
-        <v>1</v>
+      <c r="D44" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C44,[1]TextData!A:A))</f>
+        <v>ソード</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2104,8 +2567,11 @@
       <c r="G44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2115,20 +2581,24 @@
       <c r="C45">
         <v>13</v>
       </c>
-      <c r="D45">
-        <v>3</v>
+      <c r="D45" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C45,[1]TextData!A:A))</f>
+        <v>インプ</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2138,11 +2608,12 @@
       <c r="C46">
         <v>13</v>
       </c>
-      <c r="D46">
-        <v>3</v>
+      <c r="D46" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C46,[1]TextData!A:A))</f>
+        <v>インプ</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2150,8 +2621,11 @@
       <c r="G46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>2</v>
       </c>
@@ -2161,11 +2635,12 @@
       <c r="C47">
         <v>13</v>
       </c>
-      <c r="D47">
-        <v>3</v>
+      <c r="D47" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C47,[1]TextData!A:A))</f>
+        <v>インプ</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -2173,8 +2648,11 @@
       <c r="G47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2184,20 +2662,24 @@
       <c r="C48">
         <v>13</v>
       </c>
-      <c r="D48">
-        <v>3</v>
+      <c r="D48" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C48,[1]TextData!A:A))</f>
+        <v>インプ</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49">
         <v>4</v>
       </c>
@@ -2207,8 +2689,9 @@
       <c r="C49">
         <v>101</v>
       </c>
-      <c r="D49">
-        <v>1</v>
+      <c r="D49" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C49,[1]TextData!A:A))</f>
+        <v>ビフロンス</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2217,10 +2700,13 @@
         <v>1</v>
       </c>
       <c r="G49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2230,11 +2716,12 @@
       <c r="C50">
         <v>8</v>
       </c>
-      <c r="D50">
-        <v>3</v>
+      <c r="D50" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C50,[1]TextData!A:A))</f>
+        <v>シールド</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -2242,8 +2729,11 @@
       <c r="G50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51">
         <v>2</v>
       </c>
@@ -2253,11 +2743,12 @@
       <c r="C51">
         <v>8</v>
       </c>
-      <c r="D51">
-        <v>3</v>
+      <c r="D51" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C51,[1]TextData!A:A))</f>
+        <v>シールド</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -2265,8 +2756,11 @@
       <c r="G51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2276,20 +2770,24 @@
       <c r="C52">
         <v>8</v>
       </c>
-      <c r="D52">
-        <v>3</v>
+      <c r="D52" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C52,[1]TextData!A:A))</f>
+        <v>シールド</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53">
         <v>4</v>
       </c>
@@ -2299,8 +2797,9 @@
       <c r="C53">
         <v>102</v>
       </c>
-      <c r="D53">
-        <v>1</v>
+      <c r="D53" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C53,[1]TextData!A:A))</f>
+        <v>アンドラス</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2309,10 +2808,13 @@
         <v>1</v>
       </c>
       <c r="G53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2322,11 +2824,12 @@
       <c r="C54">
         <v>7</v>
       </c>
-      <c r="D54">
-        <v>3</v>
+      <c r="D54" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C54,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -2334,8 +2837,11 @@
       <c r="G54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2345,11 +2851,12 @@
       <c r="C55">
         <v>7</v>
       </c>
-      <c r="D55">
-        <v>3</v>
+      <c r="D55" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C55,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -2357,8 +2864,11 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2368,20 +2878,24 @@
       <c r="C56">
         <v>7</v>
       </c>
-      <c r="D56">
-        <v>3</v>
+      <c r="D56" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C56,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57">
         <v>4</v>
       </c>
@@ -2391,8 +2905,9 @@
       <c r="C57">
         <v>103</v>
       </c>
-      <c r="D57">
-        <v>1</v>
+      <c r="D57" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C57,[1]TextData!A:A))</f>
+        <v>アモン</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2401,10 +2916,13 @@
         <v>1</v>
       </c>
       <c r="G57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58">
         <v>1</v>
       </c>
@@ -2414,11 +2932,12 @@
       <c r="C58">
         <v>14</v>
       </c>
-      <c r="D58">
-        <v>3</v>
+      <c r="D58" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C58,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -2426,8 +2945,11 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2437,11 +2959,12 @@
       <c r="C59">
         <v>14</v>
       </c>
-      <c r="D59">
-        <v>3</v>
+      <c r="D59" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C59,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -2449,8 +2972,11 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2460,20 +2986,24 @@
       <c r="C60">
         <v>14</v>
       </c>
-      <c r="D60">
-        <v>3</v>
+      <c r="D60" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C60,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:8">
       <c r="A61">
         <v>4</v>
       </c>
@@ -2483,8 +3013,9 @@
       <c r="C61">
         <v>104</v>
       </c>
-      <c r="D61">
-        <v>1</v>
+      <c r="D61" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C61,[1]TextData!A:A))</f>
+        <v>ベリト</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2493,10 +3024,13 @@
         <v>1</v>
       </c>
       <c r="G61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62">
         <v>1</v>
       </c>
@@ -2506,11 +3040,12 @@
       <c r="C62">
         <v>2</v>
       </c>
-      <c r="D62">
-        <v>3</v>
+      <c r="D62" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C62,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -2518,8 +3053,11 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2529,11 +3067,12 @@
       <c r="C63">
         <v>2</v>
       </c>
-      <c r="D63">
-        <v>3</v>
+      <c r="D63" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C63,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -2541,8 +3080,11 @@
       <c r="G63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
+      <c r="H63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2552,20 +3094,24 @@
       <c r="C64">
         <v>2</v>
       </c>
-      <c r="D64">
-        <v>3</v>
+      <c r="D64" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C64,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:8">
       <c r="A65">
         <v>4</v>
       </c>
@@ -2575,8 +3121,9 @@
       <c r="C65">
         <v>113</v>
       </c>
-      <c r="D65">
-        <v>1</v>
+      <c r="D65" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C65,[1]TextData!A:A))</f>
+        <v>アイホート</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2585,10 +3132,13 @@
         <v>1</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66">
         <v>1</v>
       </c>
@@ -2598,11 +3148,12 @@
       <c r="C66">
         <v>12</v>
       </c>
-      <c r="D66">
-        <v>3</v>
+      <c r="D66" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C66,[1]TextData!A:A))</f>
+        <v>クリーパー</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -2610,8 +3161,11 @@
       <c r="G66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
+      <c r="H66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2621,11 +3175,12 @@
       <c r="C67">
         <v>12</v>
       </c>
-      <c r="D67">
-        <v>3</v>
+      <c r="D67" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C67,[1]TextData!A:A))</f>
+        <v>クリーパー</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -2633,8 +3188,11 @@
       <c r="G67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2644,20 +3202,24 @@
       <c r="C68">
         <v>12</v>
       </c>
-      <c r="D68">
-        <v>3</v>
+      <c r="D68" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C68,[1]TextData!A:A))</f>
+        <v>クリーパー</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:8">
       <c r="A69">
         <v>4</v>
       </c>
@@ -2667,8 +3229,9 @@
       <c r="C69">
         <v>114</v>
       </c>
-      <c r="D69">
-        <v>1</v>
+      <c r="D69" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C69,[1]TextData!A:A))</f>
+        <v>ノーデンス</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2677,10 +3240,13 @@
         <v>1</v>
       </c>
       <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70">
         <v>1</v>
       </c>
@@ -2690,11 +3256,12 @@
       <c r="C70">
         <v>4</v>
       </c>
-      <c r="D70">
-        <v>3</v>
+      <c r="D70" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C70,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2702,8 +3269,11 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71">
         <v>2</v>
       </c>
@@ -2713,11 +3283,12 @@
       <c r="C71">
         <v>4</v>
       </c>
-      <c r="D71">
-        <v>3</v>
+      <c r="D71" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C71,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2725,8 +3296,11 @@
       <c r="G71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2736,20 +3310,24 @@
       <c r="C72">
         <v>4</v>
       </c>
-      <c r="D72">
-        <v>3</v>
+      <c r="D72" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C72,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F72">
         <v>0</v>
       </c>
       <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:8">
       <c r="A73">
         <v>4</v>
       </c>
@@ -2759,8 +3337,9 @@
       <c r="C73">
         <v>105</v>
       </c>
-      <c r="D73">
-        <v>1</v>
+      <c r="D73" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C73,[1]TextData!A:A))</f>
+        <v>パイモン</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2769,10 +3348,13 @@
         <v>1</v>
       </c>
       <c r="G73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2782,11 +3364,12 @@
       <c r="C74">
         <v>3</v>
       </c>
-      <c r="D74">
-        <v>3</v>
+      <c r="D74" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C74,[1]TextData!A:A))</f>
+        <v>ビー</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -2794,8 +3377,11 @@
       <c r="G74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2805,11 +3391,12 @@
       <c r="C75">
         <v>3</v>
       </c>
-      <c r="D75">
-        <v>3</v>
+      <c r="D75" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C75,[1]TextData!A:A))</f>
+        <v>ビー</v>
       </c>
       <c r="E75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F75">
         <v>0</v>
@@ -2817,8 +3404,11 @@
       <c r="G75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2828,20 +3418,24 @@
       <c r="C76">
         <v>3</v>
       </c>
-      <c r="D76">
-        <v>3</v>
+      <c r="D76" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C76,[1]TextData!A:A))</f>
+        <v>ビー</v>
       </c>
       <c r="E76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:8">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2851,8 +3445,9 @@
       <c r="C77">
         <v>106</v>
       </c>
-      <c r="D77">
-        <v>1</v>
+      <c r="D77" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C77,[1]TextData!A:A))</f>
+        <v>ビヤーキー</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2861,10 +3456,13 @@
         <v>1</v>
       </c>
       <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78">
         <v>1</v>
       </c>
@@ -2874,11 +3472,12 @@
       <c r="C78">
         <v>10</v>
       </c>
-      <c r="D78">
-        <v>3</v>
+      <c r="D78" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C78,[1]TextData!A:A))</f>
+        <v>スコーピオン</v>
       </c>
       <c r="E78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -2886,8 +3485,11 @@
       <c r="G78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79">
         <v>2</v>
       </c>
@@ -2897,11 +3499,12 @@
       <c r="C79">
         <v>10</v>
       </c>
-      <c r="D79">
-        <v>3</v>
+      <c r="D79" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C79,[1]TextData!A:A))</f>
+        <v>スコーピオン</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -2909,8 +3512,11 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2920,20 +3526,24 @@
       <c r="C80">
         <v>10</v>
       </c>
-      <c r="D80">
-        <v>3</v>
+      <c r="D80" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C80,[1]TextData!A:A))</f>
+        <v>スコーピオン</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:8">
       <c r="A81">
         <v>4</v>
       </c>
@@ -2943,8 +3553,9 @@
       <c r="C81">
         <v>107</v>
       </c>
-      <c r="D81">
-        <v>1</v>
+      <c r="D81" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C81,[1]TextData!A:A))</f>
+        <v>ポリプ</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2953,10 +3564,13 @@
         <v>1</v>
       </c>
       <c r="G81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82">
         <v>1</v>
       </c>
@@ -2966,11 +3580,12 @@
       <c r="C82">
         <v>2</v>
       </c>
-      <c r="D82">
-        <v>3</v>
+      <c r="D82" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C82,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F82">
         <v>0</v>
@@ -2978,8 +3593,11 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83">
         <v>2</v>
       </c>
@@ -2989,11 +3607,12 @@
       <c r="C83">
         <v>12</v>
       </c>
-      <c r="D83">
-        <v>3</v>
+      <c r="D83" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C83,[1]TextData!A:A))</f>
+        <v>クリーパー</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -3001,8 +3620,11 @@
       <c r="G83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3012,11 +3634,12 @@
       <c r="C84">
         <v>2</v>
       </c>
-      <c r="D84">
-        <v>3</v>
+      <c r="D84" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C84,[1]TextData!A:A))</f>
+        <v>カースド</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3024,8 +3647,11 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85">
         <v>4</v>
       </c>
@@ -3035,8 +3661,9 @@
       <c r="C85">
         <v>201</v>
       </c>
-      <c r="D85">
-        <v>1</v>
+      <c r="D85" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C85,[1]TextData!A:A))</f>
+        <v>ブエル</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3045,10 +3672,13 @@
         <v>1</v>
       </c>
       <c r="G85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86">
         <v>1</v>
       </c>
@@ -3058,11 +3688,12 @@
       <c r="C86">
         <v>10</v>
       </c>
-      <c r="D86">
-        <v>3</v>
+      <c r="D86" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C86,[1]TextData!A:A))</f>
+        <v>スコーピオン</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3070,8 +3701,11 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87">
         <v>2</v>
       </c>
@@ -3081,11 +3715,12 @@
       <c r="C87">
         <v>8</v>
       </c>
-      <c r="D87">
-        <v>3</v>
+      <c r="D87" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C87,[1]TextData!A:A))</f>
+        <v>シールド</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3093,8 +3728,11 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3104,11 +3742,12 @@
       <c r="C88">
         <v>10</v>
       </c>
-      <c r="D88">
-        <v>3</v>
+      <c r="D88" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C88,[1]TextData!A:A))</f>
+        <v>スコーピオン</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -3116,8 +3755,11 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89">
         <v>4</v>
       </c>
@@ -3127,8 +3769,9 @@
       <c r="C89">
         <v>202</v>
       </c>
-      <c r="D89">
-        <v>1</v>
+      <c r="D89" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C89,[1]TextData!A:A))</f>
+        <v>デカラビア</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3137,10 +3780,13 @@
         <v>1</v>
       </c>
       <c r="G89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90">
         <v>1</v>
       </c>
@@ -3150,11 +3796,12 @@
       <c r="C90">
         <v>7</v>
       </c>
-      <c r="D90">
-        <v>3</v>
+      <c r="D90" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C90,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -3162,8 +3809,11 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91">
         <v>2</v>
       </c>
@@ -3173,11 +3823,12 @@
       <c r="C91">
         <v>15</v>
       </c>
-      <c r="D91">
-        <v>3</v>
+      <c r="D91" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C91,[1]TextData!A:A))</f>
+        <v>ソード</v>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F91">
         <v>0</v>
@@ -3185,8 +3836,11 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92">
         <v>3</v>
       </c>
@@ -3196,11 +3850,12 @@
       <c r="C92">
         <v>7</v>
       </c>
-      <c r="D92">
-        <v>3</v>
+      <c r="D92" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C92,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F92">
         <v>0</v>
@@ -3208,8 +3863,11 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93">
         <v>4</v>
       </c>
@@ -3219,8 +3877,9 @@
       <c r="C93">
         <v>203</v>
       </c>
-      <c r="D93">
-        <v>1</v>
+      <c r="D93" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C93,[1]TextData!A:A))</f>
+        <v>ザガン</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3229,10 +3888,13 @@
         <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94">
         <v>1</v>
       </c>
@@ -3242,11 +3904,12 @@
       <c r="C94">
         <v>1</v>
       </c>
-      <c r="D94">
-        <v>3</v>
+      <c r="D94" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C94,[1]TextData!A:A))</f>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -3254,8 +3917,11 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95">
         <v>2</v>
       </c>
@@ -3265,11 +3931,12 @@
       <c r="C95">
         <v>5</v>
       </c>
-      <c r="D95">
-        <v>3</v>
+      <c r="D95" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C95,[1]TextData!A:A))</f>
+        <v>クロウ</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3277,8 +3944,11 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96">
         <v>3</v>
       </c>
@@ -3288,11 +3958,12 @@
       <c r="C96">
         <v>14</v>
       </c>
-      <c r="D96">
-        <v>3</v>
+      <c r="D96" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C96,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -3300,8 +3971,11 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97">
         <v>4</v>
       </c>
@@ -3311,8 +3985,9 @@
       <c r="C97">
         <v>204</v>
       </c>
-      <c r="D97">
-        <v>1</v>
+      <c r="D97" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C97,[1]TextData!A:A))</f>
+        <v>メフィストフェレス</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3321,10 +3996,13 @@
         <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98">
         <v>1</v>
       </c>
@@ -3334,11 +4012,12 @@
       <c r="C98">
         <v>4</v>
       </c>
-      <c r="D98">
-        <v>3</v>
+      <c r="D98" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C98,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3346,8 +4025,11 @@
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3357,11 +4039,12 @@
       <c r="C99">
         <v>9</v>
       </c>
-      <c r="D99">
-        <v>3</v>
+      <c r="D99" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C99,[1]TextData!A:A))</f>
+        <v>ドライアド</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -3369,8 +4052,11 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100">
         <v>3</v>
       </c>
@@ -3380,11 +4066,12 @@
       <c r="C100">
         <v>4</v>
       </c>
-      <c r="D100">
-        <v>3</v>
+      <c r="D100" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C100,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -3392,8 +4079,11 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101">
         <v>4</v>
       </c>
@@ -3403,8 +4093,9 @@
       <c r="C101">
         <v>205</v>
       </c>
-      <c r="D101">
-        <v>1</v>
+      <c r="D101" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C101,[1]TextData!A:A))</f>
+        <v>アスタロト</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3413,10 +4104,13 @@
         <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102">
         <v>1</v>
       </c>
@@ -3426,11 +4120,12 @@
       <c r="C102">
         <v>8</v>
       </c>
-      <c r="D102">
-        <v>3</v>
+      <c r="D102" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C102,[1]TextData!A:A))</f>
+        <v>シールド</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -3438,8 +4133,11 @@
       <c r="G102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103">
         <v>2</v>
       </c>
@@ -3449,11 +4147,12 @@
       <c r="C103">
         <v>6</v>
       </c>
-      <c r="D103">
-        <v>3</v>
+      <c r="D103" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C103,[1]TextData!A:A))</f>
+        <v>ネームレス</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3461,8 +4160,11 @@
       <c r="G103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104">
         <v>3</v>
       </c>
@@ -3472,11 +4174,12 @@
       <c r="C104">
         <v>8</v>
       </c>
-      <c r="D104">
-        <v>3</v>
+      <c r="D104" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C104,[1]TextData!A:A))</f>
+        <v>シールド</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3484,8 +4187,11 @@
       <c r="G104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105">
         <v>4</v>
       </c>
@@ -3495,8 +4201,9 @@
       <c r="C105">
         <v>206</v>
       </c>
-      <c r="D105">
-        <v>1</v>
+      <c r="D105" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C105,[1]TextData!A:A))</f>
+        <v>イタクァ</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3505,10 +4212,13 @@
         <v>1</v>
       </c>
       <c r="G105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106">
         <v>1</v>
       </c>
@@ -3518,11 +4228,12 @@
       <c r="C106">
         <v>13</v>
       </c>
-      <c r="D106">
-        <v>3</v>
+      <c r="D106" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C106,[1]TextData!A:A))</f>
+        <v>インプ</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F106">
         <v>0</v>
@@ -3530,8 +4241,11 @@
       <c r="G106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107">
         <v>2</v>
       </c>
@@ -3541,11 +4255,12 @@
       <c r="C107">
         <v>7</v>
       </c>
-      <c r="D107">
-        <v>3</v>
+      <c r="D107" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C107,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3553,8 +4268,11 @@
       <c r="G107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108">
         <v>3</v>
       </c>
@@ -3564,11 +4282,12 @@
       <c r="C108">
         <v>13</v>
       </c>
-      <c r="D108">
-        <v>3</v>
+      <c r="D108" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C108,[1]TextData!A:A))</f>
+        <v>インプ</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -3576,8 +4295,11 @@
       <c r="G108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109">
         <v>4</v>
       </c>
@@ -3587,8 +4309,9 @@
       <c r="C109">
         <v>207</v>
       </c>
-      <c r="D109">
-        <v>1</v>
+      <c r="D109" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C109,[1]TextData!A:A))</f>
+        <v>シアエガ</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3597,10 +4320,13 @@
         <v>1</v>
       </c>
       <c r="G109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110">
         <v>1</v>
       </c>
@@ -3610,11 +4336,12 @@
       <c r="C110">
         <v>7</v>
       </c>
-      <c r="D110">
-        <v>3</v>
+      <c r="D110" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C110,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F110">
         <v>0</v>
@@ -3622,8 +4349,11 @@
       <c r="G110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111">
         <v>2</v>
       </c>
@@ -3633,11 +4363,12 @@
       <c r="C111">
         <v>15</v>
       </c>
-      <c r="D111">
-        <v>3</v>
+      <c r="D111" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C111,[1]TextData!A:A))</f>
+        <v>ソード</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F111">
         <v>0</v>
@@ -3645,8 +4376,11 @@
       <c r="G111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7">
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112">
         <v>3</v>
       </c>
@@ -3656,11 +4390,12 @@
       <c r="C112">
         <v>7</v>
       </c>
-      <c r="D112">
-        <v>3</v>
+      <c r="D112" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C112,[1]TextData!A:A))</f>
+        <v>サーチャー</v>
       </c>
       <c r="E112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F112">
         <v>0</v>
@@ -3668,8 +4403,11 @@
       <c r="G112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113">
         <v>4</v>
       </c>
@@ -3679,8 +4417,9 @@
       <c r="C113">
         <v>213</v>
       </c>
-      <c r="D113">
-        <v>1</v>
+      <c r="D113" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C113,[1]TextData!A:A))</f>
+        <v>シアエガ</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -3689,10 +4428,13 @@
         <v>1</v>
       </c>
       <c r="G113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114">
         <v>1</v>
       </c>
@@ -3702,11 +4444,12 @@
       <c r="C114">
         <v>1</v>
       </c>
-      <c r="D114">
-        <v>3</v>
+      <c r="D114" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C114,[1]TextData!A:A))</f>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F114">
         <v>0</v>
@@ -3714,8 +4457,11 @@
       <c r="G114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7">
+      <c r="H114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115">
         <v>2</v>
       </c>
@@ -3725,11 +4471,12 @@
       <c r="C115">
         <v>5</v>
       </c>
-      <c r="D115">
-        <v>3</v>
+      <c r="D115" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C115,[1]TextData!A:A))</f>
+        <v>クロウ</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3737,8 +4484,11 @@
       <c r="G115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7">
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116">
         <v>3</v>
       </c>
@@ -3748,11 +4498,12 @@
       <c r="C116">
         <v>14</v>
       </c>
-      <c r="D116">
-        <v>3</v>
+      <c r="D116" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C116,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3760,8 +4511,11 @@
       <c r="G116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7">
+      <c r="H116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117">
         <v>4</v>
       </c>
@@ -3771,8 +4525,9 @@
       <c r="C117">
         <v>214</v>
       </c>
-      <c r="D117">
-        <v>1</v>
+      <c r="D117" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C117,[1]TextData!A:A))</f>
+        <v>シアエガ</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -3781,10 +4536,13 @@
         <v>1</v>
       </c>
       <c r="G117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118">
         <v>1</v>
       </c>
@@ -3794,11 +4552,12 @@
       <c r="C118">
         <v>14</v>
       </c>
-      <c r="D118">
-        <v>3</v>
+      <c r="D118" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C118,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3806,8 +4565,11 @@
       <c r="G118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7">
+      <c r="H118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119">
         <v>2</v>
       </c>
@@ -3817,11 +4579,12 @@
       <c r="C119">
         <v>14</v>
       </c>
-      <c r="D119">
-        <v>3</v>
+      <c r="D119" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C119,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F119">
         <v>0</v>
@@ -3829,8 +4592,11 @@
       <c r="G119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7">
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120">
         <v>3</v>
       </c>
@@ -3840,8 +4606,9 @@
       <c r="C120">
         <v>301</v>
       </c>
-      <c r="D120">
-        <v>1</v>
+      <c r="D120" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C120,[1]TextData!A:A))</f>
+        <v>デビルドラゴン</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -3850,6 +4617,9 @@
         <v>1</v>
       </c>
       <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120">
         <v>0</v>
       </c>
     </row>
@@ -3865,8 +4635,8 @@
   <sheetPr/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="5"/>
@@ -3879,13 +4649,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3905,7 +4675,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3959,7 +4729,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4013,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4067,7 +4837,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4121,7 +4891,7 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4175,7 +4945,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4229,7 +4999,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4283,7 +5053,7 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4337,7 +5107,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4391,7 +5161,7 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4445,7 +5215,7 @@
         <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4499,7 +5269,7 @@
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4553,7 +5323,7 @@
         <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4607,7 +5377,7 @@
         <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4661,7 +5431,7 @@
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4715,7 +5485,7 @@
         <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4769,7 +5539,7 @@
         <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4823,7 +5593,7 @@
         <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4877,7 +5647,7 @@
         <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4931,7 +5701,7 @@
         <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4985,7 +5755,7 @@
         <v>100</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5039,7 +5809,7 @@
         <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5093,7 +5863,7 @@
         <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5147,7 +5917,7 @@
         <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5201,7 +5971,7 @@
         <v>100</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5255,7 +6025,7 @@
         <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5309,7 +6079,7 @@
         <v>100</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5363,7 +6133,7 @@
         <v>100</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5417,7 +6187,7 @@
         <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5471,7 +6241,7 @@
         <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5525,7 +6295,7 @@
         <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5579,7 +6349,7 @@
         <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5633,7 +6403,7 @@
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5698,7 +6468,7 @@
         <v>3</v>
       </c>
       <c r="D102">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -5749,7 +6519,7 @@
         <v>3</v>
       </c>
       <c r="D105">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -5800,7 +6570,7 @@
         <v>3</v>
       </c>
       <c r="D108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -5851,7 +6621,7 @@
         <v>3</v>
       </c>
       <c r="D111">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>100</v>
@@ -5902,7 +6672,7 @@
         <v>3</v>
       </c>
       <c r="D114">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E114">
         <v>100</v>
@@ -5953,7 +6723,7 @@
         <v>3</v>
       </c>
       <c r="D117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>100</v>
@@ -6004,7 +6774,7 @@
         <v>3</v>
       </c>
       <c r="D120">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E120">
         <v>100</v>
@@ -6055,7 +6825,7 @@
         <v>3</v>
       </c>
       <c r="D123">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -6106,7 +6876,7 @@
         <v>3</v>
       </c>
       <c r="D126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E126">
         <v>100</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,8 +169,82 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,44 +258,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -229,27 +273,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -265,6 +289,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -275,38 +306,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,7 +321,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,25 +363,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,91 +411,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,19 +429,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,13 +483,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,26 +517,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,15 +554,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -595,10 +569,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -620,145 +620,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H120"/>
+  <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
@@ -1418,11 +1418,11 @@
         <v>401</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C2,[1]TextData!A:A))</f>
-        <v>アモン</v>
+        <v>ベリト</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1445,11 +1445,11 @@
         <v>401</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D3" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C3,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>ネームレス</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1469,14 +1469,14 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>401</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D4" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C4,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
+        <v>ネームレス</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1485,7 +1485,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1496,14 +1496,14 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C5,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1523,14 +1523,14 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C6,[1]TextData!A:A))</f>
-        <v>ビー</v>
+        <v>カースド</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1550,14 +1550,14 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C7,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
+        <v>ビー</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1577,14 +1577,14 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D8" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C8,[1]TextData!A:A))</f>
-        <v>クロウ</v>
+        <v>ウルフ</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1604,14 +1604,14 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C9,[1]TextData!A:A))</f>
-        <v>ネームレス</v>
+        <v>クロウ</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1631,14 +1631,14 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C10,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
+        <v>ネームレス</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1658,14 +1658,14 @@
         <v>1</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C11,[1]TextData!A:A))</f>
-        <v>シールド</v>
+        <v>サーチャー</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1685,14 +1685,14 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C12,[1]TextData!A:A))</f>
-        <v>ドライアド</v>
+        <v>シールド</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1712,14 +1712,14 @@
         <v>1</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C13,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ドライアド</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1739,14 +1739,14 @@
         <v>1</v>
       </c>
       <c r="B14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D14" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C14,[1]TextData!A:A))</f>
-        <v>スクイッド</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1766,14 +1766,14 @@
         <v>1</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C15,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
+        <v>スクイッド</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1793,14 +1793,14 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D16" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C16,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>クリーパー</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1820,14 +1820,14 @@
         <v>1</v>
       </c>
       <c r="B17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
+        <v>インプ</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1847,14 +1847,14 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C18,[1]TextData!A:A))</f>
-        <v>ソード</v>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1874,23 +1874,23 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>1010</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C19,[1]TextData!A:A))</f>
-        <v>ビー</v>
+        <v>ソード</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20">
         <v>1010</v>
@@ -1925,26 +1925,26 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>1010</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C21,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
+        <v>ビー</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1952,26 +1952,26 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B22">
-        <v>1020</v>
+        <v>1010</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C22,[1]TextData!A:A))</f>
-        <v>ネームレス</v>
+        <v>ウルフ</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1979,17 +1979,17 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23">
         <v>1020</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C23,[1]TextData!A:A))</f>
-        <v>ビー</v>
+        <v>ネームレス</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1998,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B24">
         <v>1020</v>
@@ -2019,7 +2019,7 @@
         <v>ビー</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2033,26 +2033,26 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B25">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="C25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C25,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
+        <v>ビー</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26">
         <v>1030</v>
@@ -2087,26 +2087,26 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B27">
         <v>1030</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D27" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C27,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
+        <v>ウルフ</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2114,26 +2114,26 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28">
-        <v>1040</v>
+        <v>1030</v>
       </c>
       <c r="C28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C28,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2141,17 +2141,17 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29">
         <v>1040</v>
       </c>
       <c r="C29">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D29" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C29,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
+        <v>カースド</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30">
         <v>1040</v>
@@ -2181,7 +2181,7 @@
         <v>クリーパー</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2195,26 +2195,26 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B31">
-        <v>1130</v>
+        <v>1040</v>
       </c>
       <c r="C31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D31" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C31,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>クリーパー</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2222,20 +2222,20 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32">
         <v>1130</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D32" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C32,[1]TextData!A:A))</f>
-        <v>クロウ</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2249,26 +2249,26 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33">
         <v>1130</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D33" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C33,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>クロウ</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2276,17 +2276,17 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B34">
-        <v>1140</v>
+        <v>1130</v>
       </c>
       <c r="C34">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D34" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C34,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2303,17 +2303,17 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35">
         <v>1140</v>
       </c>
       <c r="C35">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C35,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
+        <v>クリーパー</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36">
         <v>1140</v>
@@ -2343,7 +2343,7 @@
         <v>ゴーストアーマー</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2357,26 +2357,26 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>1050</v>
+        <v>1140</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D37" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C37,[1]TextData!A:A))</f>
-        <v>クロウ</v>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38">
         <v>1050</v>
@@ -2411,26 +2411,26 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B39">
         <v>1050</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C39,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>クロウ</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -2438,26 +2438,26 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40">
-        <v>1060</v>
+        <v>1050</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C40,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
+        <v>カースド</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -2465,7 +2465,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41">
         <v>1060</v>
@@ -2492,26 +2492,26 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B42">
         <v>1060</v>
       </c>
       <c r="C42">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D42" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C42,[1]TextData!A:A))</f>
-        <v>ソード</v>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -2519,10 +2519,10 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B43">
-        <v>1070</v>
+        <v>1060</v>
       </c>
       <c r="C43">
         <v>15</v>
@@ -2532,13 +2532,13 @@
         <v>ソード</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>1070</v>
@@ -2573,26 +2573,26 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45">
         <v>1070</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C45,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>ソード</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -2600,10 +2600,10 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B46">
-        <v>2010</v>
+        <v>1070</v>
       </c>
       <c r="C46">
         <v>13</v>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -2627,7 +2627,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47">
         <v>2010</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B48">
         <v>2010</v>
@@ -2676,58 +2676,58 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B49">
         <v>2010</v>
       </c>
       <c r="C49">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="D49" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C49,[1]TextData!A:A))</f>
-        <v>ビフロンス</v>
+        <v>インプ</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B50">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C50">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="D50" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C50,[1]TextData!A:A))</f>
-        <v>シールド</v>
+        <v>ビフロンス</v>
       </c>
       <c r="E50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51">
         <v>2020</v>
@@ -2762,7 +2762,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B52">
         <v>2020</v>
@@ -2784,58 +2784,58 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B53">
         <v>2020</v>
       </c>
       <c r="C53">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="D53" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C53,[1]TextData!A:A))</f>
-        <v>アンドラス</v>
+        <v>シールド</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B54">
-        <v>2030</v>
+        <v>2020</v>
       </c>
       <c r="C54">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D54" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C54,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
+        <v>アンドラス</v>
       </c>
       <c r="E54">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55">
         <v>2030</v>
@@ -2870,7 +2870,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B56">
         <v>2030</v>
@@ -2892,58 +2892,58 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B57">
         <v>2030</v>
       </c>
       <c r="C57">
-        <v>103</v>
+        <v>7</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C57,[1]TextData!A:A))</f>
-        <v>アモン</v>
+        <v>サーチャー</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B58">
-        <v>2040</v>
+        <v>2030</v>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C58,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
+        <v>アモン</v>
       </c>
       <c r="E58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59">
         <v>2040</v>
@@ -2978,7 +2978,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B60">
         <v>2040</v>
@@ -3000,58 +3000,58 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B61">
         <v>2040</v>
       </c>
       <c r="C61">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="D61" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C61,[1]TextData!A:A))</f>
-        <v>ベリト</v>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B62">
-        <v>2130</v>
+        <v>2040</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="D62" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C62,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>ベリト</v>
       </c>
       <c r="E62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -3059,7 +3059,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63">
         <v>2130</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B64">
         <v>2130</v>
@@ -3108,58 +3108,58 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B65">
         <v>2130</v>
       </c>
       <c r="C65">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="D65" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C65,[1]TextData!A:A))</f>
-        <v>アイホート</v>
+        <v>カースド</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B66">
-        <v>2140</v>
+        <v>2130</v>
       </c>
       <c r="C66">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="D66" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C66,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
+        <v>アイホート</v>
       </c>
       <c r="E66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67">
         <v>2140</v>
@@ -3194,7 +3194,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <v>2140</v>
@@ -3216,58 +3216,58 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B69">
         <v>2140</v>
       </c>
       <c r="C69">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="D69" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C69,[1]TextData!A:A))</f>
-        <v>ノーデンス</v>
+        <v>クリーパー</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B70">
-        <v>2050</v>
+        <v>2140</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="D70" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C70,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
+        <v>ノーデンス</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -3275,7 +3275,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71">
         <v>2050</v>
@@ -3302,7 +3302,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B72">
         <v>2050</v>
@@ -3324,58 +3324,58 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B73">
         <v>2050</v>
       </c>
       <c r="C73">
-        <v>105</v>
+        <v>4</v>
       </c>
       <c r="D73" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C73,[1]TextData!A:A))</f>
-        <v>パイモン</v>
+        <v>ウルフ</v>
       </c>
       <c r="E73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B74">
-        <v>2060</v>
+        <v>2050</v>
       </c>
       <c r="C74">
-        <v>3</v>
+        <v>105</v>
       </c>
       <c r="D74" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C74,[1]TextData!A:A))</f>
-        <v>ビー</v>
+        <v>パイモン</v>
       </c>
       <c r="E74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
         <v>0</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75">
         <v>2060</v>
@@ -3410,7 +3410,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B76">
         <v>2060</v>
@@ -3432,58 +3432,58 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B77">
         <v>2060</v>
       </c>
       <c r="C77">
-        <v>106</v>
+        <v>3</v>
       </c>
       <c r="D77" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C77,[1]TextData!A:A))</f>
-        <v>ビヤーキー</v>
+        <v>ビー</v>
       </c>
       <c r="E77">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B78">
-        <v>2070</v>
+        <v>2060</v>
       </c>
       <c r="C78">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="D78" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C78,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ビヤーキー</v>
       </c>
       <c r="E78">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -3491,7 +3491,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79">
         <v>2070</v>
@@ -3518,7 +3518,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B80">
         <v>2070</v>
@@ -3540,58 +3540,58 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B81">
         <v>2070</v>
       </c>
       <c r="C81">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="D81" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C81,[1]TextData!A:A))</f>
-        <v>ポリプ</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B82">
-        <v>3010</v>
+        <v>2070</v>
       </c>
       <c r="C82">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="D82" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C82,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>ポリプ</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3599,17 +3599,17 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <v>3010</v>
       </c>
       <c r="C83">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D83" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C83,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
+        <v>カースド</v>
       </c>
       <c r="E83">
         <v>3</v>
@@ -3626,17 +3626,17 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B84">
         <v>3010</v>
       </c>
       <c r="C84">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D84" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C84,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>クリーパー</v>
       </c>
       <c r="E84">
         <v>3</v>
@@ -3653,26 +3653,26 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B85">
         <v>3010</v>
       </c>
       <c r="C85">
-        <v>201</v>
+        <v>2</v>
       </c>
       <c r="D85" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C85,[1]TextData!A:A))</f>
-        <v>ブエル</v>
+        <v>カースド</v>
       </c>
       <c r="E85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3680,26 +3680,26 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B86">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="C86">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="D86" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C86,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>ブエル</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3707,17 +3707,17 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87">
         <v>3020</v>
       </c>
       <c r="C87">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D87" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C87,[1]TextData!A:A))</f>
-        <v>シールド</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E87">
         <v>3</v>
@@ -3734,17 +3734,17 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88">
         <v>3020</v>
       </c>
       <c r="C88">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D88" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C88,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
+        <v>シールド</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -3761,26 +3761,26 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89">
         <v>3020</v>
       </c>
       <c r="C89">
-        <v>202</v>
+        <v>10</v>
       </c>
       <c r="D89" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C89,[1]TextData!A:A))</f>
-        <v>デカラビア</v>
+        <v>スコーピオン</v>
       </c>
       <c r="E89">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3788,26 +3788,26 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B90">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="C90">
-        <v>7</v>
+        <v>202</v>
       </c>
       <c r="D90" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C90,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
+        <v>デカラビア</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3815,17 +3815,17 @@
     </row>
     <row r="91" spans="1:8">
       <c r="A91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91">
         <v>3030</v>
       </c>
       <c r="C91">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D91" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C91,[1]TextData!A:A))</f>
-        <v>ソード</v>
+        <v>サーチャー</v>
       </c>
       <c r="E91">
         <v>3</v>
@@ -3842,17 +3842,17 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B92">
         <v>3030</v>
       </c>
       <c r="C92">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D92" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C92,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
+        <v>ソード</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -3869,26 +3869,26 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B93">
         <v>3030</v>
       </c>
       <c r="C93">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D93" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C93,[1]TextData!A:A))</f>
-        <v>ザガン</v>
+        <v>サーチャー</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3896,26 +3896,26 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B94">
-        <v>3040</v>
+        <v>3030</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="D94" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C94,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
+        <v>ザガン</v>
       </c>
       <c r="E94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3923,17 +3923,17 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95">
         <v>3040</v>
       </c>
       <c r="C95">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D95" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C95,[1]TextData!A:A))</f>
-        <v>クロウ</v>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E95">
         <v>3</v>
@@ -3950,17 +3950,17 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B96">
         <v>3040</v>
       </c>
       <c r="C96">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D96" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C96,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
+        <v>クロウ</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -3977,26 +3977,26 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B97">
         <v>3040</v>
       </c>
       <c r="C97">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="D97" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C97,[1]TextData!A:A))</f>
-        <v>メフィストフェレス</v>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E97">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -4004,26 +4004,26 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B98">
-        <v>3050</v>
+        <v>3040</v>
       </c>
       <c r="C98">
-        <v>4</v>
+        <v>204</v>
       </c>
       <c r="D98" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C98,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
+        <v>メフィストフェレス</v>
       </c>
       <c r="E98">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -4031,17 +4031,17 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>3050</v>
       </c>
       <c r="C99">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D99" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C99,[1]TextData!A:A))</f>
-        <v>ドライアド</v>
+        <v>ウルフ</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -4058,17 +4058,17 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B100">
         <v>3050</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D100" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C100,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
+        <v>ドライアド</v>
       </c>
       <c r="E100">
         <v>3</v>
@@ -4085,26 +4085,26 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B101">
         <v>3050</v>
       </c>
       <c r="C101">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="D101" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C101,[1]TextData!A:A))</f>
-        <v>アスタロト</v>
+        <v>ウルフ</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -4112,26 +4112,26 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B102">
-        <v>3060</v>
+        <v>3050</v>
       </c>
       <c r="C102">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="D102" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C102,[1]TextData!A:A))</f>
-        <v>シールド</v>
+        <v>アスタロト</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4139,17 +4139,17 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103">
         <v>3060</v>
       </c>
       <c r="C103">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D103" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C103,[1]TextData!A:A))</f>
-        <v>ネームレス</v>
+        <v>シールド</v>
       </c>
       <c r="E103">
         <v>3</v>
@@ -4166,17 +4166,17 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B104">
         <v>3060</v>
       </c>
       <c r="C104">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D104" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C104,[1]TextData!A:A))</f>
-        <v>シールド</v>
+        <v>ネームレス</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -4193,26 +4193,26 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B105">
         <v>3060</v>
       </c>
       <c r="C105">
-        <v>206</v>
+        <v>8</v>
       </c>
       <c r="D105" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C105,[1]TextData!A:A))</f>
-        <v>イタクァ</v>
+        <v>シールド</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -4220,26 +4220,26 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B106">
-        <v>3070</v>
+        <v>3060</v>
       </c>
       <c r="C106">
-        <v>13</v>
+        <v>206</v>
       </c>
       <c r="D106" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C106,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>イタクァ</v>
       </c>
       <c r="E106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -4247,17 +4247,17 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107">
         <v>3070</v>
       </c>
       <c r="C107">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D107" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C107,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
+        <v>インプ</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -4274,17 +4274,17 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B108">
         <v>3070</v>
       </c>
       <c r="C108">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D108" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C108,[1]TextData!A:A))</f>
-        <v>インプ</v>
+        <v>サーチャー</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -4301,26 +4301,26 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B109">
         <v>3070</v>
       </c>
       <c r="C109">
-        <v>207</v>
+        <v>13</v>
       </c>
       <c r="D109" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C109,[1]TextData!A:A))</f>
-        <v>シアエガ</v>
+        <v>インプ</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -4328,26 +4328,26 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B110">
-        <v>3130</v>
+        <v>3070</v>
       </c>
       <c r="C110">
-        <v>7</v>
+        <v>207</v>
       </c>
       <c r="D110" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C110,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
+        <v>シアエガ</v>
       </c>
       <c r="E110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4355,17 +4355,17 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111">
         <v>3130</v>
       </c>
       <c r="C111">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D111" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C111,[1]TextData!A:A))</f>
-        <v>ソード</v>
+        <v>サーチャー</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -4382,17 +4382,17 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B112">
         <v>3130</v>
       </c>
       <c r="C112">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D112" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C112,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
+        <v>ソード</v>
       </c>
       <c r="E112">
         <v>3</v>
@@ -4409,26 +4409,26 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B113">
         <v>3130</v>
       </c>
       <c r="C113">
-        <v>213</v>
+        <v>7</v>
       </c>
       <c r="D113" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C113,[1]TextData!A:A))</f>
-        <v>シアエガ</v>
+        <v>サーチャー</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4436,26 +4436,26 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B114">
-        <v>3140</v>
+        <v>3130</v>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>213</v>
       </c>
       <c r="D114" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C114,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
+        <v>シアエガ</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4463,17 +4463,17 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115">
         <v>3140</v>
       </c>
       <c r="C115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D115" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C115,[1]TextData!A:A))</f>
-        <v>クロウ</v>
+        <v>ネレイドジェム</v>
       </c>
       <c r="E115">
         <v>3</v>
@@ -4490,17 +4490,17 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B116">
         <v>3140</v>
       </c>
       <c r="C116">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D116" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C116,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
+        <v>クロウ</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -4517,26 +4517,26 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117">
         <v>3140</v>
       </c>
       <c r="C117">
-        <v>214</v>
+        <v>14</v>
       </c>
       <c r="D117" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C117,[1]TextData!A:A))</f>
-        <v>シアエガ</v>
+        <v>ゴーストアーマー</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -4544,26 +4544,26 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B118">
-        <v>4010</v>
+        <v>3140</v>
       </c>
       <c r="C118">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="D118" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C118,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
+        <v>シアエガ</v>
       </c>
       <c r="E118">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -4571,7 +4571,7 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119">
         <v>4010</v>
@@ -4598,28 +4598,55 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B120">
         <v>4010</v>
       </c>
       <c r="C120">
-        <v>301</v>
+        <v>14</v>
       </c>
       <c r="D120" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C120,[1]TextData!A:A))</f>
+        <v>ゴーストアーマー</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121">
+        <v>4010</v>
+      </c>
+      <c r="C121">
+        <v>301</v>
+      </c>
+      <c r="D121" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C121,[1]TextData!A:A))</f>
         <v>デビルドラゴン</v>
       </c>
-      <c r="E120">
-        <v>1</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-      <c r="G120">
-        <v>1</v>
-      </c>
-      <c r="H120">
+      <c r="E121">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121">
         <v>0</v>
       </c>
     </row>
@@ -4635,7 +4662,7 @@
   <sheetPr/>
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -156,8 +156,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -169,15 +169,44 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,23 +219,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,15 +243,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,18 +280,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,44 +301,6 @@
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -321,37 +321,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,13 +357,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,13 +399,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,78 +505,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -515,11 +515,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +541,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,17 +584,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -587,8 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,15 +612,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,16 +620,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,124 +641,124 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1374,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:H121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>StageTurn</t>
+  </si>
+  <si>
+    <t>PrizeSetId</t>
   </si>
   <si>
     <t>Type</t>
@@ -154,9 +157,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -165,6 +168,13 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,29 +194,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +207,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -243,14 +239,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,6 +300,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +324,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,19 +342,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,25 +378,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,43 +432,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,61 +462,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -545,15 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -565,6 +559,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,145 +623,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,19 +1375,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H121"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5"/>
   <cols>
     <col min="2" max="2" width="9.54545454545454"/>
     <col min="4" max="4" width="16.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1409,20 +1412,23 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>401</v>
       </c>
       <c r="C2">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="D2" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C2,[1]TextData!A:A))</f>
-        <v>ベリト</v>
+        <v>ウルフ</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1436,8 +1442,11 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1445,17 +1454,17 @@
         <v>401</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C3,[1]TextData!A:A))</f>
-        <v>ネームレス</v>
+        <v>ウルフ</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1463,26 +1472,29 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D4" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C4,[1]TextData!A:A))</f>
-        <v>ネームレス</v>
+        <v>カースド</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1490,3163 +1502,67 @@
       <c r="H4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>402</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C5,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
+        <v>ビー</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>402</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C6,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>ウルフ</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C7,[1]TextData!A:A))</f>
-        <v>ビー</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C8,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-      <c r="D9" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C9,[1]TextData!A:A))</f>
-        <v>クロウ</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C10,[1]TextData!A:A))</f>
-        <v>ネームレス</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C11,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C12,[1]TextData!A:A))</f>
-        <v>シールド</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>9</v>
-      </c>
-      <c r="D13" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C13,[1]TextData!A:A))</f>
-        <v>ドライアド</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C14,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>11</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="D15" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C15,[1]TextData!A:A))</f>
-        <v>スクイッド</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16">
-        <v>12</v>
-      </c>
-      <c r="D16" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C16,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>13</v>
-      </c>
-      <c r="D17" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
-        <v>インプ</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18">
-        <v>14</v>
-      </c>
-      <c r="D18" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C18,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C19,[1]TextData!A:A))</f>
-        <v>ソード</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>1010</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C20,[1]TextData!A:A))</f>
-        <v>ビー</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>1010</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C21,[1]TextData!A:A))</f>
-        <v>ビー</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>1010</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C22,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="B23">
-        <v>1020</v>
-      </c>
-      <c r="C23">
-        <v>6</v>
-      </c>
-      <c r="D23" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C23,[1]TextData!A:A))</f>
-        <v>ネームレス</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24">
-        <v>1020</v>
-      </c>
-      <c r="C24">
-        <v>3</v>
-      </c>
-      <c r="D24" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C24,[1]TextData!A:A))</f>
-        <v>ビー</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25">
-        <v>3</v>
-      </c>
-      <c r="B25">
-        <v>1020</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
-      <c r="D25" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C25,[1]TextData!A:A))</f>
-        <v>ビー</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="B26">
-        <v>1030</v>
-      </c>
-      <c r="C26">
-        <v>4</v>
-      </c>
-      <c r="D26" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C26,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27">
-        <v>2</v>
-      </c>
-      <c r="B27">
-        <v>1030</v>
-      </c>
-      <c r="C27">
-        <v>4</v>
-      </c>
-      <c r="D27" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C27,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28">
-        <v>3</v>
-      </c>
-      <c r="B28">
-        <v>1030</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C28,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>1040</v>
-      </c>
-      <c r="C29">
-        <v>2</v>
-      </c>
-      <c r="D29" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C29,[1]TextData!A:A))</f>
-        <v>カースド</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30">
-        <v>2</v>
-      </c>
-      <c r="B30">
-        <v>1040</v>
-      </c>
-      <c r="C30">
-        <v>12</v>
-      </c>
-      <c r="D30" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C30,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
-      </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>1040</v>
-      </c>
-      <c r="C31">
-        <v>12</v>
-      </c>
-      <c r="D31" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C31,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="B32">
-        <v>1130</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-      <c r="D32" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C32,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>2</v>
-      </c>
-      <c r="B33">
-        <v>1130</v>
-      </c>
-      <c r="C33">
-        <v>5</v>
-      </c>
-      <c r="D33" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C33,[1]TextData!A:A))</f>
-        <v>クロウ</v>
-      </c>
-      <c r="E33">
-        <v>5</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34">
-        <v>3</v>
-      </c>
-      <c r="B34">
-        <v>1130</v>
-      </c>
-      <c r="C34">
-        <v>10</v>
-      </c>
-      <c r="D34" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C34,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35">
-        <v>1</v>
-      </c>
-      <c r="B35">
-        <v>1140</v>
-      </c>
-      <c r="C35">
-        <v>12</v>
-      </c>
-      <c r="D35" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C35,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36">
-        <v>2</v>
-      </c>
-      <c r="B36">
-        <v>1140</v>
-      </c>
-      <c r="C36">
-        <v>14</v>
-      </c>
-      <c r="D36" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C36,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E36">
-        <v>1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37">
-        <v>3</v>
-      </c>
-      <c r="B37">
-        <v>1140</v>
-      </c>
-      <c r="C37">
-        <v>14</v>
-      </c>
-      <c r="D37" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C37,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="B38">
-        <v>1050</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-      <c r="D38" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C38,[1]TextData!A:A))</f>
-        <v>クロウ</v>
-      </c>
-      <c r="E38">
-        <v>1</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39">
-        <v>2</v>
-      </c>
-      <c r="B39">
-        <v>1050</v>
-      </c>
-      <c r="C39">
-        <v>5</v>
-      </c>
-      <c r="D39" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C39,[1]TextData!A:A))</f>
-        <v>クロウ</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>3</v>
-      </c>
-      <c r="B40">
-        <v>1050</v>
-      </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C40,[1]TextData!A:A))</f>
-        <v>カースド</v>
-      </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41">
-        <v>1</v>
-      </c>
-      <c r="B41">
-        <v>1060</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C41,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42">
-        <v>2</v>
-      </c>
-      <c r="B42">
-        <v>1060</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C42,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43">
-        <v>3</v>
-      </c>
-      <c r="B43">
-        <v>1060</v>
-      </c>
-      <c r="C43">
-        <v>15</v>
-      </c>
-      <c r="D43" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C43,[1]TextData!A:A))</f>
-        <v>ソード</v>
-      </c>
-      <c r="E43">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44">
-        <v>1</v>
-      </c>
-      <c r="B44">
-        <v>1070</v>
-      </c>
-      <c r="C44">
-        <v>15</v>
-      </c>
-      <c r="D44" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C44,[1]TextData!A:A))</f>
-        <v>ソード</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45">
-        <v>2</v>
-      </c>
-      <c r="B45">
-        <v>1070</v>
-      </c>
-      <c r="C45">
-        <v>15</v>
-      </c>
-      <c r="D45" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C45,[1]TextData!A:A))</f>
-        <v>ソード</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46">
-        <v>3</v>
-      </c>
-      <c r="B46">
-        <v>1070</v>
-      </c>
-      <c r="C46">
-        <v>13</v>
-      </c>
-      <c r="D46" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C46,[1]TextData!A:A))</f>
-        <v>インプ</v>
-      </c>
-      <c r="E46">
-        <v>3</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47">
-        <v>1</v>
-      </c>
-      <c r="B47">
-        <v>2010</v>
-      </c>
-      <c r="C47">
-        <v>13</v>
-      </c>
-      <c r="D47" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C47,[1]TextData!A:A))</f>
-        <v>インプ</v>
-      </c>
-      <c r="E47">
-        <v>3</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48">
-        <v>2</v>
-      </c>
-      <c r="B48">
-        <v>2010</v>
-      </c>
-      <c r="C48">
-        <v>13</v>
-      </c>
-      <c r="D48" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C48,[1]TextData!A:A))</f>
-        <v>インプ</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49">
-        <v>3</v>
-      </c>
-      <c r="B49">
-        <v>2010</v>
-      </c>
-      <c r="C49">
-        <v>13</v>
-      </c>
-      <c r="D49" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C49,[1]TextData!A:A))</f>
-        <v>インプ</v>
-      </c>
-      <c r="E49">
-        <v>3</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50">
-        <v>4</v>
-      </c>
-      <c r="B50">
-        <v>2010</v>
-      </c>
-      <c r="C50">
-        <v>101</v>
-      </c>
-      <c r="D50" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C50,[1]TextData!A:A))</f>
-        <v>ビフロンス</v>
-      </c>
-      <c r="E50">
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51">
-        <v>1</v>
-      </c>
-      <c r="B51">
-        <v>2020</v>
-      </c>
-      <c r="C51">
-        <v>8</v>
-      </c>
-      <c r="D51" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C51,[1]TextData!A:A))</f>
-        <v>シールド</v>
-      </c>
-      <c r="E51">
-        <v>3</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52">
-        <v>2</v>
-      </c>
-      <c r="B52">
-        <v>2020</v>
-      </c>
-      <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C52,[1]TextData!A:A))</f>
-        <v>シールド</v>
-      </c>
-      <c r="E52">
-        <v>3</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53">
-        <v>3</v>
-      </c>
-      <c r="B53">
-        <v>2020</v>
-      </c>
-      <c r="C53">
-        <v>8</v>
-      </c>
-      <c r="D53" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C53,[1]TextData!A:A))</f>
-        <v>シールド</v>
-      </c>
-      <c r="E53">
-        <v>3</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>2020</v>
-      </c>
-      <c r="C54">
-        <v>102</v>
-      </c>
-      <c r="D54" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C54,[1]TextData!A:A))</f>
-        <v>アンドラス</v>
-      </c>
-      <c r="E54">
-        <v>1</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55">
-        <v>1</v>
-      </c>
-      <c r="B55">
-        <v>2030</v>
-      </c>
-      <c r="C55">
-        <v>7</v>
-      </c>
-      <c r="D55" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C55,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E55">
-        <v>3</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56">
-        <v>2</v>
-      </c>
-      <c r="B56">
-        <v>2030</v>
-      </c>
-      <c r="C56">
-        <v>7</v>
-      </c>
-      <c r="D56" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C56,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E56">
-        <v>3</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57">
-        <v>3</v>
-      </c>
-      <c r="B57">
-        <v>2030</v>
-      </c>
-      <c r="C57">
-        <v>7</v>
-      </c>
-      <c r="D57" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C57,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E57">
-        <v>3</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58">
-        <v>4</v>
-      </c>
-      <c r="B58">
-        <v>2030</v>
-      </c>
-      <c r="C58">
-        <v>103</v>
-      </c>
-      <c r="D58" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C58,[1]TextData!A:A))</f>
-        <v>アモン</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59">
-        <v>1</v>
-      </c>
-      <c r="B59">
-        <v>2040</v>
-      </c>
-      <c r="C59">
-        <v>14</v>
-      </c>
-      <c r="D59" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C59,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E59">
-        <v>3</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60">
-        <v>2</v>
-      </c>
-      <c r="B60">
-        <v>2040</v>
-      </c>
-      <c r="C60">
-        <v>14</v>
-      </c>
-      <c r="D60" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C60,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E60">
-        <v>3</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61">
-        <v>3</v>
-      </c>
-      <c r="B61">
-        <v>2040</v>
-      </c>
-      <c r="C61">
-        <v>14</v>
-      </c>
-      <c r="D61" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C61,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E61">
-        <v>3</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62">
-        <v>4</v>
-      </c>
-      <c r="B62">
-        <v>2040</v>
-      </c>
-      <c r="C62">
-        <v>104</v>
-      </c>
-      <c r="D62" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C62,[1]TextData!A:A))</f>
-        <v>ベリト</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>1</v>
-      </c>
-      <c r="G62">
-        <v>1</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63">
-        <v>2130</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C63,[1]TextData!A:A))</f>
-        <v>カースド</v>
-      </c>
-      <c r="E63">
-        <v>3</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64">
-        <v>2</v>
-      </c>
-      <c r="B64">
-        <v>2130</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C64,[1]TextData!A:A))</f>
-        <v>カースド</v>
-      </c>
-      <c r="E64">
-        <v>3</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65">
-        <v>3</v>
-      </c>
-      <c r="B65">
-        <v>2130</v>
-      </c>
-      <c r="C65">
-        <v>2</v>
-      </c>
-      <c r="D65" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C65,[1]TextData!A:A))</f>
-        <v>カースド</v>
-      </c>
-      <c r="E65">
-        <v>3</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66">
-        <v>4</v>
-      </c>
-      <c r="B66">
-        <v>2130</v>
-      </c>
-      <c r="C66">
-        <v>113</v>
-      </c>
-      <c r="D66" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C66,[1]TextData!A:A))</f>
-        <v>アイホート</v>
-      </c>
-      <c r="E66">
-        <v>1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67">
-        <v>1</v>
-      </c>
-      <c r="B67">
-        <v>2140</v>
-      </c>
-      <c r="C67">
-        <v>12</v>
-      </c>
-      <c r="D67" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C67,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
-      </c>
-      <c r="E67">
-        <v>3</v>
-      </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68">
-        <v>2</v>
-      </c>
-      <c r="B68">
-        <v>2140</v>
-      </c>
-      <c r="C68">
-        <v>12</v>
-      </c>
-      <c r="D68" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C68,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
-      </c>
-      <c r="E68">
-        <v>3</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69">
-        <v>3</v>
-      </c>
-      <c r="B69">
-        <v>2140</v>
-      </c>
-      <c r="C69">
-        <v>12</v>
-      </c>
-      <c r="D69" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C69,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
-      </c>
-      <c r="E69">
-        <v>3</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70">
-        <v>4</v>
-      </c>
-      <c r="B70">
-        <v>2140</v>
-      </c>
-      <c r="C70">
-        <v>114</v>
-      </c>
-      <c r="D70" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C70,[1]TextData!A:A))</f>
-        <v>ノーデンス</v>
-      </c>
-      <c r="E70">
-        <v>1</v>
-      </c>
-      <c r="F70">
-        <v>1</v>
-      </c>
-      <c r="G70">
-        <v>1</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71">
-        <v>1</v>
-      </c>
-      <c r="B71">
-        <v>2050</v>
-      </c>
-      <c r="C71">
-        <v>4</v>
-      </c>
-      <c r="D71" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C71,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E71">
-        <v>3</v>
-      </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72">
-        <v>2</v>
-      </c>
-      <c r="B72">
-        <v>2050</v>
-      </c>
-      <c r="C72">
-        <v>4</v>
-      </c>
-      <c r="D72" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C72,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E72">
-        <v>3</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73">
-        <v>3</v>
-      </c>
-      <c r="B73">
-        <v>2050</v>
-      </c>
-      <c r="C73">
-        <v>4</v>
-      </c>
-      <c r="D73" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C73,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E73">
-        <v>3</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74">
-        <v>4</v>
-      </c>
-      <c r="B74">
-        <v>2050</v>
-      </c>
-      <c r="C74">
-        <v>105</v>
-      </c>
-      <c r="D74" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C74,[1]TextData!A:A))</f>
-        <v>パイモン</v>
-      </c>
-      <c r="E74">
-        <v>1</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-      <c r="G74">
-        <v>1</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75">
-        <v>1</v>
-      </c>
-      <c r="B75">
-        <v>2060</v>
-      </c>
-      <c r="C75">
-        <v>3</v>
-      </c>
-      <c r="D75" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C75,[1]TextData!A:A))</f>
-        <v>ビー</v>
-      </c>
-      <c r="E75">
-        <v>3</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76">
-        <v>2</v>
-      </c>
-      <c r="B76">
-        <v>2060</v>
-      </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C76,[1]TextData!A:A))</f>
-        <v>ビー</v>
-      </c>
-      <c r="E76">
-        <v>3</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77">
-        <v>3</v>
-      </c>
-      <c r="B77">
-        <v>2060</v>
-      </c>
-      <c r="C77">
-        <v>3</v>
-      </c>
-      <c r="D77" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C77,[1]TextData!A:A))</f>
-        <v>ビー</v>
-      </c>
-      <c r="E77">
-        <v>3</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78">
-        <v>2060</v>
-      </c>
-      <c r="C78">
-        <v>106</v>
-      </c>
-      <c r="D78" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C78,[1]TextData!A:A))</f>
-        <v>ビヤーキー</v>
-      </c>
-      <c r="E78">
-        <v>1</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-      <c r="G78">
-        <v>1</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>2070</v>
-      </c>
-      <c r="C79">
-        <v>10</v>
-      </c>
-      <c r="D79" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C79,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
-      </c>
-      <c r="E79">
-        <v>3</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80">
-        <v>2</v>
-      </c>
-      <c r="B80">
-        <v>2070</v>
-      </c>
-      <c r="C80">
-        <v>10</v>
-      </c>
-      <c r="D80" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C80,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
-      </c>
-      <c r="E80">
-        <v>3</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81">
-        <v>3</v>
-      </c>
-      <c r="B81">
-        <v>2070</v>
-      </c>
-      <c r="C81">
-        <v>10</v>
-      </c>
-      <c r="D81" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C81,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
-      </c>
-      <c r="E81">
-        <v>3</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82">
-        <v>4</v>
-      </c>
-      <c r="B82">
-        <v>2070</v>
-      </c>
-      <c r="C82">
-        <v>107</v>
-      </c>
-      <c r="D82" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C82,[1]TextData!A:A))</f>
-        <v>ポリプ</v>
-      </c>
-      <c r="E82">
-        <v>1</v>
-      </c>
-      <c r="F82">
-        <v>1</v>
-      </c>
-      <c r="G82">
-        <v>1</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83">
-        <v>3010</v>
-      </c>
-      <c r="C83">
-        <v>2</v>
-      </c>
-      <c r="D83" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C83,[1]TextData!A:A))</f>
-        <v>カースド</v>
-      </c>
-      <c r="E83">
-        <v>3</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84">
-        <v>2</v>
-      </c>
-      <c r="B84">
-        <v>3010</v>
-      </c>
-      <c r="C84">
-        <v>12</v>
-      </c>
-      <c r="D84" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C84,[1]TextData!A:A))</f>
-        <v>クリーパー</v>
-      </c>
-      <c r="E84">
-        <v>3</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85">
-        <v>3</v>
-      </c>
-      <c r="B85">
-        <v>3010</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-      <c r="D85" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C85,[1]TextData!A:A))</f>
-        <v>カースド</v>
-      </c>
-      <c r="E85">
-        <v>3</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86">
-        <v>4</v>
-      </c>
-      <c r="B86">
-        <v>3010</v>
-      </c>
-      <c r="C86">
-        <v>201</v>
-      </c>
-      <c r="D86" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C86,[1]TextData!A:A))</f>
-        <v>ブエル</v>
-      </c>
-      <c r="E86">
-        <v>1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>1</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87">
-        <v>1</v>
-      </c>
-      <c r="B87">
-        <v>3020</v>
-      </c>
-      <c r="C87">
-        <v>10</v>
-      </c>
-      <c r="D87" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C87,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
-      </c>
-      <c r="E87">
-        <v>3</v>
-      </c>
-      <c r="F87">
-        <v>0</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88">
-        <v>2</v>
-      </c>
-      <c r="B88">
-        <v>3020</v>
-      </c>
-      <c r="C88">
-        <v>8</v>
-      </c>
-      <c r="D88" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C88,[1]TextData!A:A))</f>
-        <v>シールド</v>
-      </c>
-      <c r="E88">
-        <v>3</v>
-      </c>
-      <c r="F88">
-        <v>0</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89">
-        <v>3</v>
-      </c>
-      <c r="B89">
-        <v>3020</v>
-      </c>
-      <c r="C89">
-        <v>10</v>
-      </c>
-      <c r="D89" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C89,[1]TextData!A:A))</f>
-        <v>スコーピオン</v>
-      </c>
-      <c r="E89">
-        <v>3</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90">
-        <v>4</v>
-      </c>
-      <c r="B90">
-        <v>3020</v>
-      </c>
-      <c r="C90">
-        <v>202</v>
-      </c>
-      <c r="D90" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C90,[1]TextData!A:A))</f>
-        <v>デカラビア</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-      <c r="G90">
-        <v>1</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>3030</v>
-      </c>
-      <c r="C91">
-        <v>7</v>
-      </c>
-      <c r="D91" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C91,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E91">
-        <v>3</v>
-      </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <v>0</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92">
-        <v>2</v>
-      </c>
-      <c r="B92">
-        <v>3030</v>
-      </c>
-      <c r="C92">
-        <v>15</v>
-      </c>
-      <c r="D92" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C92,[1]TextData!A:A))</f>
-        <v>ソード</v>
-      </c>
-      <c r="E92">
-        <v>3</v>
-      </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <v>0</v>
-      </c>
-      <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93">
-        <v>3</v>
-      </c>
-      <c r="B93">
-        <v>3030</v>
-      </c>
-      <c r="C93">
-        <v>7</v>
-      </c>
-      <c r="D93" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C93,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E93">
-        <v>3</v>
-      </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <v>0</v>
-      </c>
-      <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94">
-        <v>4</v>
-      </c>
-      <c r="B94">
-        <v>3030</v>
-      </c>
-      <c r="C94">
-        <v>203</v>
-      </c>
-      <c r="D94" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C94,[1]TextData!A:A))</f>
-        <v>ザガン</v>
-      </c>
-      <c r="E94">
-        <v>1</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-      <c r="G94">
-        <v>1</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95">
-        <v>1</v>
-      </c>
-      <c r="B95">
-        <v>3040</v>
-      </c>
-      <c r="C95">
-        <v>1</v>
-      </c>
-      <c r="D95" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C95,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
-      </c>
-      <c r="E95">
-        <v>3</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96">
-        <v>2</v>
-      </c>
-      <c r="B96">
-        <v>3040</v>
-      </c>
-      <c r="C96">
-        <v>5</v>
-      </c>
-      <c r="D96" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C96,[1]TextData!A:A))</f>
-        <v>クロウ</v>
-      </c>
-      <c r="E96">
-        <v>3</v>
-      </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97">
-        <v>3</v>
-      </c>
-      <c r="B97">
-        <v>3040</v>
-      </c>
-      <c r="C97">
-        <v>14</v>
-      </c>
-      <c r="D97" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C97,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E97">
-        <v>3</v>
-      </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98">
-        <v>4</v>
-      </c>
-      <c r="B98">
-        <v>3040</v>
-      </c>
-      <c r="C98">
-        <v>204</v>
-      </c>
-      <c r="D98" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C98,[1]TextData!A:A))</f>
-        <v>メフィストフェレス</v>
-      </c>
-      <c r="E98">
-        <v>1</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>1</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>3050</v>
-      </c>
-      <c r="C99">
-        <v>4</v>
-      </c>
-      <c r="D99" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C99,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E99">
-        <v>3</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100">
-        <v>2</v>
-      </c>
-      <c r="B100">
-        <v>3050</v>
-      </c>
-      <c r="C100">
-        <v>9</v>
-      </c>
-      <c r="D100" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C100,[1]TextData!A:A))</f>
-        <v>ドライアド</v>
-      </c>
-      <c r="E100">
-        <v>3</v>
-      </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101">
-        <v>3</v>
-      </c>
-      <c r="B101">
-        <v>3050</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
-      </c>
-      <c r="D101" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C101,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E101">
-        <v>3</v>
-      </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <v>0</v>
-      </c>
-      <c r="H101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
-      <c r="A102">
-        <v>4</v>
-      </c>
-      <c r="B102">
-        <v>3050</v>
-      </c>
-      <c r="C102">
-        <v>205</v>
-      </c>
-      <c r="D102" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C102,[1]TextData!A:A))</f>
-        <v>アスタロト</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102">
-        <v>1</v>
-      </c>
-      <c r="H102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
-      <c r="A103">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>3060</v>
-      </c>
-      <c r="C103">
-        <v>8</v>
-      </c>
-      <c r="D103" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C103,[1]TextData!A:A))</f>
-        <v>シールド</v>
-      </c>
-      <c r="E103">
-        <v>3</v>
-      </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
-      <c r="A104">
-        <v>2</v>
-      </c>
-      <c r="B104">
-        <v>3060</v>
-      </c>
-      <c r="C104">
-        <v>6</v>
-      </c>
-      <c r="D104" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C104,[1]TextData!A:A))</f>
-        <v>ネームレス</v>
-      </c>
-      <c r="E104">
-        <v>3</v>
-      </c>
-      <c r="F104">
-        <v>0</v>
-      </c>
-      <c r="G104">
-        <v>0</v>
-      </c>
-      <c r="H104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105">
-        <v>3</v>
-      </c>
-      <c r="B105">
-        <v>3060</v>
-      </c>
-      <c r="C105">
-        <v>8</v>
-      </c>
-      <c r="D105" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C105,[1]TextData!A:A))</f>
-        <v>シールド</v>
-      </c>
-      <c r="E105">
-        <v>3</v>
-      </c>
-      <c r="F105">
-        <v>0</v>
-      </c>
-      <c r="G105">
-        <v>0</v>
-      </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
-      <c r="A106">
-        <v>4</v>
-      </c>
-      <c r="B106">
-        <v>3060</v>
-      </c>
-      <c r="C106">
-        <v>206</v>
-      </c>
-      <c r="D106" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C106,[1]TextData!A:A))</f>
-        <v>イタクァ</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106">
-        <v>1</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
-      <c r="A107">
-        <v>1</v>
-      </c>
-      <c r="B107">
-        <v>3070</v>
-      </c>
-      <c r="C107">
-        <v>13</v>
-      </c>
-      <c r="D107" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C107,[1]TextData!A:A))</f>
-        <v>インプ</v>
-      </c>
-      <c r="E107">
-        <v>3</v>
-      </c>
-      <c r="F107">
-        <v>0</v>
-      </c>
-      <c r="G107">
-        <v>0</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
-      <c r="A108">
-        <v>2</v>
-      </c>
-      <c r="B108">
-        <v>3070</v>
-      </c>
-      <c r="C108">
-        <v>7</v>
-      </c>
-      <c r="D108" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C108,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E108">
-        <v>3</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109">
-        <v>3</v>
-      </c>
-      <c r="B109">
-        <v>3070</v>
-      </c>
-      <c r="C109">
-        <v>13</v>
-      </c>
-      <c r="D109" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C109,[1]TextData!A:A))</f>
-        <v>インプ</v>
-      </c>
-      <c r="E109">
-        <v>3</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>0</v>
-      </c>
-      <c r="H109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110">
-        <v>4</v>
-      </c>
-      <c r="B110">
-        <v>3070</v>
-      </c>
-      <c r="C110">
-        <v>207</v>
-      </c>
-      <c r="D110" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C110,[1]TextData!A:A))</f>
-        <v>シアエガ</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110">
-        <v>1</v>
-      </c>
-      <c r="H110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111">
-        <v>1</v>
-      </c>
-      <c r="B111">
-        <v>3130</v>
-      </c>
-      <c r="C111">
-        <v>7</v>
-      </c>
-      <c r="D111" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C111,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E111">
-        <v>3</v>
-      </c>
-      <c r="F111">
-        <v>0</v>
-      </c>
-      <c r="G111">
-        <v>0</v>
-      </c>
-      <c r="H111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112">
-        <v>2</v>
-      </c>
-      <c r="B112">
-        <v>3130</v>
-      </c>
-      <c r="C112">
-        <v>15</v>
-      </c>
-      <c r="D112" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C112,[1]TextData!A:A))</f>
-        <v>ソード</v>
-      </c>
-      <c r="E112">
-        <v>3</v>
-      </c>
-      <c r="F112">
-        <v>0</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113">
-        <v>3</v>
-      </c>
-      <c r="B113">
-        <v>3130</v>
-      </c>
-      <c r="C113">
-        <v>7</v>
-      </c>
-      <c r="D113" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C113,[1]TextData!A:A))</f>
-        <v>サーチャー</v>
-      </c>
-      <c r="E113">
-        <v>3</v>
-      </c>
-      <c r="F113">
-        <v>0</v>
-      </c>
-      <c r="G113">
-        <v>0</v>
-      </c>
-      <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
-      <c r="A114">
-        <v>4</v>
-      </c>
-      <c r="B114">
-        <v>3130</v>
-      </c>
-      <c r="C114">
-        <v>213</v>
-      </c>
-      <c r="D114" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C114,[1]TextData!A:A))</f>
-        <v>シアエガ</v>
-      </c>
-      <c r="E114">
-        <v>1</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-      <c r="G114">
-        <v>1</v>
-      </c>
-      <c r="H114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
-      <c r="A115">
-        <v>1</v>
-      </c>
-      <c r="B115">
-        <v>3140</v>
-      </c>
-      <c r="C115">
-        <v>1</v>
-      </c>
-      <c r="D115" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C115,[1]TextData!A:A))</f>
-        <v>ネレイドジェム</v>
-      </c>
-      <c r="E115">
-        <v>3</v>
-      </c>
-      <c r="F115">
-        <v>0</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
-      <c r="A116">
-        <v>2</v>
-      </c>
-      <c r="B116">
-        <v>3140</v>
-      </c>
-      <c r="C116">
-        <v>5</v>
-      </c>
-      <c r="D116" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C116,[1]TextData!A:A))</f>
-        <v>クロウ</v>
-      </c>
-      <c r="E116">
-        <v>3</v>
-      </c>
-      <c r="F116">
-        <v>0</v>
-      </c>
-      <c r="G116">
-        <v>0</v>
-      </c>
-      <c r="H116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117">
-        <v>3</v>
-      </c>
-      <c r="B117">
-        <v>3140</v>
-      </c>
-      <c r="C117">
-        <v>14</v>
-      </c>
-      <c r="D117" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C117,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E117">
-        <v>3</v>
-      </c>
-      <c r="F117">
-        <v>0</v>
-      </c>
-      <c r="G117">
-        <v>0</v>
-      </c>
-      <c r="H117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
-      <c r="A118">
-        <v>4</v>
-      </c>
-      <c r="B118">
-        <v>3140</v>
-      </c>
-      <c r="C118">
-        <v>214</v>
-      </c>
-      <c r="D118" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C118,[1]TextData!A:A))</f>
-        <v>シアエガ</v>
-      </c>
-      <c r="E118">
-        <v>1</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-      <c r="G118">
-        <v>1</v>
-      </c>
-      <c r="H118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
-      <c r="A119">
-        <v>1</v>
-      </c>
-      <c r="B119">
-        <v>4010</v>
-      </c>
-      <c r="C119">
-        <v>14</v>
-      </c>
-      <c r="D119" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C119,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E119">
-        <v>3</v>
-      </c>
-      <c r="F119">
-        <v>0</v>
-      </c>
-      <c r="G119">
-        <v>0</v>
-      </c>
-      <c r="H119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
-      <c r="A120">
-        <v>2</v>
-      </c>
-      <c r="B120">
-        <v>4010</v>
-      </c>
-      <c r="C120">
-        <v>14</v>
-      </c>
-      <c r="D120" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C120,[1]TextData!A:A))</f>
-        <v>ゴーストアーマー</v>
-      </c>
-      <c r="E120">
-        <v>3</v>
-      </c>
-      <c r="F120">
-        <v>0</v>
-      </c>
-      <c r="G120">
-        <v>0</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
-      <c r="A121">
-        <v>3</v>
-      </c>
-      <c r="B121">
-        <v>4010</v>
-      </c>
-      <c r="C121">
-        <v>301</v>
-      </c>
-      <c r="D121" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C121,[1]TextData!A:A))</f>
-        <v>デビルドラゴン</v>
-      </c>
-      <c r="E121">
-        <v>1</v>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
@@ -4676,13 +1592,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4702,7 +1618,7 @@
         <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4756,7 +1672,7 @@
         <v>100</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4810,7 +1726,7 @@
         <v>100</v>
       </c>
       <c r="F8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4864,7 +1780,7 @@
         <v>100</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4918,7 +1834,7 @@
         <v>100</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4972,7 +1888,7 @@
         <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -5026,7 +1942,7 @@
         <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -5080,7 +1996,7 @@
         <v>100</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -5134,7 +2050,7 @@
         <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -5188,7 +2104,7 @@
         <v>100</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -5242,7 +2158,7 @@
         <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -5296,7 +2212,7 @@
         <v>100</v>
       </c>
       <c r="F35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -5350,7 +2266,7 @@
         <v>100</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -5404,7 +2320,7 @@
         <v>100</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -5458,7 +2374,7 @@
         <v>100</v>
       </c>
       <c r="F44" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -5512,7 +2428,7 @@
         <v>100</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -5566,7 +2482,7 @@
         <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -5620,7 +2536,7 @@
         <v>100</v>
       </c>
       <c r="F53" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -5674,7 +2590,7 @@
         <v>100</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5728,7 +2644,7 @@
         <v>100</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5782,7 +2698,7 @@
         <v>100</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5836,7 +2752,7 @@
         <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5890,7 +2806,7 @@
         <v>100</v>
       </c>
       <c r="F68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5944,7 +2860,7 @@
         <v>100</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5998,7 +2914,7 @@
         <v>100</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -6052,7 +2968,7 @@
         <v>100</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -6106,7 +3022,7 @@
         <v>100</v>
       </c>
       <c r="F80" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -6160,7 +3076,7 @@
         <v>100</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -6214,7 +3130,7 @@
         <v>100</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -6268,7 +3184,7 @@
         <v>100</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -6322,7 +3238,7 @@
         <v>100</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -6376,7 +3292,7 @@
         <v>100</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -6430,7 +3346,7 @@
         <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:5">

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -158,9 +158,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,13 +168,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -187,7 +180,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,14 +201,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,9 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,30 +231,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -277,7 +246,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -293,23 +270,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,19 +324,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,13 +432,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,43 +462,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,67 +486,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,21 +548,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -589,8 +574,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -607,11 +594,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,145 +623,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5"/>
@@ -1484,11 +1484,11 @@
         <v>402</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C4,[1]TextData!A:A))</f>
-        <v>カースド</v>
+        <v>ウルフ</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1514,11 +1514,11 @@
         <v>402</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX([1]TextData!B:B,MATCH(C5,[1]TextData!A:A))</f>
-        <v>ビー</v>
+        <v>ウルフ</v>
       </c>
       <c r="E5">
         <v>1</v>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -173,14 +173,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,93 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -302,7 +240,69 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,13 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +348,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,31 +462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,55 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,60 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -579,15 +525,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,6 +552,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,16 +623,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,127 +641,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,13 +1375,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="9.54545454545454"/>
     <col min="4" max="4" width="16.5454545454545" customWidth="1"/>
@@ -1563,6 +1563,336 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>1001</v>
+      </c>
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C7,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>1001</v>
+      </c>
+      <c r="B8">
+        <v>1001</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C8,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>1011</v>
+      </c>
+      <c r="B9">
+        <v>1011</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C9,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>1011</v>
+      </c>
+      <c r="B10">
+        <v>1011</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C10,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>1011</v>
+      </c>
+      <c r="B11">
+        <v>1011</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C11,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>1012</v>
+      </c>
+      <c r="B12">
+        <v>1012</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C12,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13">
+        <v>1012</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C13,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>1012</v>
+      </c>
+      <c r="B14">
+        <v>1012</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C14,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>1021</v>
+      </c>
+      <c r="B15">
+        <v>1021</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C15,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>1021</v>
+      </c>
+      <c r="B16">
+        <v>1021</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C16,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1021</v>
+      </c>
+      <c r="B17">
+        <v>1021</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="6620"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,9 +171,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,10 +231,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -202,13 +245,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -216,15 +284,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
@@ -240,53 +301,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,22 +309,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,13 +324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,37 +336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,31 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,55 +366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,7 +384,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,13 +444,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,17 +515,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -553,11 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,8 +560,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +581,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -600,21 +615,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,145 +623,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>100</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>100</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>100</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="16" spans="1:9">

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -157,10 +157,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,34 +168,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -207,16 +179,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,22 +197,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,10 +234,69 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -284,32 +308,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,7 +324,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,31 +456,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,31 +480,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,37 +492,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,49 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,7 +522,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,26 +542,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,7 +576,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,21 +615,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -623,145 +623,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1375,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1863,36 +1863,6 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17">
-        <v>1021</v>
-      </c>
-      <c r="B17">
-        <v>1021</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17" t="str">
-        <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
-        <v>ウルフ</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6620"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Troops" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -171,17 +171,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,21 +200,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -218,8 +208,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,11 +245,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -250,28 +261,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,15 +284,24 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,13 +310,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,25 +324,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,79 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,7 +396,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +456,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,43 +468,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,11 +518,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,6 +548,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -553,21 +568,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,8 +584,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,16 +623,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -641,127 +641,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -980,7 +980,7 @@
             <v>101</v>
           </cell>
           <cell r="B17" t="str">
-            <v>ビフロンス</v>
+            <v>タルウィ</v>
           </cell>
         </row>
         <row r="18">
@@ -988,7 +988,7 @@
             <v>102</v>
           </cell>
           <cell r="B18" t="str">
-            <v>アンドラス</v>
+            <v>ザリチュ</v>
           </cell>
         </row>
         <row r="19">
@@ -996,7 +996,7 @@
             <v>103</v>
           </cell>
           <cell r="B19" t="str">
-            <v>アモン</v>
+            <v>サルワ</v>
           </cell>
         </row>
         <row r="20">
@@ -1004,7 +1004,7 @@
             <v>104</v>
           </cell>
           <cell r="B20" t="str">
-            <v>ベリト</v>
+            <v>タローマティ</v>
           </cell>
         </row>
         <row r="21">
@@ -1012,7 +1012,7 @@
             <v>105</v>
           </cell>
           <cell r="B21" t="str">
-            <v>パイモン</v>
+            <v>ドゥルジ</v>
           </cell>
         </row>
         <row r="22">
@@ -1052,7 +1052,7 @@
             <v>201</v>
           </cell>
           <cell r="B26" t="str">
-            <v>ブエル</v>
+            <v>アカマナフ</v>
           </cell>
         </row>
         <row r="27">
@@ -1100,7 +1100,7 @@
             <v>207</v>
           </cell>
           <cell r="B32" t="str">
-            <v>シアエガ</v>
+            <v>アンリ・マンユ</v>
           </cell>
         </row>
         <row r="33">
@@ -1375,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13"/>
@@ -1863,6 +1863,216 @@
         <v>0</v>
       </c>
       <c r="I16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>1190</v>
+      </c>
+      <c r="B17">
+        <v>1190</v>
+      </c>
+      <c r="C17">
+        <v>101</v>
+      </c>
+      <c r="D17" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C17,[1]TextData!A:A))</f>
+        <v>タルウィ</v>
+      </c>
+      <c r="E17">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>1190</v>
+      </c>
+      <c r="B18">
+        <v>1190</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C18,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>1190</v>
+      </c>
+      <c r="B19">
+        <v>1190</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C19,[1]TextData!A:A))</f>
+        <v>ウルフ</v>
+      </c>
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>1191</v>
+      </c>
+      <c r="B20">
+        <v>1191</v>
+      </c>
+      <c r="C20">
+        <v>101</v>
+      </c>
+      <c r="D20" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C20,[1]TextData!A:A))</f>
+        <v>タルウィ</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>1191</v>
+      </c>
+      <c r="B21">
+        <v>1191</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C21,[1]TextData!A:A))</f>
+        <v>ネレイドジェム</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>1191</v>
+      </c>
+      <c r="B22">
+        <v>1191</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C22,[1]TextData!A:A))</f>
+        <v>ネレイドジェム</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>1192</v>
+      </c>
+      <c r="B23">
+        <v>1192</v>
+      </c>
+      <c r="C23">
+        <v>102</v>
+      </c>
+      <c r="D23" t="str">
+        <f>INDEX([1]TextData!B:B,MATCH(C23,[1]TextData!A:A))</f>
+        <v>ザリチュ</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Data/Troops.xlsx
+++ b/Assets/Data/Troops.xlsx
@@ -158,14 +158,22 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -178,6 +186,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -185,8 +223,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,38 +246,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,8 +262,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -260,56 +307,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,6 +330,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -342,7 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,13 +396,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fi